--- a/schedule-1-23-2024b.xlsx
+++ b/schedule-1-23-2024b.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111AC0D6-922B-4273-B439-6E0575BFE878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{7A2F96CE-A59B-4E46-B776-0A904F0EC3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -135,9 +135,6 @@
     <t>class 6</t>
   </si>
   <si>
-    <t>project work day</t>
-  </si>
-  <si>
     <t>TR1</t>
   </si>
   <si>
@@ -406,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,18 +673,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -916,23 +913,23 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.140625" customWidth="1"/>
-    <col min="8" max="26" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.45703125" customWidth="1"/>
+    <col min="2" max="2" width="6.58984375" customWidth="1"/>
+    <col min="3" max="3" width="7.26171875" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="37.53125" customWidth="1"/>
+    <col min="6" max="6" width="16.6796875" customWidth="1"/>
+    <col min="7" max="7" width="67.125" customWidth="1"/>
+    <col min="8" max="26" width="9.14453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +971,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -993,7 +990,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:26" ht="30">
+    <row r="3" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>10</v>
@@ -1034,7 +1031,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="1:26" ht="47.25" customHeight="1">
+    <row r="4" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <f>A2+1</f>
         <v>2</v>
@@ -1060,7 +1057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1079,7 +1076,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="30">
+    <row r="6" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f>A4+1</f>
         <v>3</v>
@@ -1105,7 +1102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1118,11 +1115,11 @@
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="13"/>
@@ -1145,7 +1142,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="1:26" ht="30">
+    <row r="8" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <f>A6+1</f>
         <v>4</v>
@@ -1159,19 +1156,19 @@
         <v>45335</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1182,17 +1179,17 @@
         <v>45338</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:26" ht="30">
+    <row r="10" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <f>A8+1</f>
         <v>5</v>
@@ -1206,19 +1203,19 @@
         <v>45342</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1229,7 +1226,7 @@
         <v>45345</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>20</v>
@@ -1256,7 +1253,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" ht="33" customHeight="1">
+    <row r="12" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f>A10+1</f>
         <v>6</v>
@@ -1270,19 +1267,19 @@
         <v>45349</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1293,17 +1290,17 @@
         <v>45352</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <f>A12+1</f>
         <v>7</v>
@@ -1317,17 +1314,17 @@
         <v>45356</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1338,13 +1335,13 @@
         <v>45359</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="13"/>
@@ -1367,7 +1364,7 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <f>A14+1</f>
         <v>8</v>
@@ -1381,13 +1378,13 @@
         <v>45363</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1402,7 +1399,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:26" ht="30">
+    <row r="18" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <f>A16+1</f>
         <v>9</v>
@@ -1416,19 +1413,19 @@
         <v>45370</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="G18" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1439,13 +1436,13 @@
         <v>45373</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="13"/>
@@ -1468,7 +1465,7 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <f>A18+1</f>
         <v>10</v>
@@ -1482,17 +1479,17 @@
         <v>45377</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:26" ht="30">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1503,17 +1500,17 @@
         <v>45380</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <f>A20+1</f>
         <v>11</v>
@@ -1527,19 +1524,19 @@
         <v>45384</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="G22" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="31.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1550,13 +1547,13 @@
         <v>45387</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="13"/>
@@ -1579,20 +1576,20 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
     </row>
-    <row r="24" spans="1:26" ht="34.5" customHeight="1">
+    <row r="24" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>12</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="18">
         <v>45390</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="38"/>
+      <c r="D24" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="35"/>
       <c r="F24" s="9"/>
       <c r="G24" s="11"/>
       <c r="H24" s="13"/>
@@ -1615,7 +1612,7 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" spans="1:26" ht="30">
+    <row r="25" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <f>A22+1</f>
         <v>12</v>
@@ -1629,17 +1626,17 @@
         <v>45391</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1650,17 +1647,17 @@
         <v>45394</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:26" ht="30">
+    <row r="27" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <f>A25+1</f>
         <v>13</v>
@@ -1674,34 +1671,34 @@
         <v>45398</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:26" ht="30">
+    <row r="28" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="18">
         <v>45400</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:26" ht="30">
+    <row r="29" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7" t="str">
         <f t="shared" ref="B29:B30" si="4">B26</f>
@@ -1712,13 +1709,13 @@
         <v>45401</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="13"/>
@@ -1741,7 +1738,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" ht="33.75" customHeight="1">
+    <row r="30" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <f>A27+1</f>
         <v>14</v>
@@ -1755,47 +1752,47 @@
         <v>45405</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:26" ht="33.75" customHeight="1">
+    <row r="31" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="8">
         <v>45406</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="9"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:26" ht="30">
+    <row r="32" spans="1:26" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="18">
         <v>45041</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="19" t="s">
-        <v>86</v>
-      </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="str">
         <f t="shared" ref="B33:B34" si="6">B29</f>
@@ -1806,7 +1803,7 @@
         <v>45408</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>20</v>
@@ -1814,7 +1811,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <f>A30+1</f>
         <v>15</v>
@@ -1828,15 +1825,15 @@
         <v>45412</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="str">
         <f>B33</f>
@@ -1847,36 +1844,36 @@
         <v>45415</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="45.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
@@ -1884,7 +1881,7 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
@@ -1892,7 +1889,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
@@ -1900,7 +1897,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
@@ -1908,7 +1905,7 @@
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
@@ -1916,7 +1913,7 @@
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
       <c r="D42" s="26"/>
@@ -1924,7 +1921,7 @@
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
       <c r="D43" s="26"/>
@@ -1932,7 +1929,7 @@
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
@@ -1940,7 +1937,7 @@
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
@@ -1948,7 +1945,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
       <c r="D46" s="26"/>
@@ -1956,7 +1953,7 @@
       <c r="F46" s="28"/>
       <c r="G46" s="29"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
@@ -1964,7 +1961,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="29"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
       <c r="D48" s="26"/>
@@ -1972,7 +1969,7 @@
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1">
+    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
@@ -1980,7 +1977,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1">
+    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
@@ -1988,7 +1985,7 @@
       <c r="F50" s="28"/>
       <c r="G50" s="29"/>
     </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
@@ -1996,7 +1993,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="29"/>
     </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1">
+    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
       <c r="D52" s="26"/>
@@ -2004,7 +2001,7 @@
       <c r="F52" s="28"/>
       <c r="G52" s="29"/>
     </row>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1">
+    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
       <c r="D53" s="26"/>
@@ -2012,7 +2009,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="2:7" ht="15.75" customHeight="1">
+    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
@@ -2020,7 +2017,7 @@
       <c r="F54" s="28"/>
       <c r="G54" s="29"/>
     </row>
-    <row r="55" spans="2:7" ht="15.75" customHeight="1">
+    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
       <c r="D55" s="26"/>
@@ -2028,7 +2025,7 @@
       <c r="F55" s="28"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="2:7" ht="15.75" customHeight="1">
+    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
       <c r="D56" s="26"/>
@@ -2036,7 +2033,7 @@
       <c r="F56" s="28"/>
       <c r="G56" s="29"/>
     </row>
-    <row r="57" spans="2:7" ht="15.75" customHeight="1">
+    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
       <c r="D57" s="26"/>
@@ -2044,7 +2041,7 @@
       <c r="F57" s="28"/>
       <c r="G57" s="29"/>
     </row>
-    <row r="58" spans="2:7" ht="15.75" customHeight="1">
+    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
@@ -2052,7 +2049,7 @@
       <c r="F58" s="28"/>
       <c r="G58" s="29"/>
     </row>
-    <row r="59" spans="2:7" ht="15.75" customHeight="1">
+    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
       <c r="D59" s="26"/>
@@ -2060,7 +2057,7 @@
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
     </row>
-    <row r="60" spans="2:7" ht="15.75" customHeight="1">
+    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
       <c r="D60" s="26"/>
@@ -2068,7 +2065,7 @@
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
     </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1">
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
@@ -2076,7 +2073,7 @@
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
     </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1">
+    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
       <c r="D62" s="26"/>
@@ -2084,7 +2081,7 @@
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
     </row>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1">
+    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
@@ -2092,7 +2089,7 @@
       <c r="F63" s="28"/>
       <c r="G63" s="29"/>
     </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1">
+    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
       <c r="D64" s="26"/>
@@ -2100,7 +2097,7 @@
       <c r="F64" s="28"/>
       <c r="G64" s="29"/>
     </row>
-    <row r="65" spans="2:7" ht="15.75" customHeight="1">
+    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
       <c r="D65" s="26"/>
@@ -2108,7 +2105,7 @@
       <c r="F65" s="28"/>
       <c r="G65" s="29"/>
     </row>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1">
+    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
       <c r="D66" s="26"/>
@@ -2116,7 +2113,7 @@
       <c r="F66" s="28"/>
       <c r="G66" s="29"/>
     </row>
-    <row r="67" spans="2:7" ht="15.75" customHeight="1">
+    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
       <c r="D67" s="26"/>
@@ -2124,7 +2121,7 @@
       <c r="F67" s="28"/>
       <c r="G67" s="29"/>
     </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1">
+    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
@@ -2132,7 +2129,7 @@
       <c r="F68" s="28"/>
       <c r="G68" s="29"/>
     </row>
-    <row r="69" spans="2:7" ht="15.75" customHeight="1">
+    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="26"/>
@@ -2140,7 +2137,7 @@
       <c r="F69" s="28"/>
       <c r="G69" s="29"/>
     </row>
-    <row r="70" spans="2:7" ht="15.75" customHeight="1">
+    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
       <c r="D70" s="26"/>
@@ -2148,7 +2145,7 @@
       <c r="F70" s="28"/>
       <c r="G70" s="29"/>
     </row>
-    <row r="71" spans="2:7" ht="15.75" customHeight="1">
+    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
       <c r="D71" s="26"/>
@@ -2156,7 +2153,7 @@
       <c r="F71" s="28"/>
       <c r="G71" s="29"/>
     </row>
-    <row r="72" spans="2:7" ht="15.75" customHeight="1">
+    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
       <c r="D72" s="26"/>
@@ -2164,7 +2161,7 @@
       <c r="F72" s="28"/>
       <c r="G72" s="29"/>
     </row>
-    <row r="73" spans="2:7" ht="15.75" customHeight="1">
+    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
@@ -2172,7 +2169,7 @@
       <c r="F73" s="28"/>
       <c r="G73" s="29"/>
     </row>
-    <row r="74" spans="2:7" ht="15.75" customHeight="1">
+    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
       <c r="D74" s="26"/>
@@ -2180,7 +2177,7 @@
       <c r="F74" s="28"/>
       <c r="G74" s="29"/>
     </row>
-    <row r="75" spans="2:7" ht="15.75" customHeight="1">
+    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
@@ -2188,7 +2185,7 @@
       <c r="F75" s="28"/>
       <c r="G75" s="29"/>
     </row>
-    <row r="76" spans="2:7" ht="15.75" customHeight="1">
+    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
       <c r="D76" s="26"/>
@@ -2196,7 +2193,7 @@
       <c r="F76" s="28"/>
       <c r="G76" s="29"/>
     </row>
-    <row r="77" spans="2:7" ht="15.75" customHeight="1">
+    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="24"/>
       <c r="C77" s="25"/>
       <c r="D77" s="26"/>
@@ -2204,7 +2201,7 @@
       <c r="F77" s="28"/>
       <c r="G77" s="29"/>
     </row>
-    <row r="78" spans="2:7" ht="15.75" customHeight="1">
+    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
       <c r="D78" s="26"/>
@@ -2212,7 +2209,7 @@
       <c r="F78" s="28"/>
       <c r="G78" s="29"/>
     </row>
-    <row r="79" spans="2:7" ht="15.75" customHeight="1">
+    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
       <c r="D79" s="26"/>
@@ -2220,7 +2217,7 @@
       <c r="F79" s="28"/>
       <c r="G79" s="29"/>
     </row>
-    <row r="80" spans="2:7" ht="15.75" customHeight="1">
+    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="24"/>
       <c r="C80" s="25"/>
       <c r="D80" s="26"/>
@@ -2228,7 +2225,7 @@
       <c r="F80" s="28"/>
       <c r="G80" s="29"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="24"/>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
@@ -2236,7 +2233,7 @@
       <c r="F81" s="28"/>
       <c r="G81" s="29"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="24"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
@@ -2244,7 +2241,7 @@
       <c r="F82" s="28"/>
       <c r="G82" s="29"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="24"/>
       <c r="C83" s="25"/>
       <c r="D83" s="26"/>
@@ -2252,7 +2249,7 @@
       <c r="F83" s="28"/>
       <c r="G83" s="29"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="24"/>
       <c r="C84" s="25"/>
       <c r="D84" s="26"/>
@@ -2260,7 +2257,7 @@
       <c r="F84" s="28"/>
       <c r="G84" s="29"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="24"/>
       <c r="C85" s="25"/>
       <c r="D85" s="26"/>
@@ -2268,7 +2265,7 @@
       <c r="F85" s="28"/>
       <c r="G85" s="29"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="24"/>
       <c r="C86" s="25"/>
       <c r="D86" s="26"/>
@@ -2276,7 +2273,7 @@
       <c r="F86" s="28"/>
       <c r="G86" s="29"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="24"/>
       <c r="C87" s="25"/>
       <c r="D87" s="26"/>
@@ -2284,7 +2281,7 @@
       <c r="F87" s="28"/>
       <c r="G87" s="29"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="24"/>
       <c r="C88" s="25"/>
       <c r="D88" s="26"/>
@@ -2292,7 +2289,7 @@
       <c r="F88" s="28"/>
       <c r="G88" s="29"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="24"/>
       <c r="C89" s="25"/>
       <c r="D89" s="26"/>
@@ -2300,7 +2297,7 @@
       <c r="F89" s="28"/>
       <c r="G89" s="29"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="24"/>
       <c r="C90" s="25"/>
       <c r="D90" s="26"/>
@@ -2308,7 +2305,7 @@
       <c r="F90" s="28"/>
       <c r="G90" s="29"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="24"/>
       <c r="C91" s="25"/>
       <c r="D91" s="26"/>
@@ -2316,7 +2313,7 @@
       <c r="F91" s="28"/>
       <c r="G91" s="29"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="24"/>
       <c r="C92" s="25"/>
       <c r="D92" s="26"/>
@@ -2324,7 +2321,7 @@
       <c r="F92" s="28"/>
       <c r="G92" s="29"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="24"/>
       <c r="C93" s="25"/>
       <c r="D93" s="26"/>
@@ -2332,7 +2329,7 @@
       <c r="F93" s="28"/>
       <c r="G93" s="29"/>
     </row>
-    <row r="94" spans="2:7" ht="15.75" customHeight="1">
+    <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="24"/>
       <c r="C94" s="25"/>
       <c r="D94" s="26"/>
@@ -2340,7 +2337,7 @@
       <c r="F94" s="28"/>
       <c r="G94" s="29"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="24"/>
       <c r="C95" s="25"/>
       <c r="D95" s="26"/>
@@ -2348,7 +2345,7 @@
       <c r="F95" s="28"/>
       <c r="G95" s="29"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="24"/>
       <c r="C96" s="25"/>
       <c r="D96" s="26"/>
@@ -2356,7 +2353,7 @@
       <c r="F96" s="28"/>
       <c r="G96" s="29"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="24"/>
       <c r="C97" s="25"/>
       <c r="D97" s="26"/>
@@ -2364,7 +2361,7 @@
       <c r="F97" s="28"/>
       <c r="G97" s="29"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="24"/>
       <c r="C98" s="25"/>
       <c r="D98" s="26"/>
@@ -2372,7 +2369,7 @@
       <c r="F98" s="28"/>
       <c r="G98" s="29"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="24"/>
       <c r="C99" s="25"/>
       <c r="D99" s="26"/>
@@ -2380,7 +2377,7 @@
       <c r="F99" s="28"/>
       <c r="G99" s="29"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="24"/>
       <c r="C100" s="25"/>
       <c r="D100" s="26"/>
@@ -2388,7 +2385,7 @@
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="24"/>
       <c r="C101" s="25"/>
       <c r="D101" s="26"/>
@@ -2396,7 +2393,7 @@
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="24"/>
       <c r="C102" s="25"/>
       <c r="D102" s="26"/>
@@ -2404,7 +2401,7 @@
       <c r="F102" s="28"/>
       <c r="G102" s="29"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="24"/>
       <c r="C103" s="25"/>
       <c r="D103" s="26"/>
@@ -2412,7 +2409,7 @@
       <c r="F103" s="28"/>
       <c r="G103" s="29"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="24"/>
       <c r="C104" s="25"/>
       <c r="D104" s="26"/>
@@ -2420,7 +2417,7 @@
       <c r="F104" s="28"/>
       <c r="G104" s="29"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="24"/>
       <c r="C105" s="25"/>
       <c r="D105" s="26"/>
@@ -2428,7 +2425,7 @@
       <c r="F105" s="28"/>
       <c r="G105" s="29"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="24"/>
       <c r="C106" s="25"/>
       <c r="D106" s="26"/>
@@ -2436,7 +2433,7 @@
       <c r="F106" s="28"/>
       <c r="G106" s="29"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="24"/>
       <c r="C107" s="25"/>
       <c r="D107" s="26"/>
@@ -2444,7 +2441,7 @@
       <c r="F107" s="28"/>
       <c r="G107" s="29"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="24"/>
       <c r="C108" s="25"/>
       <c r="D108" s="26"/>
@@ -2452,7 +2449,7 @@
       <c r="F108" s="28"/>
       <c r="G108" s="29"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="24"/>
       <c r="C109" s="25"/>
       <c r="D109" s="26"/>
@@ -2460,7 +2457,7 @@
       <c r="F109" s="28"/>
       <c r="G109" s="29"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="24"/>
       <c r="C110" s="25"/>
       <c r="D110" s="26"/>
@@ -2468,7 +2465,7 @@
       <c r="F110" s="28"/>
       <c r="G110" s="29"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="24"/>
       <c r="C111" s="25"/>
       <c r="D111" s="26"/>
@@ -2476,7 +2473,7 @@
       <c r="F111" s="28"/>
       <c r="G111" s="29"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="24"/>
       <c r="C112" s="25"/>
       <c r="D112" s="26"/>
@@ -2484,7 +2481,7 @@
       <c r="F112" s="28"/>
       <c r="G112" s="29"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="24"/>
       <c r="C113" s="25"/>
       <c r="D113" s="26"/>
@@ -2492,7 +2489,7 @@
       <c r="F113" s="28"/>
       <c r="G113" s="29"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="24"/>
       <c r="C114" s="25"/>
       <c r="D114" s="26"/>
@@ -2500,7 +2497,7 @@
       <c r="F114" s="28"/>
       <c r="G114" s="29"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="24"/>
       <c r="C115" s="25"/>
       <c r="D115" s="26"/>
@@ -2508,7 +2505,7 @@
       <c r="F115" s="28"/>
       <c r="G115" s="29"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="24"/>
       <c r="C116" s="25"/>
       <c r="D116" s="26"/>
@@ -2516,7 +2513,7 @@
       <c r="F116" s="28"/>
       <c r="G116" s="29"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="24"/>
       <c r="C117" s="25"/>
       <c r="D117" s="26"/>
@@ -2524,7 +2521,7 @@
       <c r="F117" s="28"/>
       <c r="G117" s="29"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
       <c r="D118" s="26"/>
@@ -2532,7 +2529,7 @@
       <c r="F118" s="28"/>
       <c r="G118" s="29"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="24"/>
       <c r="C119" s="25"/>
       <c r="D119" s="26"/>
@@ -2540,7 +2537,7 @@
       <c r="F119" s="28"/>
       <c r="G119" s="29"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="24"/>
       <c r="C120" s="25"/>
       <c r="D120" s="26"/>
@@ -2548,7 +2545,7 @@
       <c r="F120" s="28"/>
       <c r="G120" s="29"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="24"/>
       <c r="C121" s="25"/>
       <c r="D121" s="26"/>
@@ -2556,7 +2553,7 @@
       <c r="F121" s="28"/>
       <c r="G121" s="29"/>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="24"/>
       <c r="C122" s="25"/>
       <c r="D122" s="26"/>
@@ -2564,7 +2561,7 @@
       <c r="F122" s="28"/>
       <c r="G122" s="29"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="24"/>
       <c r="C123" s="25"/>
       <c r="D123" s="26"/>
@@ -2572,7 +2569,7 @@
       <c r="F123" s="28"/>
       <c r="G123" s="29"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="24"/>
       <c r="C124" s="25"/>
       <c r="D124" s="26"/>
@@ -2580,7 +2577,7 @@
       <c r="F124" s="28"/>
       <c r="G124" s="29"/>
     </row>
-    <row r="125" spans="2:7" ht="15.75" customHeight="1">
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="24"/>
       <c r="C125" s="25"/>
       <c r="D125" s="26"/>
@@ -2588,7 +2585,7 @@
       <c r="F125" s="28"/>
       <c r="G125" s="29"/>
     </row>
-    <row r="126" spans="2:7" ht="15.75" customHeight="1">
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="24"/>
       <c r="C126" s="25"/>
       <c r="D126" s="26"/>
@@ -2596,7 +2593,7 @@
       <c r="F126" s="28"/>
       <c r="G126" s="29"/>
     </row>
-    <row r="127" spans="2:7" ht="15.75" customHeight="1">
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="24"/>
       <c r="C127" s="25"/>
       <c r="D127" s="26"/>
@@ -2604,7 +2601,7 @@
       <c r="F127" s="28"/>
       <c r="G127" s="29"/>
     </row>
-    <row r="128" spans="2:7" ht="15.75" customHeight="1">
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="24"/>
       <c r="C128" s="25"/>
       <c r="D128" s="26"/>
@@ -2612,7 +2609,7 @@
       <c r="F128" s="28"/>
       <c r="G128" s="29"/>
     </row>
-    <row r="129" spans="2:7" ht="15.75" customHeight="1">
+    <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="24"/>
       <c r="C129" s="25"/>
       <c r="D129" s="26"/>
@@ -2620,7 +2617,7 @@
       <c r="F129" s="28"/>
       <c r="G129" s="29"/>
     </row>
-    <row r="130" spans="2:7" ht="15.75" customHeight="1">
+    <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="24"/>
       <c r="C130" s="25"/>
       <c r="D130" s="26"/>
@@ -2628,7 +2625,7 @@
       <c r="F130" s="28"/>
       <c r="G130" s="29"/>
     </row>
-    <row r="131" spans="2:7" ht="15.75" customHeight="1">
+    <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="24"/>
       <c r="C131" s="25"/>
       <c r="D131" s="26"/>
@@ -2636,7 +2633,7 @@
       <c r="F131" s="28"/>
       <c r="G131" s="29"/>
     </row>
-    <row r="132" spans="2:7" ht="15.75" customHeight="1">
+    <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="24"/>
       <c r="C132" s="25"/>
       <c r="D132" s="26"/>
@@ -2644,7 +2641,7 @@
       <c r="F132" s="28"/>
       <c r="G132" s="29"/>
     </row>
-    <row r="133" spans="2:7" ht="15.75" customHeight="1">
+    <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="24"/>
       <c r="C133" s="25"/>
       <c r="D133" s="26"/>
@@ -2652,7 +2649,7 @@
       <c r="F133" s="28"/>
       <c r="G133" s="29"/>
     </row>
-    <row r="134" spans="2:7" ht="15.75" customHeight="1">
+    <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="24"/>
       <c r="C134" s="25"/>
       <c r="D134" s="26"/>
@@ -2660,7 +2657,7 @@
       <c r="F134" s="28"/>
       <c r="G134" s="29"/>
     </row>
-    <row r="135" spans="2:7" ht="15.75" customHeight="1">
+    <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="24"/>
       <c r="C135" s="25"/>
       <c r="D135" s="26"/>
@@ -2668,7 +2665,7 @@
       <c r="F135" s="28"/>
       <c r="G135" s="29"/>
     </row>
-    <row r="136" spans="2:7" ht="15.75" customHeight="1">
+    <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="24"/>
       <c r="C136" s="25"/>
       <c r="D136" s="26"/>
@@ -2676,7 +2673,7 @@
       <c r="F136" s="28"/>
       <c r="G136" s="29"/>
     </row>
-    <row r="137" spans="2:7" ht="15.75" customHeight="1">
+    <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="24"/>
       <c r="C137" s="25"/>
       <c r="D137" s="26"/>
@@ -2684,7 +2681,7 @@
       <c r="F137" s="28"/>
       <c r="G137" s="29"/>
     </row>
-    <row r="138" spans="2:7" ht="15.75" customHeight="1">
+    <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="24"/>
       <c r="C138" s="25"/>
       <c r="D138" s="26"/>
@@ -2692,7 +2689,7 @@
       <c r="F138" s="28"/>
       <c r="G138" s="29"/>
     </row>
-    <row r="139" spans="2:7" ht="15.75" customHeight="1">
+    <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="24"/>
       <c r="C139" s="25"/>
       <c r="D139" s="26"/>
@@ -2700,7 +2697,7 @@
       <c r="F139" s="28"/>
       <c r="G139" s="29"/>
     </row>
-    <row r="140" spans="2:7" ht="15.75" customHeight="1">
+    <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="24"/>
       <c r="C140" s="25"/>
       <c r="D140" s="26"/>
@@ -2708,7 +2705,7 @@
       <c r="F140" s="28"/>
       <c r="G140" s="29"/>
     </row>
-    <row r="141" spans="2:7" ht="15.75" customHeight="1">
+    <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="24"/>
       <c r="C141" s="25"/>
       <c r="D141" s="26"/>
@@ -2716,7 +2713,7 @@
       <c r="F141" s="28"/>
       <c r="G141" s="29"/>
     </row>
-    <row r="142" spans="2:7" ht="15.75" customHeight="1">
+    <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="24"/>
       <c r="C142" s="25"/>
       <c r="D142" s="26"/>
@@ -2724,7 +2721,7 @@
       <c r="F142" s="28"/>
       <c r="G142" s="29"/>
     </row>
-    <row r="143" spans="2:7" ht="15.75" customHeight="1">
+    <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="24"/>
       <c r="C143" s="25"/>
       <c r="D143" s="26"/>
@@ -2732,7 +2729,7 @@
       <c r="F143" s="28"/>
       <c r="G143" s="29"/>
     </row>
-    <row r="144" spans="2:7" ht="15.75" customHeight="1">
+    <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="24"/>
       <c r="C144" s="25"/>
       <c r="D144" s="26"/>
@@ -2740,7 +2737,7 @@
       <c r="F144" s="28"/>
       <c r="G144" s="29"/>
     </row>
-    <row r="145" spans="2:7" ht="15.75" customHeight="1">
+    <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="24"/>
       <c r="C145" s="25"/>
       <c r="D145" s="26"/>
@@ -2748,7 +2745,7 @@
       <c r="F145" s="28"/>
       <c r="G145" s="29"/>
     </row>
-    <row r="146" spans="2:7" ht="15.75" customHeight="1">
+    <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="24"/>
       <c r="C146" s="25"/>
       <c r="D146" s="26"/>
@@ -2756,7 +2753,7 @@
       <c r="F146" s="28"/>
       <c r="G146" s="29"/>
     </row>
-    <row r="147" spans="2:7" ht="15.75" customHeight="1">
+    <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="24"/>
       <c r="C147" s="25"/>
       <c r="D147" s="26"/>
@@ -2764,7 +2761,7 @@
       <c r="F147" s="28"/>
       <c r="G147" s="29"/>
     </row>
-    <row r="148" spans="2:7" ht="15.75" customHeight="1">
+    <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="24"/>
       <c r="C148" s="25"/>
       <c r="D148" s="26"/>
@@ -2772,7 +2769,7 @@
       <c r="F148" s="28"/>
       <c r="G148" s="29"/>
     </row>
-    <row r="149" spans="2:7" ht="15.75" customHeight="1">
+    <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="24"/>
       <c r="C149" s="25"/>
       <c r="D149" s="26"/>
@@ -2780,7 +2777,7 @@
       <c r="F149" s="28"/>
       <c r="G149" s="29"/>
     </row>
-    <row r="150" spans="2:7" ht="15.75" customHeight="1">
+    <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="24"/>
       <c r="C150" s="25"/>
       <c r="D150" s="26"/>
@@ -2788,7 +2785,7 @@
       <c r="F150" s="28"/>
       <c r="G150" s="29"/>
     </row>
-    <row r="151" spans="2:7" ht="15.75" customHeight="1">
+    <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="24"/>
       <c r="C151" s="25"/>
       <c r="D151" s="26"/>
@@ -2796,7 +2793,7 @@
       <c r="F151" s="28"/>
       <c r="G151" s="29"/>
     </row>
-    <row r="152" spans="2:7" ht="15.75" customHeight="1">
+    <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="24"/>
       <c r="C152" s="25"/>
       <c r="D152" s="26"/>
@@ -2804,7 +2801,7 @@
       <c r="F152" s="28"/>
       <c r="G152" s="29"/>
     </row>
-    <row r="153" spans="2:7" ht="15.75" customHeight="1">
+    <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="24"/>
       <c r="C153" s="25"/>
       <c r="D153" s="26"/>
@@ -2812,7 +2809,7 @@
       <c r="F153" s="28"/>
       <c r="G153" s="29"/>
     </row>
-    <row r="154" spans="2:7" ht="15.75" customHeight="1">
+    <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="24"/>
       <c r="C154" s="25"/>
       <c r="D154" s="26"/>
@@ -2820,7 +2817,7 @@
       <c r="F154" s="28"/>
       <c r="G154" s="29"/>
     </row>
-    <row r="155" spans="2:7" ht="15.75" customHeight="1">
+    <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="24"/>
       <c r="C155" s="25"/>
       <c r="D155" s="26"/>
@@ -2828,7 +2825,7 @@
       <c r="F155" s="28"/>
       <c r="G155" s="29"/>
     </row>
-    <row r="156" spans="2:7" ht="15.75" customHeight="1">
+    <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="24"/>
       <c r="C156" s="25"/>
       <c r="D156" s="26"/>
@@ -2836,7 +2833,7 @@
       <c r="F156" s="28"/>
       <c r="G156" s="29"/>
     </row>
-    <row r="157" spans="2:7" ht="15.75" customHeight="1">
+    <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="24"/>
       <c r="C157" s="25"/>
       <c r="D157" s="26"/>
@@ -2844,7 +2841,7 @@
       <c r="F157" s="28"/>
       <c r="G157" s="29"/>
     </row>
-    <row r="158" spans="2:7" ht="15.75" customHeight="1">
+    <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="24"/>
       <c r="C158" s="25"/>
       <c r="D158" s="26"/>
@@ -2852,7 +2849,7 @@
       <c r="F158" s="28"/>
       <c r="G158" s="29"/>
     </row>
-    <row r="159" spans="2:7" ht="15.75" customHeight="1">
+    <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="24"/>
       <c r="C159" s="25"/>
       <c r="D159" s="26"/>
@@ -2860,7 +2857,7 @@
       <c r="F159" s="28"/>
       <c r="G159" s="29"/>
     </row>
-    <row r="160" spans="2:7" ht="15.75" customHeight="1">
+    <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="24"/>
       <c r="C160" s="25"/>
       <c r="D160" s="26"/>
@@ -2868,7 +2865,7 @@
       <c r="F160" s="28"/>
       <c r="G160" s="29"/>
     </row>
-    <row r="161" spans="2:7" ht="15.75" customHeight="1">
+    <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="24"/>
       <c r="C161" s="25"/>
       <c r="D161" s="26"/>
@@ -2876,7 +2873,7 @@
       <c r="F161" s="28"/>
       <c r="G161" s="29"/>
     </row>
-    <row r="162" spans="2:7" ht="15.75" customHeight="1">
+    <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="24"/>
       <c r="C162" s="25"/>
       <c r="D162" s="26"/>
@@ -2884,7 +2881,7 @@
       <c r="F162" s="28"/>
       <c r="G162" s="29"/>
     </row>
-    <row r="163" spans="2:7" ht="15.75" customHeight="1">
+    <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="24"/>
       <c r="C163" s="25"/>
       <c r="D163" s="26"/>
@@ -2892,7 +2889,7 @@
       <c r="F163" s="28"/>
       <c r="G163" s="29"/>
     </row>
-    <row r="164" spans="2:7" ht="15.75" customHeight="1">
+    <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="24"/>
       <c r="C164" s="25"/>
       <c r="D164" s="26"/>
@@ -2900,7 +2897,7 @@
       <c r="F164" s="28"/>
       <c r="G164" s="29"/>
     </row>
-    <row r="165" spans="2:7" ht="15.75" customHeight="1">
+    <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="24"/>
       <c r="C165" s="25"/>
       <c r="D165" s="26"/>
@@ -2908,7 +2905,7 @@
       <c r="F165" s="28"/>
       <c r="G165" s="29"/>
     </row>
-    <row r="166" spans="2:7" ht="15.75" customHeight="1">
+    <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="24"/>
       <c r="C166" s="25"/>
       <c r="D166" s="26"/>
@@ -2916,7 +2913,7 @@
       <c r="F166" s="28"/>
       <c r="G166" s="29"/>
     </row>
-    <row r="167" spans="2:7" ht="15.75" customHeight="1">
+    <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="24"/>
       <c r="C167" s="25"/>
       <c r="D167" s="26"/>
@@ -2924,7 +2921,7 @@
       <c r="F167" s="28"/>
       <c r="G167" s="29"/>
     </row>
-    <row r="168" spans="2:7" ht="15.75" customHeight="1">
+    <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="24"/>
       <c r="C168" s="25"/>
       <c r="D168" s="26"/>
@@ -2932,7 +2929,7 @@
       <c r="F168" s="28"/>
       <c r="G168" s="29"/>
     </row>
-    <row r="169" spans="2:7" ht="15.75" customHeight="1">
+    <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="24"/>
       <c r="C169" s="25"/>
       <c r="D169" s="26"/>
@@ -2940,7 +2937,7 @@
       <c r="F169" s="28"/>
       <c r="G169" s="29"/>
     </row>
-    <row r="170" spans="2:7" ht="15.75" customHeight="1">
+    <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="24"/>
       <c r="C170" s="25"/>
       <c r="D170" s="26"/>
@@ -2948,7 +2945,7 @@
       <c r="F170" s="28"/>
       <c r="G170" s="29"/>
     </row>
-    <row r="171" spans="2:7" ht="15.75" customHeight="1">
+    <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="24"/>
       <c r="C171" s="25"/>
       <c r="D171" s="26"/>
@@ -2956,7 +2953,7 @@
       <c r="F171" s="28"/>
       <c r="G171" s="29"/>
     </row>
-    <row r="172" spans="2:7" ht="15.75" customHeight="1">
+    <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="24"/>
       <c r="C172" s="25"/>
       <c r="D172" s="26"/>
@@ -2964,7 +2961,7 @@
       <c r="F172" s="28"/>
       <c r="G172" s="29"/>
     </row>
-    <row r="173" spans="2:7" ht="15.75" customHeight="1">
+    <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="24"/>
       <c r="C173" s="25"/>
       <c r="D173" s="26"/>
@@ -2972,7 +2969,7 @@
       <c r="F173" s="28"/>
       <c r="G173" s="29"/>
     </row>
-    <row r="174" spans="2:7" ht="15.75" customHeight="1">
+    <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="24"/>
       <c r="C174" s="25"/>
       <c r="D174" s="26"/>
@@ -2980,7 +2977,7 @@
       <c r="F174" s="28"/>
       <c r="G174" s="29"/>
     </row>
-    <row r="175" spans="2:7" ht="15.75" customHeight="1">
+    <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="24"/>
       <c r="C175" s="25"/>
       <c r="D175" s="26"/>
@@ -2988,7 +2985,7 @@
       <c r="F175" s="28"/>
       <c r="G175" s="29"/>
     </row>
-    <row r="176" spans="2:7" ht="15.75" customHeight="1">
+    <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="24"/>
       <c r="C176" s="25"/>
       <c r="D176" s="26"/>
@@ -2996,7 +2993,7 @@
       <c r="F176" s="28"/>
       <c r="G176" s="29"/>
     </row>
-    <row r="177" spans="2:7" ht="15.75" customHeight="1">
+    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="24"/>
       <c r="C177" s="25"/>
       <c r="D177" s="26"/>
@@ -3004,7 +3001,7 @@
       <c r="F177" s="28"/>
       <c r="G177" s="29"/>
     </row>
-    <row r="178" spans="2:7" ht="15.75" customHeight="1">
+    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="24"/>
       <c r="C178" s="25"/>
       <c r="D178" s="26"/>
@@ -3012,7 +3009,7 @@
       <c r="F178" s="28"/>
       <c r="G178" s="29"/>
     </row>
-    <row r="179" spans="2:7" ht="15.75" customHeight="1">
+    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="24"/>
       <c r="C179" s="25"/>
       <c r="D179" s="26"/>
@@ -3020,7 +3017,7 @@
       <c r="F179" s="28"/>
       <c r="G179" s="29"/>
     </row>
-    <row r="180" spans="2:7" ht="15.75" customHeight="1">
+    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="24"/>
       <c r="C180" s="25"/>
       <c r="D180" s="26"/>
@@ -3028,7 +3025,7 @@
       <c r="F180" s="28"/>
       <c r="G180" s="29"/>
     </row>
-    <row r="181" spans="2:7" ht="15.75" customHeight="1">
+    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="24"/>
       <c r="C181" s="25"/>
       <c r="D181" s="26"/>
@@ -3036,7 +3033,7 @@
       <c r="F181" s="28"/>
       <c r="G181" s="29"/>
     </row>
-    <row r="182" spans="2:7" ht="15.75" customHeight="1">
+    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="24"/>
       <c r="C182" s="25"/>
       <c r="D182" s="26"/>
@@ -3044,7 +3041,7 @@
       <c r="F182" s="28"/>
       <c r="G182" s="29"/>
     </row>
-    <row r="183" spans="2:7" ht="15.75" customHeight="1">
+    <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="24"/>
       <c r="C183" s="25"/>
       <c r="D183" s="26"/>
@@ -3052,7 +3049,7 @@
       <c r="F183" s="28"/>
       <c r="G183" s="29"/>
     </row>
-    <row r="184" spans="2:7" ht="15.75" customHeight="1">
+    <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="24"/>
       <c r="C184" s="25"/>
       <c r="D184" s="26"/>
@@ -3060,7 +3057,7 @@
       <c r="F184" s="28"/>
       <c r="G184" s="29"/>
     </row>
-    <row r="185" spans="2:7" ht="15.75" customHeight="1">
+    <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="24"/>
       <c r="C185" s="25"/>
       <c r="D185" s="26"/>
@@ -3068,7 +3065,7 @@
       <c r="F185" s="28"/>
       <c r="G185" s="29"/>
     </row>
-    <row r="186" spans="2:7" ht="15.75" customHeight="1">
+    <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="24"/>
       <c r="C186" s="25"/>
       <c r="D186" s="26"/>
@@ -3076,7 +3073,7 @@
       <c r="F186" s="28"/>
       <c r="G186" s="29"/>
     </row>
-    <row r="187" spans="2:7" ht="15.75" customHeight="1">
+    <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="24"/>
       <c r="C187" s="25"/>
       <c r="D187" s="26"/>
@@ -3084,7 +3081,7 @@
       <c r="F187" s="28"/>
       <c r="G187" s="29"/>
     </row>
-    <row r="188" spans="2:7" ht="15.75" customHeight="1">
+    <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="24"/>
       <c r="C188" s="25"/>
       <c r="D188" s="26"/>
@@ -3092,7 +3089,7 @@
       <c r="F188" s="28"/>
       <c r="G188" s="29"/>
     </row>
-    <row r="189" spans="2:7" ht="15.75" customHeight="1">
+    <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="24"/>
       <c r="C189" s="25"/>
       <c r="D189" s="26"/>
@@ -3100,7 +3097,7 @@
       <c r="F189" s="28"/>
       <c r="G189" s="29"/>
     </row>
-    <row r="190" spans="2:7" ht="15.75" customHeight="1">
+    <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="24"/>
       <c r="C190" s="25"/>
       <c r="D190" s="26"/>
@@ -3108,7 +3105,7 @@
       <c r="F190" s="28"/>
       <c r="G190" s="29"/>
     </row>
-    <row r="191" spans="2:7" ht="15.75" customHeight="1">
+    <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="24"/>
       <c r="C191" s="25"/>
       <c r="D191" s="26"/>
@@ -3116,7 +3113,7 @@
       <c r="F191" s="28"/>
       <c r="G191" s="29"/>
     </row>
-    <row r="192" spans="2:7" ht="15.75" customHeight="1">
+    <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="24"/>
       <c r="C192" s="25"/>
       <c r="D192" s="26"/>
@@ -3124,7 +3121,7 @@
       <c r="F192" s="28"/>
       <c r="G192" s="29"/>
     </row>
-    <row r="193" spans="2:7" ht="15.75" customHeight="1">
+    <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="24"/>
       <c r="C193" s="25"/>
       <c r="D193" s="26"/>
@@ -3132,7 +3129,7 @@
       <c r="F193" s="28"/>
       <c r="G193" s="29"/>
     </row>
-    <row r="194" spans="2:7" ht="15.75" customHeight="1">
+    <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="24"/>
       <c r="C194" s="25"/>
       <c r="D194" s="26"/>
@@ -3140,7 +3137,7 @@
       <c r="F194" s="28"/>
       <c r="G194" s="29"/>
     </row>
-    <row r="195" spans="2:7" ht="15.75" customHeight="1">
+    <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="24"/>
       <c r="C195" s="25"/>
       <c r="D195" s="26"/>
@@ -3148,7 +3145,7 @@
       <c r="F195" s="28"/>
       <c r="G195" s="29"/>
     </row>
-    <row r="196" spans="2:7" ht="15.75" customHeight="1">
+    <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="24"/>
       <c r="C196" s="25"/>
       <c r="D196" s="26"/>
@@ -3156,7 +3153,7 @@
       <c r="F196" s="28"/>
       <c r="G196" s="29"/>
     </row>
-    <row r="197" spans="2:7" ht="15.75" customHeight="1">
+    <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="24"/>
       <c r="C197" s="25"/>
       <c r="D197" s="26"/>
@@ -3164,7 +3161,7 @@
       <c r="F197" s="28"/>
       <c r="G197" s="29"/>
     </row>
-    <row r="198" spans="2:7" ht="15.75" customHeight="1">
+    <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="24"/>
       <c r="C198" s="25"/>
       <c r="D198" s="26"/>
@@ -3172,7 +3169,7 @@
       <c r="F198" s="28"/>
       <c r="G198" s="29"/>
     </row>
-    <row r="199" spans="2:7" ht="15.75" customHeight="1">
+    <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="24"/>
       <c r="C199" s="25"/>
       <c r="D199" s="26"/>
@@ -3180,7 +3177,7 @@
       <c r="F199" s="28"/>
       <c r="G199" s="29"/>
     </row>
-    <row r="200" spans="2:7" ht="15.75" customHeight="1">
+    <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="24"/>
       <c r="C200" s="25"/>
       <c r="D200" s="26"/>
@@ -3188,7 +3185,7 @@
       <c r="F200" s="28"/>
       <c r="G200" s="29"/>
     </row>
-    <row r="201" spans="2:7" ht="15.75" customHeight="1">
+    <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="24"/>
       <c r="C201" s="25"/>
       <c r="D201" s="26"/>
@@ -3196,7 +3193,7 @@
       <c r="F201" s="28"/>
       <c r="G201" s="29"/>
     </row>
-    <row r="202" spans="2:7" ht="15.75" customHeight="1">
+    <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="24"/>
       <c r="C202" s="25"/>
       <c r="D202" s="26"/>
@@ -3204,7 +3201,7 @@
       <c r="F202" s="28"/>
       <c r="G202" s="29"/>
     </row>
-    <row r="203" spans="2:7" ht="15.75" customHeight="1">
+    <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="24"/>
       <c r="C203" s="25"/>
       <c r="D203" s="26"/>
@@ -3212,7 +3209,7 @@
       <c r="F203" s="28"/>
       <c r="G203" s="29"/>
     </row>
-    <row r="204" spans="2:7" ht="15.75" customHeight="1">
+    <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="24"/>
       <c r="C204" s="25"/>
       <c r="D204" s="26"/>
@@ -3220,7 +3217,7 @@
       <c r="F204" s="28"/>
       <c r="G204" s="29"/>
     </row>
-    <row r="205" spans="2:7" ht="15.75" customHeight="1">
+    <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="24"/>
       <c r="C205" s="25"/>
       <c r="D205" s="26"/>
@@ -3228,7 +3225,7 @@
       <c r="F205" s="28"/>
       <c r="G205" s="29"/>
     </row>
-    <row r="206" spans="2:7" ht="15.75" customHeight="1">
+    <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="24"/>
       <c r="C206" s="25"/>
       <c r="D206" s="26"/>
@@ -3236,7 +3233,7 @@
       <c r="F206" s="28"/>
       <c r="G206" s="29"/>
     </row>
-    <row r="207" spans="2:7" ht="15.75" customHeight="1">
+    <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="24"/>
       <c r="C207" s="25"/>
       <c r="D207" s="26"/>
@@ -3244,7 +3241,7 @@
       <c r="F207" s="28"/>
       <c r="G207" s="29"/>
     </row>
-    <row r="208" spans="2:7" ht="15.75" customHeight="1">
+    <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="24"/>
       <c r="C208" s="25"/>
       <c r="D208" s="26"/>
@@ -3252,7 +3249,7 @@
       <c r="F208" s="28"/>
       <c r="G208" s="29"/>
     </row>
-    <row r="209" spans="2:7" ht="15.75" customHeight="1">
+    <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="24"/>
       <c r="C209" s="25"/>
       <c r="D209" s="26"/>
@@ -3260,7 +3257,7 @@
       <c r="F209" s="28"/>
       <c r="G209" s="29"/>
     </row>
-    <row r="210" spans="2:7" ht="15.75" customHeight="1">
+    <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="24"/>
       <c r="C210" s="25"/>
       <c r="D210" s="26"/>
@@ -3268,7 +3265,7 @@
       <c r="F210" s="28"/>
       <c r="G210" s="29"/>
     </row>
-    <row r="211" spans="2:7" ht="15.75" customHeight="1">
+    <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="24"/>
       <c r="C211" s="25"/>
       <c r="D211" s="26"/>
@@ -3276,7 +3273,7 @@
       <c r="F211" s="28"/>
       <c r="G211" s="29"/>
     </row>
-    <row r="212" spans="2:7" ht="15.75" customHeight="1">
+    <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="24"/>
       <c r="C212" s="25"/>
       <c r="D212" s="26"/>
@@ -3284,7 +3281,7 @@
       <c r="F212" s="28"/>
       <c r="G212" s="29"/>
     </row>
-    <row r="213" spans="2:7" ht="15.75" customHeight="1">
+    <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="24"/>
       <c r="C213" s="25"/>
       <c r="D213" s="26"/>
@@ -3292,7 +3289,7 @@
       <c r="F213" s="28"/>
       <c r="G213" s="29"/>
     </row>
-    <row r="214" spans="2:7" ht="15.75" customHeight="1">
+    <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="24"/>
       <c r="C214" s="25"/>
       <c r="D214" s="26"/>
@@ -3300,7 +3297,7 @@
       <c r="F214" s="28"/>
       <c r="G214" s="29"/>
     </row>
-    <row r="215" spans="2:7" ht="15.75" customHeight="1">
+    <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="24"/>
       <c r="C215" s="25"/>
       <c r="D215" s="26"/>
@@ -3308,7 +3305,7 @@
       <c r="F215" s="28"/>
       <c r="G215" s="29"/>
     </row>
-    <row r="216" spans="2:7" ht="15.75" customHeight="1">
+    <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="24"/>
       <c r="C216" s="25"/>
       <c r="D216" s="26"/>
@@ -3316,7 +3313,7 @@
       <c r="F216" s="28"/>
       <c r="G216" s="29"/>
     </row>
-    <row r="217" spans="2:7" ht="15.75" customHeight="1">
+    <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="24"/>
       <c r="C217" s="25"/>
       <c r="D217" s="26"/>
@@ -3324,7 +3321,7 @@
       <c r="F217" s="28"/>
       <c r="G217" s="29"/>
     </row>
-    <row r="218" spans="2:7" ht="15.75" customHeight="1">
+    <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="24"/>
       <c r="C218" s="25"/>
       <c r="D218" s="26"/>
@@ -3332,7 +3329,7 @@
       <c r="F218" s="28"/>
       <c r="G218" s="29"/>
     </row>
-    <row r="219" spans="2:7" ht="15.75" customHeight="1">
+    <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="24"/>
       <c r="C219" s="25"/>
       <c r="D219" s="26"/>
@@ -3340,7 +3337,7 @@
       <c r="F219" s="28"/>
       <c r="G219" s="29"/>
     </row>
-    <row r="220" spans="2:7" ht="15.75" customHeight="1">
+    <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="24"/>
       <c r="C220" s="25"/>
       <c r="D220" s="26"/>
@@ -3348,7 +3345,7 @@
       <c r="F220" s="28"/>
       <c r="G220" s="29"/>
     </row>
-    <row r="221" spans="2:7" ht="15.75" customHeight="1">
+    <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="24"/>
       <c r="C221" s="25"/>
       <c r="D221" s="26"/>
@@ -3356,7 +3353,7 @@
       <c r="F221" s="28"/>
       <c r="G221" s="29"/>
     </row>
-    <row r="222" spans="2:7" ht="15.75" customHeight="1">
+    <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="24"/>
       <c r="C222" s="25"/>
       <c r="D222" s="26"/>
@@ -3364,7 +3361,7 @@
       <c r="F222" s="28"/>
       <c r="G222" s="29"/>
     </row>
-    <row r="223" spans="2:7" ht="15.75" customHeight="1">
+    <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="24"/>
       <c r="C223" s="25"/>
       <c r="D223" s="26"/>
@@ -3372,7 +3369,7 @@
       <c r="F223" s="28"/>
       <c r="G223" s="29"/>
     </row>
-    <row r="224" spans="2:7" ht="15.75" customHeight="1">
+    <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="24"/>
       <c r="C224" s="25"/>
       <c r="D224" s="26"/>
@@ -3380,7 +3377,7 @@
       <c r="F224" s="28"/>
       <c r="G224" s="29"/>
     </row>
-    <row r="225" spans="2:7" ht="15.75" customHeight="1">
+    <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="24"/>
       <c r="C225" s="25"/>
       <c r="D225" s="26"/>
@@ -3388,7 +3385,7 @@
       <c r="F225" s="28"/>
       <c r="G225" s="29"/>
     </row>
-    <row r="226" spans="2:7" ht="15.75" customHeight="1">
+    <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="24"/>
       <c r="C226" s="25"/>
       <c r="D226" s="26"/>
@@ -3396,7 +3393,7 @@
       <c r="F226" s="28"/>
       <c r="G226" s="29"/>
     </row>
-    <row r="227" spans="2:7" ht="15.75" customHeight="1">
+    <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="24"/>
       <c r="C227" s="25"/>
       <c r="D227" s="26"/>
@@ -3404,7 +3401,7 @@
       <c r="F227" s="28"/>
       <c r="G227" s="29"/>
     </row>
-    <row r="228" spans="2:7" ht="15.75" customHeight="1">
+    <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="24"/>
       <c r="C228" s="25"/>
       <c r="D228" s="26"/>
@@ -3412,7 +3409,7 @@
       <c r="F228" s="28"/>
       <c r="G228" s="29"/>
     </row>
-    <row r="229" spans="2:7" ht="15.75" customHeight="1">
+    <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="24"/>
       <c r="C229" s="25"/>
       <c r="D229" s="26"/>
@@ -3420,7 +3417,7 @@
       <c r="F229" s="28"/>
       <c r="G229" s="29"/>
     </row>
-    <row r="230" spans="2:7" ht="15.75" customHeight="1">
+    <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="24"/>
       <c r="C230" s="25"/>
       <c r="D230" s="26"/>
@@ -3428,7 +3425,7 @@
       <c r="F230" s="28"/>
       <c r="G230" s="29"/>
     </row>
-    <row r="231" spans="2:7" ht="15.75" customHeight="1">
+    <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="24"/>
       <c r="C231" s="25"/>
       <c r="D231" s="26"/>
@@ -3436,7 +3433,7 @@
       <c r="F231" s="28"/>
       <c r="G231" s="29"/>
     </row>
-    <row r="232" spans="2:7" ht="15.75" customHeight="1">
+    <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="24"/>
       <c r="C232" s="25"/>
       <c r="D232" s="26"/>
@@ -3444,7 +3441,7 @@
       <c r="F232" s="28"/>
       <c r="G232" s="29"/>
     </row>
-    <row r="233" spans="2:7" ht="15.75" customHeight="1">
+    <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="24"/>
       <c r="C233" s="25"/>
       <c r="D233" s="26"/>
@@ -3452,7 +3449,7 @@
       <c r="F233" s="28"/>
       <c r="G233" s="29"/>
     </row>
-    <row r="234" spans="2:7" ht="15.75" customHeight="1">
+    <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="24"/>
       <c r="C234" s="25"/>
       <c r="D234" s="26"/>
@@ -3460,7 +3457,7 @@
       <c r="F234" s="28"/>
       <c r="G234" s="29"/>
     </row>
-    <row r="235" spans="2:7" ht="15.75" customHeight="1">
+    <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="24"/>
       <c r="C235" s="25"/>
       <c r="D235" s="26"/>
@@ -3468,7 +3465,7 @@
       <c r="F235" s="28"/>
       <c r="G235" s="29"/>
     </row>
-    <row r="236" spans="2:7" ht="15.75" customHeight="1">
+    <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="24"/>
       <c r="C236" s="25"/>
       <c r="D236" s="26"/>
@@ -3476,7 +3473,7 @@
       <c r="F236" s="28"/>
       <c r="G236" s="29"/>
     </row>
-    <row r="237" spans="2:7" ht="15.75" customHeight="1">
+    <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="24"/>
       <c r="C237" s="25"/>
       <c r="D237" s="26"/>
@@ -3484,7 +3481,7 @@
       <c r="F237" s="28"/>
       <c r="G237" s="29"/>
     </row>
-    <row r="238" spans="2:7" ht="15.75" customHeight="1">
+    <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="24"/>
       <c r="C238" s="25"/>
       <c r="D238" s="26"/>
@@ -3492,7 +3489,7 @@
       <c r="F238" s="28"/>
       <c r="G238" s="29"/>
     </row>
-    <row r="239" spans="2:7" ht="15.75" customHeight="1">
+    <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="24"/>
       <c r="C239" s="25"/>
       <c r="D239" s="26"/>
@@ -3500,7 +3497,7 @@
       <c r="F239" s="28"/>
       <c r="G239" s="29"/>
     </row>
-    <row r="240" spans="2:7" ht="15.75" customHeight="1">
+    <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="24"/>
       <c r="C240" s="25"/>
       <c r="D240" s="26"/>
@@ -3508,7 +3505,7 @@
       <c r="F240" s="28"/>
       <c r="G240" s="29"/>
     </row>
-    <row r="241" spans="2:7" ht="15.75" customHeight="1">
+    <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="24"/>
       <c r="C241" s="25"/>
       <c r="D241" s="26"/>
@@ -3516,7 +3513,7 @@
       <c r="F241" s="28"/>
       <c r="G241" s="29"/>
     </row>
-    <row r="242" spans="2:7" ht="15.75" customHeight="1">
+    <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="24"/>
       <c r="C242" s="25"/>
       <c r="D242" s="26"/>
@@ -3524,7 +3521,7 @@
       <c r="F242" s="28"/>
       <c r="G242" s="29"/>
     </row>
-    <row r="243" spans="2:7" ht="15.75" customHeight="1">
+    <row r="243" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="24"/>
       <c r="C243" s="25"/>
       <c r="D243" s="26"/>
@@ -3532,7 +3529,7 @@
       <c r="F243" s="28"/>
       <c r="G243" s="29"/>
     </row>
-    <row r="244" spans="2:7" ht="15.75" customHeight="1">
+    <row r="244" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="24"/>
       <c r="C244" s="25"/>
       <c r="D244" s="26"/>
@@ -3540,7 +3537,7 @@
       <c r="F244" s="28"/>
       <c r="G244" s="29"/>
     </row>
-    <row r="245" spans="2:7" ht="15.75" customHeight="1">
+    <row r="245" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="24"/>
       <c r="C245" s="25"/>
       <c r="D245" s="26"/>
@@ -3548,7 +3545,7 @@
       <c r="F245" s="28"/>
       <c r="G245" s="29"/>
     </row>
-    <row r="246" spans="2:7" ht="15.75" customHeight="1">
+    <row r="246" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="24"/>
       <c r="C246" s="25"/>
       <c r="D246" s="26"/>
@@ -3556,7 +3553,7 @@
       <c r="F246" s="28"/>
       <c r="G246" s="29"/>
     </row>
-    <row r="247" spans="2:7" ht="15.75" customHeight="1">
+    <row r="247" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="24"/>
       <c r="C247" s="25"/>
       <c r="D247" s="26"/>
@@ -3564,7 +3561,7 @@
       <c r="F247" s="28"/>
       <c r="G247" s="29"/>
     </row>
-    <row r="248" spans="2:7" ht="15.75" customHeight="1">
+    <row r="248" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="24"/>
       <c r="C248" s="25"/>
       <c r="D248" s="26"/>
@@ -3572,7 +3569,7 @@
       <c r="F248" s="28"/>
       <c r="G248" s="29"/>
     </row>
-    <row r="249" spans="2:7" ht="15.75" customHeight="1">
+    <row r="249" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="24"/>
       <c r="C249" s="25"/>
       <c r="D249" s="26"/>
@@ -3580,7 +3577,7 @@
       <c r="F249" s="28"/>
       <c r="G249" s="29"/>
     </row>
-    <row r="250" spans="2:7" ht="15.75" customHeight="1">
+    <row r="250" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="24"/>
       <c r="C250" s="25"/>
       <c r="D250" s="26"/>
@@ -3588,7 +3585,7 @@
       <c r="F250" s="28"/>
       <c r="G250" s="29"/>
     </row>
-    <row r="251" spans="2:7" ht="15.75" customHeight="1">
+    <row r="251" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="24"/>
       <c r="C251" s="25"/>
       <c r="D251" s="26"/>
@@ -3596,7 +3593,7 @@
       <c r="F251" s="28"/>
       <c r="G251" s="29"/>
     </row>
-    <row r="252" spans="2:7" ht="15.75" customHeight="1">
+    <row r="252" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="24"/>
       <c r="C252" s="25"/>
       <c r="D252" s="26"/>
@@ -3604,7 +3601,7 @@
       <c r="F252" s="28"/>
       <c r="G252" s="29"/>
     </row>
-    <row r="253" spans="2:7" ht="15.75" customHeight="1">
+    <row r="253" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="24"/>
       <c r="C253" s="25"/>
       <c r="D253" s="26"/>
@@ -3612,7 +3609,7 @@
       <c r="F253" s="28"/>
       <c r="G253" s="29"/>
     </row>
-    <row r="254" spans="2:7" ht="15.75" customHeight="1">
+    <row r="254" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="24"/>
       <c r="C254" s="25"/>
       <c r="D254" s="26"/>
@@ -3620,7 +3617,7 @@
       <c r="F254" s="28"/>
       <c r="G254" s="29"/>
     </row>
-    <row r="255" spans="2:7" ht="15.75" customHeight="1">
+    <row r="255" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="24"/>
       <c r="C255" s="25"/>
       <c r="D255" s="26"/>
@@ -3628,7 +3625,7 @@
       <c r="F255" s="28"/>
       <c r="G255" s="29"/>
     </row>
-    <row r="256" spans="2:7" ht="15.75" customHeight="1">
+    <row r="256" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="24"/>
       <c r="C256" s="25"/>
       <c r="D256" s="26"/>
@@ -3636,7 +3633,7 @@
       <c r="F256" s="28"/>
       <c r="G256" s="29"/>
     </row>
-    <row r="257" spans="2:7" ht="15.75" customHeight="1">
+    <row r="257" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
       <c r="D257" s="26"/>
@@ -3644,7 +3641,7 @@
       <c r="F257" s="28"/>
       <c r="G257" s="29"/>
     </row>
-    <row r="258" spans="2:7" ht="15.75" customHeight="1">
+    <row r="258" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="24"/>
       <c r="C258" s="25"/>
       <c r="D258" s="26"/>
@@ -3652,7 +3649,7 @@
       <c r="F258" s="28"/>
       <c r="G258" s="29"/>
     </row>
-    <row r="259" spans="2:7" ht="15.75" customHeight="1">
+    <row r="259" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="24"/>
       <c r="C259" s="25"/>
       <c r="D259" s="26"/>
@@ -3660,7 +3657,7 @@
       <c r="F259" s="28"/>
       <c r="G259" s="29"/>
     </row>
-    <row r="260" spans="2:7" ht="15.75" customHeight="1">
+    <row r="260" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="24"/>
       <c r="C260" s="25"/>
       <c r="D260" s="26"/>
@@ -3668,7 +3665,7 @@
       <c r="F260" s="28"/>
       <c r="G260" s="29"/>
     </row>
-    <row r="261" spans="2:7" ht="15.75" customHeight="1">
+    <row r="261" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="24"/>
       <c r="C261" s="25"/>
       <c r="D261" s="26"/>
@@ -3676,7 +3673,7 @@
       <c r="F261" s="28"/>
       <c r="G261" s="29"/>
     </row>
-    <row r="262" spans="2:7" ht="15.75" customHeight="1">
+    <row r="262" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="24"/>
       <c r="C262" s="25"/>
       <c r="D262" s="26"/>
@@ -3684,7 +3681,7 @@
       <c r="F262" s="28"/>
       <c r="G262" s="29"/>
     </row>
-    <row r="263" spans="2:7" ht="15.75" customHeight="1">
+    <row r="263" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="24"/>
       <c r="C263" s="25"/>
       <c r="D263" s="26"/>
@@ -3692,7 +3689,7 @@
       <c r="F263" s="28"/>
       <c r="G263" s="29"/>
     </row>
-    <row r="264" spans="2:7" ht="15.75" customHeight="1">
+    <row r="264" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="24"/>
       <c r="C264" s="25"/>
       <c r="D264" s="26"/>
@@ -3700,7 +3697,7 @@
       <c r="F264" s="28"/>
       <c r="G264" s="29"/>
     </row>
-    <row r="265" spans="2:7" ht="15.75" customHeight="1">
+    <row r="265" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="24"/>
       <c r="C265" s="25"/>
       <c r="D265" s="26"/>
@@ -3708,7 +3705,7 @@
       <c r="F265" s="28"/>
       <c r="G265" s="29"/>
     </row>
-    <row r="266" spans="2:7" ht="15.75" customHeight="1">
+    <row r="266" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="24"/>
       <c r="C266" s="25"/>
       <c r="D266" s="26"/>
@@ -3716,7 +3713,7 @@
       <c r="F266" s="28"/>
       <c r="G266" s="29"/>
     </row>
-    <row r="267" spans="2:7" ht="15.75" customHeight="1">
+    <row r="267" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="24"/>
       <c r="C267" s="25"/>
       <c r="D267" s="26"/>
@@ -3724,7 +3721,7 @@
       <c r="F267" s="28"/>
       <c r="G267" s="29"/>
     </row>
-    <row r="268" spans="2:7" ht="15.75" customHeight="1">
+    <row r="268" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="24"/>
       <c r="C268" s="25"/>
       <c r="D268" s="26"/>
@@ -3732,7 +3729,7 @@
       <c r="F268" s="28"/>
       <c r="G268" s="29"/>
     </row>
-    <row r="269" spans="2:7" ht="15.75" customHeight="1">
+    <row r="269" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="24"/>
       <c r="C269" s="25"/>
       <c r="D269" s="26"/>
@@ -3740,7 +3737,7 @@
       <c r="F269" s="28"/>
       <c r="G269" s="29"/>
     </row>
-    <row r="270" spans="2:7" ht="15.75" customHeight="1">
+    <row r="270" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="24"/>
       <c r="C270" s="25"/>
       <c r="D270" s="26"/>
@@ -3748,7 +3745,7 @@
       <c r="F270" s="28"/>
       <c r="G270" s="29"/>
     </row>
-    <row r="271" spans="2:7" ht="15.75" customHeight="1">
+    <row r="271" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="24"/>
       <c r="C271" s="25"/>
       <c r="D271" s="26"/>
@@ -3756,7 +3753,7 @@
       <c r="F271" s="28"/>
       <c r="G271" s="29"/>
     </row>
-    <row r="272" spans="2:7" ht="15.75" customHeight="1">
+    <row r="272" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="24"/>
       <c r="C272" s="25"/>
       <c r="D272" s="26"/>
@@ -3764,7 +3761,7 @@
       <c r="F272" s="28"/>
       <c r="G272" s="29"/>
     </row>
-    <row r="273" spans="2:7" ht="15.75" customHeight="1">
+    <row r="273" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="24"/>
       <c r="C273" s="25"/>
       <c r="D273" s="26"/>
@@ -3772,7 +3769,7 @@
       <c r="F273" s="28"/>
       <c r="G273" s="29"/>
     </row>
-    <row r="274" spans="2:7" ht="15.75" customHeight="1">
+    <row r="274" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="24"/>
       <c r="C274" s="25"/>
       <c r="D274" s="26"/>
@@ -3780,7 +3777,7 @@
       <c r="F274" s="28"/>
       <c r="G274" s="29"/>
     </row>
-    <row r="275" spans="2:7" ht="15.75" customHeight="1">
+    <row r="275" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="24"/>
       <c r="C275" s="25"/>
       <c r="D275" s="26"/>
@@ -3788,7 +3785,7 @@
       <c r="F275" s="28"/>
       <c r="G275" s="29"/>
     </row>
-    <row r="276" spans="2:7" ht="15.75" customHeight="1">
+    <row r="276" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="24"/>
       <c r="C276" s="25"/>
       <c r="D276" s="26"/>
@@ -3796,7 +3793,7 @@
       <c r="F276" s="28"/>
       <c r="G276" s="29"/>
     </row>
-    <row r="277" spans="2:7" ht="15.75" customHeight="1">
+    <row r="277" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="24"/>
       <c r="C277" s="25"/>
       <c r="D277" s="26"/>
@@ -3804,7 +3801,7 @@
       <c r="F277" s="28"/>
       <c r="G277" s="29"/>
     </row>
-    <row r="278" spans="2:7" ht="15.75" customHeight="1">
+    <row r="278" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="24"/>
       <c r="C278" s="25"/>
       <c r="D278" s="26"/>
@@ -3812,7 +3809,7 @@
       <c r="F278" s="28"/>
       <c r="G278" s="29"/>
     </row>
-    <row r="279" spans="2:7" ht="15.75" customHeight="1">
+    <row r="279" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="24"/>
       <c r="C279" s="25"/>
       <c r="D279" s="26"/>
@@ -3820,7 +3817,7 @@
       <c r="F279" s="28"/>
       <c r="G279" s="29"/>
     </row>
-    <row r="280" spans="2:7" ht="15.75" customHeight="1">
+    <row r="280" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="24"/>
       <c r="C280" s="25"/>
       <c r="D280" s="26"/>
@@ -3828,7 +3825,7 @@
       <c r="F280" s="28"/>
       <c r="G280" s="29"/>
     </row>
-    <row r="281" spans="2:7" ht="15.75" customHeight="1">
+    <row r="281" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="24"/>
       <c r="C281" s="25"/>
       <c r="D281" s="26"/>
@@ -3836,7 +3833,7 @@
       <c r="F281" s="28"/>
       <c r="G281" s="29"/>
     </row>
-    <row r="282" spans="2:7" ht="15.75" customHeight="1">
+    <row r="282" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="24"/>
       <c r="C282" s="25"/>
       <c r="D282" s="26"/>
@@ -3844,7 +3841,7 @@
       <c r="F282" s="28"/>
       <c r="G282" s="29"/>
     </row>
-    <row r="283" spans="2:7" ht="15.75" customHeight="1">
+    <row r="283" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="24"/>
       <c r="C283" s="25"/>
       <c r="D283" s="26"/>
@@ -3852,7 +3849,7 @@
       <c r="F283" s="28"/>
       <c r="G283" s="29"/>
     </row>
-    <row r="284" spans="2:7" ht="15.75" customHeight="1">
+    <row r="284" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="24"/>
       <c r="C284" s="25"/>
       <c r="D284" s="26"/>
@@ -3860,7 +3857,7 @@
       <c r="F284" s="28"/>
       <c r="G284" s="29"/>
     </row>
-    <row r="285" spans="2:7" ht="15.75" customHeight="1">
+    <row r="285" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="24"/>
       <c r="C285" s="25"/>
       <c r="D285" s="26"/>
@@ -3868,7 +3865,7 @@
       <c r="F285" s="28"/>
       <c r="G285" s="29"/>
     </row>
-    <row r="286" spans="2:7" ht="15.75" customHeight="1">
+    <row r="286" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="24"/>
       <c r="C286" s="25"/>
       <c r="D286" s="26"/>
@@ -3876,7 +3873,7 @@
       <c r="F286" s="28"/>
       <c r="G286" s="29"/>
     </row>
-    <row r="287" spans="2:7" ht="15.75" customHeight="1">
+    <row r="287" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="24"/>
       <c r="C287" s="25"/>
       <c r="D287" s="26"/>
@@ -3884,7 +3881,7 @@
       <c r="F287" s="28"/>
       <c r="G287" s="29"/>
     </row>
-    <row r="288" spans="2:7" ht="15.75" customHeight="1">
+    <row r="288" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="24"/>
       <c r="C288" s="25"/>
       <c r="D288" s="26"/>
@@ -3892,7 +3889,7 @@
       <c r="F288" s="28"/>
       <c r="G288" s="29"/>
     </row>
-    <row r="289" spans="2:7" ht="15.75" customHeight="1">
+    <row r="289" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="24"/>
       <c r="C289" s="25"/>
       <c r="D289" s="26"/>
@@ -3900,7 +3897,7 @@
       <c r="F289" s="28"/>
       <c r="G289" s="29"/>
     </row>
-    <row r="290" spans="2:7" ht="15.75" customHeight="1">
+    <row r="290" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="24"/>
       <c r="C290" s="25"/>
       <c r="D290" s="26"/>
@@ -3908,7 +3905,7 @@
       <c r="F290" s="28"/>
       <c r="G290" s="29"/>
     </row>
-    <row r="291" spans="2:7" ht="15.75" customHeight="1">
+    <row r="291" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="24"/>
       <c r="C291" s="25"/>
       <c r="D291" s="26"/>
@@ -3916,7 +3913,7 @@
       <c r="F291" s="28"/>
       <c r="G291" s="29"/>
     </row>
-    <row r="292" spans="2:7" ht="15.75" customHeight="1">
+    <row r="292" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="24"/>
       <c r="C292" s="25"/>
       <c r="D292" s="26"/>
@@ -3924,7 +3921,7 @@
       <c r="F292" s="28"/>
       <c r="G292" s="29"/>
     </row>
-    <row r="293" spans="2:7" ht="15.75" customHeight="1">
+    <row r="293" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="24"/>
       <c r="C293" s="25"/>
       <c r="D293" s="26"/>
@@ -3932,7 +3929,7 @@
       <c r="F293" s="28"/>
       <c r="G293" s="29"/>
     </row>
-    <row r="294" spans="2:7" ht="15.75" customHeight="1">
+    <row r="294" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="24"/>
       <c r="C294" s="25"/>
       <c r="D294" s="26"/>
@@ -3940,7 +3937,7 @@
       <c r="F294" s="28"/>
       <c r="G294" s="29"/>
     </row>
-    <row r="295" spans="2:7" ht="15.75" customHeight="1">
+    <row r="295" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="24"/>
       <c r="C295" s="25"/>
       <c r="D295" s="26"/>
@@ -3948,7 +3945,7 @@
       <c r="F295" s="28"/>
       <c r="G295" s="29"/>
     </row>
-    <row r="296" spans="2:7" ht="15.75" customHeight="1">
+    <row r="296" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="24"/>
       <c r="C296" s="25"/>
       <c r="D296" s="26"/>
@@ -3956,7 +3953,7 @@
       <c r="F296" s="28"/>
       <c r="G296" s="29"/>
     </row>
-    <row r="297" spans="2:7" ht="15.75" customHeight="1">
+    <row r="297" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="24"/>
       <c r="C297" s="25"/>
       <c r="D297" s="26"/>
@@ -3964,7 +3961,7 @@
       <c r="F297" s="28"/>
       <c r="G297" s="29"/>
     </row>
-    <row r="298" spans="2:7" ht="15.75" customHeight="1">
+    <row r="298" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="24"/>
       <c r="C298" s="25"/>
       <c r="D298" s="26"/>
@@ -3972,7 +3969,7 @@
       <c r="F298" s="28"/>
       <c r="G298" s="29"/>
     </row>
-    <row r="299" spans="2:7" ht="15.75" customHeight="1">
+    <row r="299" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="24"/>
       <c r="C299" s="25"/>
       <c r="D299" s="26"/>
@@ -3980,7 +3977,7 @@
       <c r="F299" s="28"/>
       <c r="G299" s="29"/>
     </row>
-    <row r="300" spans="2:7" ht="15.75" customHeight="1">
+    <row r="300" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="24"/>
       <c r="C300" s="25"/>
       <c r="D300" s="26"/>
@@ -3988,7 +3985,7 @@
       <c r="F300" s="28"/>
       <c r="G300" s="29"/>
     </row>
-    <row r="301" spans="2:7" ht="15.75" customHeight="1">
+    <row r="301" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="24"/>
       <c r="C301" s="25"/>
       <c r="D301" s="26"/>
@@ -3996,7 +3993,7 @@
       <c r="F301" s="28"/>
       <c r="G301" s="29"/>
     </row>
-    <row r="302" spans="2:7" ht="15.75" customHeight="1">
+    <row r="302" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="24"/>
       <c r="C302" s="25"/>
       <c r="D302" s="26"/>
@@ -4004,7 +4001,7 @@
       <c r="F302" s="28"/>
       <c r="G302" s="29"/>
     </row>
-    <row r="303" spans="2:7" ht="15.75" customHeight="1">
+    <row r="303" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="24"/>
       <c r="C303" s="25"/>
       <c r="D303" s="26"/>
@@ -4012,7 +4009,7 @@
       <c r="F303" s="28"/>
       <c r="G303" s="29"/>
     </row>
-    <row r="304" spans="2:7" ht="15.75" customHeight="1">
+    <row r="304" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="24"/>
       <c r="C304" s="25"/>
       <c r="D304" s="26"/>
@@ -4020,7 +4017,7 @@
       <c r="F304" s="28"/>
       <c r="G304" s="29"/>
     </row>
-    <row r="305" spans="2:7" ht="15.75" customHeight="1">
+    <row r="305" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="24"/>
       <c r="C305" s="25"/>
       <c r="D305" s="26"/>
@@ -4028,7 +4025,7 @@
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
     </row>
-    <row r="306" spans="2:7" ht="15.75" customHeight="1">
+    <row r="306" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="24"/>
       <c r="C306" s="25"/>
       <c r="D306" s="26"/>
@@ -4036,7 +4033,7 @@
       <c r="F306" s="28"/>
       <c r="G306" s="29"/>
     </row>
-    <row r="307" spans="2:7" ht="15.75" customHeight="1">
+    <row r="307" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="24"/>
       <c r="C307" s="25"/>
       <c r="D307" s="26"/>
@@ -4044,7 +4041,7 @@
       <c r="F307" s="28"/>
       <c r="G307" s="29"/>
     </row>
-    <row r="308" spans="2:7" ht="15.75" customHeight="1">
+    <row r="308" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="24"/>
       <c r="C308" s="25"/>
       <c r="D308" s="26"/>
@@ -4052,7 +4049,7 @@
       <c r="F308" s="28"/>
       <c r="G308" s="29"/>
     </row>
-    <row r="309" spans="2:7" ht="15.75" customHeight="1">
+    <row r="309" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="24"/>
       <c r="C309" s="25"/>
       <c r="D309" s="26"/>
@@ -4060,7 +4057,7 @@
       <c r="F309" s="28"/>
       <c r="G309" s="29"/>
     </row>
-    <row r="310" spans="2:7" ht="15.75" customHeight="1">
+    <row r="310" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="24"/>
       <c r="C310" s="25"/>
       <c r="D310" s="26"/>
@@ -4068,7 +4065,7 @@
       <c r="F310" s="28"/>
       <c r="G310" s="29"/>
     </row>
-    <row r="311" spans="2:7" ht="15.75" customHeight="1">
+    <row r="311" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="24"/>
       <c r="C311" s="25"/>
       <c r="D311" s="26"/>
@@ -4076,7 +4073,7 @@
       <c r="F311" s="28"/>
       <c r="G311" s="29"/>
     </row>
-    <row r="312" spans="2:7" ht="15.75" customHeight="1">
+    <row r="312" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="24"/>
       <c r="C312" s="25"/>
       <c r="D312" s="26"/>
@@ -4084,7 +4081,7 @@
       <c r="F312" s="28"/>
       <c r="G312" s="29"/>
     </row>
-    <row r="313" spans="2:7" ht="15.75" customHeight="1">
+    <row r="313" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="24"/>
       <c r="C313" s="25"/>
       <c r="D313" s="26"/>
@@ -4092,7 +4089,7 @@
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
     </row>
-    <row r="314" spans="2:7" ht="15.75" customHeight="1">
+    <row r="314" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="24"/>
       <c r="C314" s="25"/>
       <c r="D314" s="26"/>
@@ -4100,7 +4097,7 @@
       <c r="F314" s="28"/>
       <c r="G314" s="29"/>
     </row>
-    <row r="315" spans="2:7" ht="15.75" customHeight="1">
+    <row r="315" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="24"/>
       <c r="C315" s="25"/>
       <c r="D315" s="26"/>
@@ -4108,7 +4105,7 @@
       <c r="F315" s="28"/>
       <c r="G315" s="29"/>
     </row>
-    <row r="316" spans="2:7" ht="15.75" customHeight="1">
+    <row r="316" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="24"/>
       <c r="C316" s="25"/>
       <c r="D316" s="26"/>
@@ -4116,7 +4113,7 @@
       <c r="F316" s="28"/>
       <c r="G316" s="29"/>
     </row>
-    <row r="317" spans="2:7" ht="15.75" customHeight="1">
+    <row r="317" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="24"/>
       <c r="C317" s="25"/>
       <c r="D317" s="26"/>
@@ -4124,7 +4121,7 @@
       <c r="F317" s="28"/>
       <c r="G317" s="29"/>
     </row>
-    <row r="318" spans="2:7" ht="15.75" customHeight="1">
+    <row r="318" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="24"/>
       <c r="C318" s="25"/>
       <c r="D318" s="26"/>
@@ -4132,7 +4129,7 @@
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
     </row>
-    <row r="319" spans="2:7" ht="15.75" customHeight="1">
+    <row r="319" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="24"/>
       <c r="C319" s="25"/>
       <c r="D319" s="26"/>
@@ -4140,7 +4137,7 @@
       <c r="F319" s="28"/>
       <c r="G319" s="29"/>
     </row>
-    <row r="320" spans="2:7" ht="15.75" customHeight="1">
+    <row r="320" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="24"/>
       <c r="C320" s="25"/>
       <c r="D320" s="26"/>
@@ -4148,7 +4145,7 @@
       <c r="F320" s="28"/>
       <c r="G320" s="29"/>
     </row>
-    <row r="321" spans="2:7" ht="15.75" customHeight="1">
+    <row r="321" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="24"/>
       <c r="C321" s="25"/>
       <c r="D321" s="26"/>
@@ -4156,7 +4153,7 @@
       <c r="F321" s="28"/>
       <c r="G321" s="29"/>
     </row>
-    <row r="322" spans="2:7" ht="15.75" customHeight="1">
+    <row r="322" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="24"/>
       <c r="C322" s="25"/>
       <c r="D322" s="26"/>
@@ -4164,7 +4161,7 @@
       <c r="F322" s="28"/>
       <c r="G322" s="29"/>
     </row>
-    <row r="323" spans="2:7" ht="15.75" customHeight="1">
+    <row r="323" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="24"/>
       <c r="C323" s="25"/>
       <c r="D323" s="26"/>
@@ -4172,7 +4169,7 @@
       <c r="F323" s="28"/>
       <c r="G323" s="29"/>
     </row>
-    <row r="324" spans="2:7" ht="15.75" customHeight="1">
+    <row r="324" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="24"/>
       <c r="C324" s="25"/>
       <c r="D324" s="26"/>
@@ -4180,7 +4177,7 @@
       <c r="F324" s="28"/>
       <c r="G324" s="29"/>
     </row>
-    <row r="325" spans="2:7" ht="15.75" customHeight="1">
+    <row r="325" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="24"/>
       <c r="C325" s="25"/>
       <c r="D325" s="26"/>
@@ -4188,7 +4185,7 @@
       <c r="F325" s="28"/>
       <c r="G325" s="29"/>
     </row>
-    <row r="326" spans="2:7" ht="15.75" customHeight="1">
+    <row r="326" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="24"/>
       <c r="C326" s="25"/>
       <c r="D326" s="26"/>
@@ -4196,7 +4193,7 @@
       <c r="F326" s="28"/>
       <c r="G326" s="29"/>
     </row>
-    <row r="327" spans="2:7" ht="15.75" customHeight="1">
+    <row r="327" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="24"/>
       <c r="C327" s="25"/>
       <c r="D327" s="26"/>
@@ -4204,7 +4201,7 @@
       <c r="F327" s="28"/>
       <c r="G327" s="29"/>
     </row>
-    <row r="328" spans="2:7" ht="15.75" customHeight="1">
+    <row r="328" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="24"/>
       <c r="C328" s="25"/>
       <c r="D328" s="26"/>
@@ -4212,7 +4209,7 @@
       <c r="F328" s="28"/>
       <c r="G328" s="29"/>
     </row>
-    <row r="329" spans="2:7" ht="15.75" customHeight="1">
+    <row r="329" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="24"/>
       <c r="C329" s="25"/>
       <c r="D329" s="26"/>
@@ -4220,7 +4217,7 @@
       <c r="F329" s="28"/>
       <c r="G329" s="29"/>
     </row>
-    <row r="330" spans="2:7" ht="15.75" customHeight="1">
+    <row r="330" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="24"/>
       <c r="C330" s="25"/>
       <c r="D330" s="26"/>
@@ -4228,7 +4225,7 @@
       <c r="F330" s="28"/>
       <c r="G330" s="29"/>
     </row>
-    <row r="331" spans="2:7" ht="15.75" customHeight="1">
+    <row r="331" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="24"/>
       <c r="C331" s="25"/>
       <c r="D331" s="26"/>
@@ -4236,7 +4233,7 @@
       <c r="F331" s="28"/>
       <c r="G331" s="29"/>
     </row>
-    <row r="332" spans="2:7" ht="15.75" customHeight="1">
+    <row r="332" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="24"/>
       <c r="C332" s="25"/>
       <c r="D332" s="26"/>
@@ -4244,7 +4241,7 @@
       <c r="F332" s="28"/>
       <c r="G332" s="29"/>
     </row>
-    <row r="333" spans="2:7" ht="15.75" customHeight="1">
+    <row r="333" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="24"/>
       <c r="C333" s="25"/>
       <c r="D333" s="26"/>
@@ -4252,7 +4249,7 @@
       <c r="F333" s="28"/>
       <c r="G333" s="29"/>
     </row>
-    <row r="334" spans="2:7" ht="15.75" customHeight="1">
+    <row r="334" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="24"/>
       <c r="C334" s="25"/>
       <c r="D334" s="26"/>
@@ -4260,7 +4257,7 @@
       <c r="F334" s="28"/>
       <c r="G334" s="29"/>
     </row>
-    <row r="335" spans="2:7" ht="15.75" customHeight="1">
+    <row r="335" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="24"/>
       <c r="C335" s="25"/>
       <c r="D335" s="26"/>
@@ -4268,7 +4265,7 @@
       <c r="F335" s="28"/>
       <c r="G335" s="29"/>
     </row>
-    <row r="336" spans="2:7" ht="15.75" customHeight="1">
+    <row r="336" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="24"/>
       <c r="C336" s="25"/>
       <c r="D336" s="26"/>
@@ -4276,7 +4273,7 @@
       <c r="F336" s="28"/>
       <c r="G336" s="29"/>
     </row>
-    <row r="337" spans="2:7" ht="15.75" customHeight="1">
+    <row r="337" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="24"/>
       <c r="C337" s="25"/>
       <c r="D337" s="26"/>
@@ -4284,7 +4281,7 @@
       <c r="F337" s="28"/>
       <c r="G337" s="29"/>
     </row>
-    <row r="338" spans="2:7" ht="15.75" customHeight="1">
+    <row r="338" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="24"/>
       <c r="C338" s="25"/>
       <c r="D338" s="26"/>
@@ -4292,7 +4289,7 @@
       <c r="F338" s="28"/>
       <c r="G338" s="29"/>
     </row>
-    <row r="339" spans="2:7" ht="15.75" customHeight="1">
+    <row r="339" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="24"/>
       <c r="C339" s="25"/>
       <c r="D339" s="26"/>
@@ -4300,7 +4297,7 @@
       <c r="F339" s="28"/>
       <c r="G339" s="29"/>
     </row>
-    <row r="340" spans="2:7" ht="15.75" customHeight="1">
+    <row r="340" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="24"/>
       <c r="C340" s="25"/>
       <c r="D340" s="26"/>
@@ -4308,7 +4305,7 @@
       <c r="F340" s="28"/>
       <c r="G340" s="29"/>
     </row>
-    <row r="341" spans="2:7" ht="15.75" customHeight="1">
+    <row r="341" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="24"/>
       <c r="C341" s="25"/>
       <c r="D341" s="26"/>
@@ -4316,7 +4313,7 @@
       <c r="F341" s="28"/>
       <c r="G341" s="29"/>
     </row>
-    <row r="342" spans="2:7" ht="15.75" customHeight="1">
+    <row r="342" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="24"/>
       <c r="C342" s="25"/>
       <c r="D342" s="26"/>
@@ -4324,7 +4321,7 @@
       <c r="F342" s="28"/>
       <c r="G342" s="29"/>
     </row>
-    <row r="343" spans="2:7" ht="15.75" customHeight="1">
+    <row r="343" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="24"/>
       <c r="C343" s="25"/>
       <c r="D343" s="26"/>
@@ -4332,7 +4329,7 @@
       <c r="F343" s="28"/>
       <c r="G343" s="29"/>
     </row>
-    <row r="344" spans="2:7" ht="15.75" customHeight="1">
+    <row r="344" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="24"/>
       <c r="C344" s="25"/>
       <c r="D344" s="26"/>
@@ -4340,7 +4337,7 @@
       <c r="F344" s="28"/>
       <c r="G344" s="29"/>
     </row>
-    <row r="345" spans="2:7" ht="15.75" customHeight="1">
+    <row r="345" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="24"/>
       <c r="C345" s="25"/>
       <c r="D345" s="26"/>
@@ -4348,7 +4345,7 @@
       <c r="F345" s="28"/>
       <c r="G345" s="29"/>
     </row>
-    <row r="346" spans="2:7" ht="15.75" customHeight="1">
+    <row r="346" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="24"/>
       <c r="C346" s="25"/>
       <c r="D346" s="26"/>
@@ -4356,7 +4353,7 @@
       <c r="F346" s="28"/>
       <c r="G346" s="29"/>
     </row>
-    <row r="347" spans="2:7" ht="15.75" customHeight="1">
+    <row r="347" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="24"/>
       <c r="C347" s="25"/>
       <c r="D347" s="26"/>
@@ -4364,7 +4361,7 @@
       <c r="F347" s="28"/>
       <c r="G347" s="29"/>
     </row>
-    <row r="348" spans="2:7" ht="15.75" customHeight="1">
+    <row r="348" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="24"/>
       <c r="C348" s="25"/>
       <c r="D348" s="26"/>
@@ -4372,7 +4369,7 @@
       <c r="F348" s="28"/>
       <c r="G348" s="29"/>
     </row>
-    <row r="349" spans="2:7" ht="15.75" customHeight="1">
+    <row r="349" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="24"/>
       <c r="C349" s="25"/>
       <c r="D349" s="26"/>
@@ -4380,7 +4377,7 @@
       <c r="F349" s="28"/>
       <c r="G349" s="29"/>
     </row>
-    <row r="350" spans="2:7" ht="15.75" customHeight="1">
+    <row r="350" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="24"/>
       <c r="C350" s="25"/>
       <c r="D350" s="26"/>
@@ -4388,7 +4385,7 @@
       <c r="F350" s="28"/>
       <c r="G350" s="29"/>
     </row>
-    <row r="351" spans="2:7" ht="15.75" customHeight="1">
+    <row r="351" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="24"/>
       <c r="C351" s="25"/>
       <c r="D351" s="26"/>
@@ -4396,7 +4393,7 @@
       <c r="F351" s="28"/>
       <c r="G351" s="29"/>
     </row>
-    <row r="352" spans="2:7" ht="15.75" customHeight="1">
+    <row r="352" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="24"/>
       <c r="C352" s="25"/>
       <c r="D352" s="26"/>
@@ -4404,7 +4401,7 @@
       <c r="F352" s="28"/>
       <c r="G352" s="29"/>
     </row>
-    <row r="353" spans="2:7" ht="15.75" customHeight="1">
+    <row r="353" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="24"/>
       <c r="C353" s="25"/>
       <c r="D353" s="26"/>
@@ -4412,7 +4409,7 @@
       <c r="F353" s="28"/>
       <c r="G353" s="29"/>
     </row>
-    <row r="354" spans="2:7" ht="15.75" customHeight="1">
+    <row r="354" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="24"/>
       <c r="C354" s="25"/>
       <c r="D354" s="26"/>
@@ -4420,7 +4417,7 @@
       <c r="F354" s="28"/>
       <c r="G354" s="29"/>
     </row>
-    <row r="355" spans="2:7" ht="15.75" customHeight="1">
+    <row r="355" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="24"/>
       <c r="C355" s="25"/>
       <c r="D355" s="26"/>
@@ -4428,7 +4425,7 @@
       <c r="F355" s="28"/>
       <c r="G355" s="29"/>
     </row>
-    <row r="356" spans="2:7" ht="15.75" customHeight="1">
+    <row r="356" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="24"/>
       <c r="C356" s="25"/>
       <c r="D356" s="26"/>
@@ -4436,7 +4433,7 @@
       <c r="F356" s="28"/>
       <c r="G356" s="29"/>
     </row>
-    <row r="357" spans="2:7" ht="15.75" customHeight="1">
+    <row r="357" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="24"/>
       <c r="C357" s="25"/>
       <c r="D357" s="26"/>
@@ -4444,7 +4441,7 @@
       <c r="F357" s="28"/>
       <c r="G357" s="29"/>
     </row>
-    <row r="358" spans="2:7" ht="15.75" customHeight="1">
+    <row r="358" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="24"/>
       <c r="C358" s="25"/>
       <c r="D358" s="26"/>
@@ -4452,7 +4449,7 @@
       <c r="F358" s="28"/>
       <c r="G358" s="29"/>
     </row>
-    <row r="359" spans="2:7" ht="15.75" customHeight="1">
+    <row r="359" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="24"/>
       <c r="C359" s="25"/>
       <c r="D359" s="26"/>
@@ -4460,7 +4457,7 @@
       <c r="F359" s="28"/>
       <c r="G359" s="29"/>
     </row>
-    <row r="360" spans="2:7" ht="15.75" customHeight="1">
+    <row r="360" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="24"/>
       <c r="C360" s="25"/>
       <c r="D360" s="26"/>
@@ -4468,7 +4465,7 @@
       <c r="F360" s="28"/>
       <c r="G360" s="29"/>
     </row>
-    <row r="361" spans="2:7" ht="15.75" customHeight="1">
+    <row r="361" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="24"/>
       <c r="C361" s="25"/>
       <c r="D361" s="26"/>
@@ -4476,7 +4473,7 @@
       <c r="F361" s="28"/>
       <c r="G361" s="29"/>
     </row>
-    <row r="362" spans="2:7" ht="15.75" customHeight="1">
+    <row r="362" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="24"/>
       <c r="C362" s="25"/>
       <c r="D362" s="26"/>
@@ -4484,7 +4481,7 @@
       <c r="F362" s="28"/>
       <c r="G362" s="29"/>
     </row>
-    <row r="363" spans="2:7" ht="15.75" customHeight="1">
+    <row r="363" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="24"/>
       <c r="C363" s="25"/>
       <c r="D363" s="26"/>
@@ -4492,7 +4489,7 @@
       <c r="F363" s="28"/>
       <c r="G363" s="29"/>
     </row>
-    <row r="364" spans="2:7" ht="15.75" customHeight="1">
+    <row r="364" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="24"/>
       <c r="C364" s="25"/>
       <c r="D364" s="26"/>
@@ -4500,7 +4497,7 @@
       <c r="F364" s="28"/>
       <c r="G364" s="29"/>
     </row>
-    <row r="365" spans="2:7" ht="15.75" customHeight="1">
+    <row r="365" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="24"/>
       <c r="C365" s="25"/>
       <c r="D365" s="26"/>
@@ -4508,7 +4505,7 @@
       <c r="F365" s="28"/>
       <c r="G365" s="29"/>
     </row>
-    <row r="366" spans="2:7" ht="15.75" customHeight="1">
+    <row r="366" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="24"/>
       <c r="C366" s="25"/>
       <c r="D366" s="26"/>
@@ -4516,7 +4513,7 @@
       <c r="F366" s="28"/>
       <c r="G366" s="29"/>
     </row>
-    <row r="367" spans="2:7" ht="15.75" customHeight="1">
+    <row r="367" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="24"/>
       <c r="C367" s="25"/>
       <c r="D367" s="26"/>
@@ -4524,7 +4521,7 @@
       <c r="F367" s="28"/>
       <c r="G367" s="29"/>
     </row>
-    <row r="368" spans="2:7" ht="15.75" customHeight="1">
+    <row r="368" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="24"/>
       <c r="C368" s="25"/>
       <c r="D368" s="26"/>
@@ -4532,7 +4529,7 @@
       <c r="F368" s="28"/>
       <c r="G368" s="29"/>
     </row>
-    <row r="369" spans="2:7" ht="15.75" customHeight="1">
+    <row r="369" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="24"/>
       <c r="C369" s="25"/>
       <c r="D369" s="26"/>
@@ -4540,7 +4537,7 @@
       <c r="F369" s="28"/>
       <c r="G369" s="29"/>
     </row>
-    <row r="370" spans="2:7" ht="15.75" customHeight="1">
+    <row r="370" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="24"/>
       <c r="C370" s="25"/>
       <c r="D370" s="26"/>
@@ -4548,7 +4545,7 @@
       <c r="F370" s="28"/>
       <c r="G370" s="29"/>
     </row>
-    <row r="371" spans="2:7" ht="15.75" customHeight="1">
+    <row r="371" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="24"/>
       <c r="C371" s="25"/>
       <c r="D371" s="26"/>
@@ -4556,7 +4553,7 @@
       <c r="F371" s="28"/>
       <c r="G371" s="29"/>
     </row>
-    <row r="372" spans="2:7" ht="15.75" customHeight="1">
+    <row r="372" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="24"/>
       <c r="C372" s="25"/>
       <c r="D372" s="26"/>
@@ -4564,7 +4561,7 @@
       <c r="F372" s="28"/>
       <c r="G372" s="29"/>
     </row>
-    <row r="373" spans="2:7" ht="15.75" customHeight="1">
+    <row r="373" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="24"/>
       <c r="C373" s="25"/>
       <c r="D373" s="26"/>
@@ -4572,7 +4569,7 @@
       <c r="F373" s="28"/>
       <c r="G373" s="29"/>
     </row>
-    <row r="374" spans="2:7" ht="15.75" customHeight="1">
+    <row r="374" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="24"/>
       <c r="C374" s="25"/>
       <c r="D374" s="26"/>
@@ -4580,7 +4577,7 @@
       <c r="F374" s="28"/>
       <c r="G374" s="29"/>
     </row>
-    <row r="375" spans="2:7" ht="15.75" customHeight="1">
+    <row r="375" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="24"/>
       <c r="C375" s="25"/>
       <c r="D375" s="26"/>
@@ -4588,7 +4585,7 @@
       <c r="F375" s="28"/>
       <c r="G375" s="29"/>
     </row>
-    <row r="376" spans="2:7" ht="15.75" customHeight="1">
+    <row r="376" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="24"/>
       <c r="C376" s="25"/>
       <c r="D376" s="26"/>
@@ -4596,7 +4593,7 @@
       <c r="F376" s="28"/>
       <c r="G376" s="29"/>
     </row>
-    <row r="377" spans="2:7" ht="15.75" customHeight="1">
+    <row r="377" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="24"/>
       <c r="C377" s="25"/>
       <c r="D377" s="26"/>
@@ -4604,7 +4601,7 @@
       <c r="F377" s="28"/>
       <c r="G377" s="29"/>
     </row>
-    <row r="378" spans="2:7" ht="15.75" customHeight="1">
+    <row r="378" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="24"/>
       <c r="C378" s="25"/>
       <c r="D378" s="26"/>
@@ -4612,7 +4609,7 @@
       <c r="F378" s="28"/>
       <c r="G378" s="29"/>
     </row>
-    <row r="379" spans="2:7" ht="15.75" customHeight="1">
+    <row r="379" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="24"/>
       <c r="C379" s="25"/>
       <c r="D379" s="26"/>
@@ -4620,7 +4617,7 @@
       <c r="F379" s="28"/>
       <c r="G379" s="29"/>
     </row>
-    <row r="380" spans="2:7" ht="15.75" customHeight="1">
+    <row r="380" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="24"/>
       <c r="C380" s="25"/>
       <c r="D380" s="26"/>
@@ -4628,7 +4625,7 @@
       <c r="F380" s="28"/>
       <c r="G380" s="29"/>
     </row>
-    <row r="381" spans="2:7" ht="15.75" customHeight="1">
+    <row r="381" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="24"/>
       <c r="C381" s="25"/>
       <c r="D381" s="26"/>
@@ -4636,7 +4633,7 @@
       <c r="F381" s="28"/>
       <c r="G381" s="29"/>
     </row>
-    <row r="382" spans="2:7" ht="15.75" customHeight="1">
+    <row r="382" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="24"/>
       <c r="C382" s="25"/>
       <c r="D382" s="26"/>
@@ -4644,7 +4641,7 @@
       <c r="F382" s="28"/>
       <c r="G382" s="29"/>
     </row>
-    <row r="383" spans="2:7" ht="15.75" customHeight="1">
+    <row r="383" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="24"/>
       <c r="C383" s="25"/>
       <c r="D383" s="26"/>
@@ -4652,7 +4649,7 @@
       <c r="F383" s="28"/>
       <c r="G383" s="29"/>
     </row>
-    <row r="384" spans="2:7" ht="15.75" customHeight="1">
+    <row r="384" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="24"/>
       <c r="C384" s="25"/>
       <c r="D384" s="26"/>
@@ -4660,7 +4657,7 @@
       <c r="F384" s="28"/>
       <c r="G384" s="29"/>
     </row>
-    <row r="385" spans="2:7" ht="15.75" customHeight="1">
+    <row r="385" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="24"/>
       <c r="C385" s="25"/>
       <c r="D385" s="26"/>
@@ -4668,7 +4665,7 @@
       <c r="F385" s="28"/>
       <c r="G385" s="29"/>
     </row>
-    <row r="386" spans="2:7" ht="15.75" customHeight="1">
+    <row r="386" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="24"/>
       <c r="C386" s="25"/>
       <c r="D386" s="26"/>
@@ -4676,7 +4673,7 @@
       <c r="F386" s="28"/>
       <c r="G386" s="29"/>
     </row>
-    <row r="387" spans="2:7" ht="15.75" customHeight="1">
+    <row r="387" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="24"/>
       <c r="C387" s="25"/>
       <c r="D387" s="26"/>
@@ -4684,7 +4681,7 @@
       <c r="F387" s="28"/>
       <c r="G387" s="29"/>
     </row>
-    <row r="388" spans="2:7" ht="15.75" customHeight="1">
+    <row r="388" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="24"/>
       <c r="C388" s="25"/>
       <c r="D388" s="26"/>
@@ -4692,7 +4689,7 @@
       <c r="F388" s="28"/>
       <c r="G388" s="29"/>
     </row>
-    <row r="389" spans="2:7" ht="15.75" customHeight="1">
+    <row r="389" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="24"/>
       <c r="C389" s="25"/>
       <c r="D389" s="26"/>
@@ -4700,7 +4697,7 @@
       <c r="F389" s="28"/>
       <c r="G389" s="29"/>
     </row>
-    <row r="390" spans="2:7" ht="15.75" customHeight="1">
+    <row r="390" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="24"/>
       <c r="C390" s="25"/>
       <c r="D390" s="26"/>
@@ -4708,7 +4705,7 @@
       <c r="F390" s="28"/>
       <c r="G390" s="29"/>
     </row>
-    <row r="391" spans="2:7" ht="15.75" customHeight="1">
+    <row r="391" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="24"/>
       <c r="C391" s="25"/>
       <c r="D391" s="26"/>
@@ -4716,7 +4713,7 @@
       <c r="F391" s="28"/>
       <c r="G391" s="29"/>
     </row>
-    <row r="392" spans="2:7" ht="15.75" customHeight="1">
+    <row r="392" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="24"/>
       <c r="C392" s="25"/>
       <c r="D392" s="26"/>
@@ -4724,7 +4721,7 @@
       <c r="F392" s="28"/>
       <c r="G392" s="29"/>
     </row>
-    <row r="393" spans="2:7" ht="15.75" customHeight="1">
+    <row r="393" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="24"/>
       <c r="C393" s="25"/>
       <c r="D393" s="26"/>
@@ -4732,7 +4729,7 @@
       <c r="F393" s="28"/>
       <c r="G393" s="29"/>
     </row>
-    <row r="394" spans="2:7" ht="15.75" customHeight="1">
+    <row r="394" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="24"/>
       <c r="C394" s="25"/>
       <c r="D394" s="26"/>
@@ -4740,7 +4737,7 @@
       <c r="F394" s="28"/>
       <c r="G394" s="29"/>
     </row>
-    <row r="395" spans="2:7" ht="15.75" customHeight="1">
+    <row r="395" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="24"/>
       <c r="C395" s="25"/>
       <c r="D395" s="26"/>
@@ -4748,7 +4745,7 @@
       <c r="F395" s="28"/>
       <c r="G395" s="29"/>
     </row>
-    <row r="396" spans="2:7" ht="15.75" customHeight="1">
+    <row r="396" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="24"/>
       <c r="C396" s="25"/>
       <c r="D396" s="26"/>
@@ -4756,7 +4753,7 @@
       <c r="F396" s="28"/>
       <c r="G396" s="29"/>
     </row>
-    <row r="397" spans="2:7" ht="15.75" customHeight="1">
+    <row r="397" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="24"/>
       <c r="C397" s="25"/>
       <c r="D397" s="26"/>
@@ -4764,7 +4761,7 @@
       <c r="F397" s="28"/>
       <c r="G397" s="29"/>
     </row>
-    <row r="398" spans="2:7" ht="15.75" customHeight="1">
+    <row r="398" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="24"/>
       <c r="C398" s="25"/>
       <c r="D398" s="26"/>
@@ -4772,7 +4769,7 @@
       <c r="F398" s="28"/>
       <c r="G398" s="29"/>
     </row>
-    <row r="399" spans="2:7" ht="15.75" customHeight="1">
+    <row r="399" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="24"/>
       <c r="C399" s="25"/>
       <c r="D399" s="26"/>
@@ -4780,7 +4777,7 @@
       <c r="F399" s="28"/>
       <c r="G399" s="29"/>
     </row>
-    <row r="400" spans="2:7" ht="15.75" customHeight="1">
+    <row r="400" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="24"/>
       <c r="C400" s="25"/>
       <c r="D400" s="26"/>
@@ -4788,7 +4785,7 @@
       <c r="F400" s="28"/>
       <c r="G400" s="29"/>
     </row>
-    <row r="401" spans="2:7" ht="15.75" customHeight="1">
+    <row r="401" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="24"/>
       <c r="C401" s="25"/>
       <c r="D401" s="26"/>
@@ -4796,7 +4793,7 @@
       <c r="F401" s="28"/>
       <c r="G401" s="29"/>
     </row>
-    <row r="402" spans="2:7" ht="15.75" customHeight="1">
+    <row r="402" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="24"/>
       <c r="C402" s="25"/>
       <c r="D402" s="26"/>
@@ -4804,7 +4801,7 @@
       <c r="F402" s="28"/>
       <c r="G402" s="29"/>
     </row>
-    <row r="403" spans="2:7" ht="15.75" customHeight="1">
+    <row r="403" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="24"/>
       <c r="C403" s="25"/>
       <c r="D403" s="26"/>
@@ -4812,7 +4809,7 @@
       <c r="F403" s="28"/>
       <c r="G403" s="29"/>
     </row>
-    <row r="404" spans="2:7" ht="15.75" customHeight="1">
+    <row r="404" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="24"/>
       <c r="C404" s="25"/>
       <c r="D404" s="26"/>
@@ -4820,7 +4817,7 @@
       <c r="F404" s="28"/>
       <c r="G404" s="29"/>
     </row>
-    <row r="405" spans="2:7" ht="15.75" customHeight="1">
+    <row r="405" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="24"/>
       <c r="C405" s="25"/>
       <c r="D405" s="26"/>
@@ -4828,7 +4825,7 @@
       <c r="F405" s="28"/>
       <c r="G405" s="29"/>
     </row>
-    <row r="406" spans="2:7" ht="15.75" customHeight="1">
+    <row r="406" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="24"/>
       <c r="C406" s="25"/>
       <c r="D406" s="26"/>
@@ -4836,7 +4833,7 @@
       <c r="F406" s="28"/>
       <c r="G406" s="29"/>
     </row>
-    <row r="407" spans="2:7" ht="15.75" customHeight="1">
+    <row r="407" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="24"/>
       <c r="C407" s="25"/>
       <c r="D407" s="26"/>
@@ -4844,7 +4841,7 @@
       <c r="F407" s="28"/>
       <c r="G407" s="29"/>
     </row>
-    <row r="408" spans="2:7" ht="15.75" customHeight="1">
+    <row r="408" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="24"/>
       <c r="C408" s="25"/>
       <c r="D408" s="26"/>
@@ -4852,7 +4849,7 @@
       <c r="F408" s="28"/>
       <c r="G408" s="29"/>
     </row>
-    <row r="409" spans="2:7" ht="15.75" customHeight="1">
+    <row r="409" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="24"/>
       <c r="C409" s="25"/>
       <c r="D409" s="26"/>
@@ -4860,7 +4857,7 @@
       <c r="F409" s="28"/>
       <c r="G409" s="29"/>
     </row>
-    <row r="410" spans="2:7" ht="15.75" customHeight="1">
+    <row r="410" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="24"/>
       <c r="C410" s="25"/>
       <c r="D410" s="26"/>
@@ -4868,7 +4865,7 @@
       <c r="F410" s="28"/>
       <c r="G410" s="29"/>
     </row>
-    <row r="411" spans="2:7" ht="15.75" customHeight="1">
+    <row r="411" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="24"/>
       <c r="C411" s="25"/>
       <c r="D411" s="26"/>
@@ -4876,7 +4873,7 @@
       <c r="F411" s="28"/>
       <c r="G411" s="29"/>
     </row>
-    <row r="412" spans="2:7" ht="15.75" customHeight="1">
+    <row r="412" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="24"/>
       <c r="C412" s="25"/>
       <c r="D412" s="26"/>
@@ -4884,7 +4881,7 @@
       <c r="F412" s="28"/>
       <c r="G412" s="29"/>
     </row>
-    <row r="413" spans="2:7" ht="15.75" customHeight="1">
+    <row r="413" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="24"/>
       <c r="C413" s="25"/>
       <c r="D413" s="26"/>
@@ -4892,7 +4889,7 @@
       <c r="F413" s="28"/>
       <c r="G413" s="29"/>
     </row>
-    <row r="414" spans="2:7" ht="15.75" customHeight="1">
+    <row r="414" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="24"/>
       <c r="C414" s="25"/>
       <c r="D414" s="26"/>
@@ -4900,7 +4897,7 @@
       <c r="F414" s="28"/>
       <c r="G414" s="29"/>
     </row>
-    <row r="415" spans="2:7" ht="15.75" customHeight="1">
+    <row r="415" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="24"/>
       <c r="C415" s="25"/>
       <c r="D415" s="26"/>
@@ -4908,7 +4905,7 @@
       <c r="F415" s="28"/>
       <c r="G415" s="29"/>
     </row>
-    <row r="416" spans="2:7" ht="15.75" customHeight="1">
+    <row r="416" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="24"/>
       <c r="C416" s="25"/>
       <c r="D416" s="26"/>
@@ -4916,7 +4913,7 @@
       <c r="F416" s="28"/>
       <c r="G416" s="29"/>
     </row>
-    <row r="417" spans="2:7" ht="15.75" customHeight="1">
+    <row r="417" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="24"/>
       <c r="C417" s="25"/>
       <c r="D417" s="26"/>
@@ -4924,7 +4921,7 @@
       <c r="F417" s="28"/>
       <c r="G417" s="29"/>
     </row>
-    <row r="418" spans="2:7" ht="15.75" customHeight="1">
+    <row r="418" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="24"/>
       <c r="C418" s="25"/>
       <c r="D418" s="26"/>
@@ -4932,7 +4929,7 @@
       <c r="F418" s="28"/>
       <c r="G418" s="29"/>
     </row>
-    <row r="419" spans="2:7" ht="15.75" customHeight="1">
+    <row r="419" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="24"/>
       <c r="C419" s="25"/>
       <c r="D419" s="26"/>
@@ -4940,7 +4937,7 @@
       <c r="F419" s="28"/>
       <c r="G419" s="29"/>
     </row>
-    <row r="420" spans="2:7" ht="15.75" customHeight="1">
+    <row r="420" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="24"/>
       <c r="C420" s="25"/>
       <c r="D420" s="26"/>
@@ -4948,7 +4945,7 @@
       <c r="F420" s="28"/>
       <c r="G420" s="29"/>
     </row>
-    <row r="421" spans="2:7" ht="15.75" customHeight="1">
+    <row r="421" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="24"/>
       <c r="C421" s="25"/>
       <c r="D421" s="26"/>
@@ -4956,7 +4953,7 @@
       <c r="F421" s="28"/>
       <c r="G421" s="29"/>
     </row>
-    <row r="422" spans="2:7" ht="15.75" customHeight="1">
+    <row r="422" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="24"/>
       <c r="C422" s="25"/>
       <c r="D422" s="26"/>
@@ -4964,7 +4961,7 @@
       <c r="F422" s="28"/>
       <c r="G422" s="29"/>
     </row>
-    <row r="423" spans="2:7" ht="15.75" customHeight="1">
+    <row r="423" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="24"/>
       <c r="C423" s="25"/>
       <c r="D423" s="26"/>
@@ -4972,7 +4969,7 @@
       <c r="F423" s="28"/>
       <c r="G423" s="29"/>
     </row>
-    <row r="424" spans="2:7" ht="15.75" customHeight="1">
+    <row r="424" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="24"/>
       <c r="C424" s="25"/>
       <c r="D424" s="26"/>
@@ -4980,7 +4977,7 @@
       <c r="F424" s="28"/>
       <c r="G424" s="29"/>
     </row>
-    <row r="425" spans="2:7" ht="15.75" customHeight="1">
+    <row r="425" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="24"/>
       <c r="C425" s="25"/>
       <c r="D425" s="26"/>
@@ -4988,7 +4985,7 @@
       <c r="F425" s="28"/>
       <c r="G425" s="29"/>
     </row>
-    <row r="426" spans="2:7" ht="15.75" customHeight="1">
+    <row r="426" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="24"/>
       <c r="C426" s="25"/>
       <c r="D426" s="26"/>
@@ -4996,7 +4993,7 @@
       <c r="F426" s="28"/>
       <c r="G426" s="29"/>
     </row>
-    <row r="427" spans="2:7" ht="15.75" customHeight="1">
+    <row r="427" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="24"/>
       <c r="C427" s="25"/>
       <c r="D427" s="26"/>
@@ -5004,7 +5001,7 @@
       <c r="F427" s="28"/>
       <c r="G427" s="29"/>
     </row>
-    <row r="428" spans="2:7" ht="15.75" customHeight="1">
+    <row r="428" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="24"/>
       <c r="C428" s="25"/>
       <c r="D428" s="26"/>
@@ -5012,7 +5009,7 @@
       <c r="F428" s="28"/>
       <c r="G428" s="29"/>
     </row>
-    <row r="429" spans="2:7" ht="15.75" customHeight="1">
+    <row r="429" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="24"/>
       <c r="C429" s="25"/>
       <c r="D429" s="26"/>
@@ -5020,7 +5017,7 @@
       <c r="F429" s="28"/>
       <c r="G429" s="29"/>
     </row>
-    <row r="430" spans="2:7" ht="15.75" customHeight="1">
+    <row r="430" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="24"/>
       <c r="C430" s="25"/>
       <c r="D430" s="26"/>
@@ -5028,7 +5025,7 @@
       <c r="F430" s="28"/>
       <c r="G430" s="29"/>
     </row>
-    <row r="431" spans="2:7" ht="15.75" customHeight="1">
+    <row r="431" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="24"/>
       <c r="C431" s="25"/>
       <c r="D431" s="26"/>
@@ -5036,7 +5033,7 @@
       <c r="F431" s="28"/>
       <c r="G431" s="29"/>
     </row>
-    <row r="432" spans="2:7" ht="15.75" customHeight="1">
+    <row r="432" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="24"/>
       <c r="C432" s="25"/>
       <c r="D432" s="26"/>
@@ -5044,7 +5041,7 @@
       <c r="F432" s="28"/>
       <c r="G432" s="29"/>
     </row>
-    <row r="433" spans="2:7" ht="15.75" customHeight="1">
+    <row r="433" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="24"/>
       <c r="C433" s="25"/>
       <c r="D433" s="26"/>
@@ -5052,7 +5049,7 @@
       <c r="F433" s="28"/>
       <c r="G433" s="29"/>
     </row>
-    <row r="434" spans="2:7" ht="15.75" customHeight="1">
+    <row r="434" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="24"/>
       <c r="C434" s="25"/>
       <c r="D434" s="26"/>
@@ -5060,7 +5057,7 @@
       <c r="F434" s="28"/>
       <c r="G434" s="29"/>
     </row>
-    <row r="435" spans="2:7" ht="15.75" customHeight="1">
+    <row r="435" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="24"/>
       <c r="C435" s="25"/>
       <c r="D435" s="26"/>
@@ -5068,7 +5065,7 @@
       <c r="F435" s="28"/>
       <c r="G435" s="29"/>
     </row>
-    <row r="436" spans="2:7" ht="15.75" customHeight="1">
+    <row r="436" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="24"/>
       <c r="C436" s="25"/>
       <c r="D436" s="26"/>
@@ -5076,7 +5073,7 @@
       <c r="F436" s="28"/>
       <c r="G436" s="29"/>
     </row>
-    <row r="437" spans="2:7" ht="15.75" customHeight="1">
+    <row r="437" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="24"/>
       <c r="C437" s="25"/>
       <c r="D437" s="26"/>
@@ -5084,7 +5081,7 @@
       <c r="F437" s="28"/>
       <c r="G437" s="29"/>
     </row>
-    <row r="438" spans="2:7" ht="15.75" customHeight="1">
+    <row r="438" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="24"/>
       <c r="C438" s="25"/>
       <c r="D438" s="26"/>
@@ -5092,7 +5089,7 @@
       <c r="F438" s="28"/>
       <c r="G438" s="29"/>
     </row>
-    <row r="439" spans="2:7" ht="15.75" customHeight="1">
+    <row r="439" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="24"/>
       <c r="C439" s="25"/>
       <c r="D439" s="26"/>
@@ -5100,7 +5097,7 @@
       <c r="F439" s="28"/>
       <c r="G439" s="29"/>
     </row>
-    <row r="440" spans="2:7" ht="15.75" customHeight="1">
+    <row r="440" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="24"/>
       <c r="C440" s="25"/>
       <c r="D440" s="26"/>
@@ -5108,7 +5105,7 @@
       <c r="F440" s="28"/>
       <c r="G440" s="29"/>
     </row>
-    <row r="441" spans="2:7" ht="15.75" customHeight="1">
+    <row r="441" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="24"/>
       <c r="C441" s="25"/>
       <c r="D441" s="26"/>
@@ -5116,7 +5113,7 @@
       <c r="F441" s="28"/>
       <c r="G441" s="29"/>
     </row>
-    <row r="442" spans="2:7" ht="15.75" customHeight="1">
+    <row r="442" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="24"/>
       <c r="C442" s="25"/>
       <c r="D442" s="26"/>
@@ -5124,7 +5121,7 @@
       <c r="F442" s="28"/>
       <c r="G442" s="29"/>
     </row>
-    <row r="443" spans="2:7" ht="15.75" customHeight="1">
+    <row r="443" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="24"/>
       <c r="C443" s="25"/>
       <c r="D443" s="26"/>
@@ -5132,7 +5129,7 @@
       <c r="F443" s="28"/>
       <c r="G443" s="29"/>
     </row>
-    <row r="444" spans="2:7" ht="15.75" customHeight="1">
+    <row r="444" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="24"/>
       <c r="C444" s="25"/>
       <c r="D444" s="26"/>
@@ -5140,7 +5137,7 @@
       <c r="F444" s="28"/>
       <c r="G444" s="29"/>
     </row>
-    <row r="445" spans="2:7" ht="15.75" customHeight="1">
+    <row r="445" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="24"/>
       <c r="C445" s="25"/>
       <c r="D445" s="26"/>
@@ -5148,7 +5145,7 @@
       <c r="F445" s="28"/>
       <c r="G445" s="29"/>
     </row>
-    <row r="446" spans="2:7" ht="15.75" customHeight="1">
+    <row r="446" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="24"/>
       <c r="C446" s="25"/>
       <c r="D446" s="26"/>
@@ -5156,7 +5153,7 @@
       <c r="F446" s="28"/>
       <c r="G446" s="29"/>
     </row>
-    <row r="447" spans="2:7" ht="15.75" customHeight="1">
+    <row r="447" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="24"/>
       <c r="C447" s="25"/>
       <c r="D447" s="26"/>
@@ -5164,7 +5161,7 @@
       <c r="F447" s="28"/>
       <c r="G447" s="29"/>
     </row>
-    <row r="448" spans="2:7" ht="15.75" customHeight="1">
+    <row r="448" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="24"/>
       <c r="C448" s="25"/>
       <c r="D448" s="26"/>
@@ -5172,7 +5169,7 @@
       <c r="F448" s="28"/>
       <c r="G448" s="29"/>
     </row>
-    <row r="449" spans="2:7" ht="15.75" customHeight="1">
+    <row r="449" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="24"/>
       <c r="C449" s="25"/>
       <c r="D449" s="26"/>
@@ -5180,7 +5177,7 @@
       <c r="F449" s="28"/>
       <c r="G449" s="29"/>
     </row>
-    <row r="450" spans="2:7" ht="15.75" customHeight="1">
+    <row r="450" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="24"/>
       <c r="C450" s="25"/>
       <c r="D450" s="26"/>
@@ -5188,7 +5185,7 @@
       <c r="F450" s="28"/>
       <c r="G450" s="29"/>
     </row>
-    <row r="451" spans="2:7" ht="15.75" customHeight="1">
+    <row r="451" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="24"/>
       <c r="C451" s="25"/>
       <c r="D451" s="26"/>
@@ -5196,7 +5193,7 @@
       <c r="F451" s="28"/>
       <c r="G451" s="29"/>
     </row>
-    <row r="452" spans="2:7" ht="15.75" customHeight="1">
+    <row r="452" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="24"/>
       <c r="C452" s="25"/>
       <c r="D452" s="26"/>
@@ -5204,7 +5201,7 @@
       <c r="F452" s="28"/>
       <c r="G452" s="29"/>
     </row>
-    <row r="453" spans="2:7" ht="15.75" customHeight="1">
+    <row r="453" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="24"/>
       <c r="C453" s="25"/>
       <c r="D453" s="26"/>
@@ -5212,7 +5209,7 @@
       <c r="F453" s="28"/>
       <c r="G453" s="29"/>
     </row>
-    <row r="454" spans="2:7" ht="15.75" customHeight="1">
+    <row r="454" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="24"/>
       <c r="C454" s="25"/>
       <c r="D454" s="26"/>
@@ -5220,7 +5217,7 @@
       <c r="F454" s="28"/>
       <c r="G454" s="29"/>
     </row>
-    <row r="455" spans="2:7" ht="15.75" customHeight="1">
+    <row r="455" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="24"/>
       <c r="C455" s="25"/>
       <c r="D455" s="26"/>
@@ -5228,7 +5225,7 @@
       <c r="F455" s="28"/>
       <c r="G455" s="29"/>
     </row>
-    <row r="456" spans="2:7" ht="15.75" customHeight="1">
+    <row r="456" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="24"/>
       <c r="C456" s="25"/>
       <c r="D456" s="26"/>
@@ -5236,7 +5233,7 @@
       <c r="F456" s="28"/>
       <c r="G456" s="29"/>
     </row>
-    <row r="457" spans="2:7" ht="15.75" customHeight="1">
+    <row r="457" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="24"/>
       <c r="C457" s="25"/>
       <c r="D457" s="26"/>
@@ -5244,7 +5241,7 @@
       <c r="F457" s="28"/>
       <c r="G457" s="29"/>
     </row>
-    <row r="458" spans="2:7" ht="15.75" customHeight="1">
+    <row r="458" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="24"/>
       <c r="C458" s="25"/>
       <c r="D458" s="26"/>
@@ -5252,7 +5249,7 @@
       <c r="F458" s="28"/>
       <c r="G458" s="29"/>
     </row>
-    <row r="459" spans="2:7" ht="15.75" customHeight="1">
+    <row r="459" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="24"/>
       <c r="C459" s="25"/>
       <c r="D459" s="26"/>
@@ -5260,7 +5257,7 @@
       <c r="F459" s="28"/>
       <c r="G459" s="29"/>
     </row>
-    <row r="460" spans="2:7" ht="15.75" customHeight="1">
+    <row r="460" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="24"/>
       <c r="C460" s="25"/>
       <c r="D460" s="26"/>
@@ -5268,7 +5265,7 @@
       <c r="F460" s="28"/>
       <c r="G460" s="29"/>
     </row>
-    <row r="461" spans="2:7" ht="15.75" customHeight="1">
+    <row r="461" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="24"/>
       <c r="C461" s="25"/>
       <c r="D461" s="26"/>
@@ -5276,7 +5273,7 @@
       <c r="F461" s="28"/>
       <c r="G461" s="29"/>
     </row>
-    <row r="462" spans="2:7" ht="15.75" customHeight="1">
+    <row r="462" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="24"/>
       <c r="C462" s="25"/>
       <c r="D462" s="26"/>
@@ -5284,7 +5281,7 @@
       <c r="F462" s="28"/>
       <c r="G462" s="29"/>
     </row>
-    <row r="463" spans="2:7" ht="15.75" customHeight="1">
+    <row r="463" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="24"/>
       <c r="C463" s="25"/>
       <c r="D463" s="26"/>
@@ -5292,7 +5289,7 @@
       <c r="F463" s="28"/>
       <c r="G463" s="29"/>
     </row>
-    <row r="464" spans="2:7" ht="15.75" customHeight="1">
+    <row r="464" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="24"/>
       <c r="C464" s="25"/>
       <c r="D464" s="26"/>
@@ -5300,7 +5297,7 @@
       <c r="F464" s="28"/>
       <c r="G464" s="29"/>
     </row>
-    <row r="465" spans="2:7" ht="15.75" customHeight="1">
+    <row r="465" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="24"/>
       <c r="C465" s="25"/>
       <c r="D465" s="26"/>
@@ -5308,7 +5305,7 @@
       <c r="F465" s="28"/>
       <c r="G465" s="29"/>
     </row>
-    <row r="466" spans="2:7" ht="15.75" customHeight="1">
+    <row r="466" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="24"/>
       <c r="C466" s="25"/>
       <c r="D466" s="26"/>
@@ -5316,7 +5313,7 @@
       <c r="F466" s="28"/>
       <c r="G466" s="29"/>
     </row>
-    <row r="467" spans="2:7" ht="15.75" customHeight="1">
+    <row r="467" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="24"/>
       <c r="C467" s="25"/>
       <c r="D467" s="26"/>
@@ -5324,7 +5321,7 @@
       <c r="F467" s="28"/>
       <c r="G467" s="29"/>
     </row>
-    <row r="468" spans="2:7" ht="15.75" customHeight="1">
+    <row r="468" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="24"/>
       <c r="C468" s="25"/>
       <c r="D468" s="26"/>
@@ -5332,7 +5329,7 @@
       <c r="F468" s="28"/>
       <c r="G468" s="29"/>
     </row>
-    <row r="469" spans="2:7" ht="15.75" customHeight="1">
+    <row r="469" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="24"/>
       <c r="C469" s="25"/>
       <c r="D469" s="26"/>
@@ -5340,7 +5337,7 @@
       <c r="F469" s="28"/>
       <c r="G469" s="29"/>
     </row>
-    <row r="470" spans="2:7" ht="15.75" customHeight="1">
+    <row r="470" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="24"/>
       <c r="C470" s="25"/>
       <c r="D470" s="26"/>
@@ -5348,7 +5345,7 @@
       <c r="F470" s="28"/>
       <c r="G470" s="29"/>
     </row>
-    <row r="471" spans="2:7" ht="15.75" customHeight="1">
+    <row r="471" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="24"/>
       <c r="C471" s="25"/>
       <c r="D471" s="26"/>
@@ -5356,7 +5353,7 @@
       <c r="F471" s="28"/>
       <c r="G471" s="29"/>
     </row>
-    <row r="472" spans="2:7" ht="15.75" customHeight="1">
+    <row r="472" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="24"/>
       <c r="C472" s="25"/>
       <c r="D472" s="26"/>
@@ -5364,7 +5361,7 @@
       <c r="F472" s="28"/>
       <c r="G472" s="29"/>
     </row>
-    <row r="473" spans="2:7" ht="15.75" customHeight="1">
+    <row r="473" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="24"/>
       <c r="C473" s="25"/>
       <c r="D473" s="26"/>
@@ -5372,7 +5369,7 @@
       <c r="F473" s="28"/>
       <c r="G473" s="29"/>
     </row>
-    <row r="474" spans="2:7" ht="15.75" customHeight="1">
+    <row r="474" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="24"/>
       <c r="C474" s="25"/>
       <c r="D474" s="26"/>
@@ -5380,7 +5377,7 @@
       <c r="F474" s="28"/>
       <c r="G474" s="29"/>
     </row>
-    <row r="475" spans="2:7" ht="15.75" customHeight="1">
+    <row r="475" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="24"/>
       <c r="C475" s="25"/>
       <c r="D475" s="26"/>
@@ -5388,7 +5385,7 @@
       <c r="F475" s="28"/>
       <c r="G475" s="29"/>
     </row>
-    <row r="476" spans="2:7" ht="15.75" customHeight="1">
+    <row r="476" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="24"/>
       <c r="C476" s="25"/>
       <c r="D476" s="26"/>
@@ -5396,7 +5393,7 @@
       <c r="F476" s="28"/>
       <c r="G476" s="29"/>
     </row>
-    <row r="477" spans="2:7" ht="15.75" customHeight="1">
+    <row r="477" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="24"/>
       <c r="C477" s="25"/>
       <c r="D477" s="26"/>
@@ -5404,7 +5401,7 @@
       <c r="F477" s="28"/>
       <c r="G477" s="29"/>
     </row>
-    <row r="478" spans="2:7" ht="15.75" customHeight="1">
+    <row r="478" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="24"/>
       <c r="C478" s="25"/>
       <c r="D478" s="26"/>
@@ -5412,7 +5409,7 @@
       <c r="F478" s="28"/>
       <c r="G478" s="29"/>
     </row>
-    <row r="479" spans="2:7" ht="15.75" customHeight="1">
+    <row r="479" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="24"/>
       <c r="C479" s="25"/>
       <c r="D479" s="26"/>
@@ -5420,7 +5417,7 @@
       <c r="F479" s="28"/>
       <c r="G479" s="29"/>
     </row>
-    <row r="480" spans="2:7" ht="15.75" customHeight="1">
+    <row r="480" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="24"/>
       <c r="C480" s="25"/>
       <c r="D480" s="26"/>
@@ -5428,7 +5425,7 @@
       <c r="F480" s="28"/>
       <c r="G480" s="29"/>
     </row>
-    <row r="481" spans="2:7" ht="15.75" customHeight="1">
+    <row r="481" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="24"/>
       <c r="C481" s="25"/>
       <c r="D481" s="26"/>
@@ -5436,7 +5433,7 @@
       <c r="F481" s="28"/>
       <c r="G481" s="29"/>
     </row>
-    <row r="482" spans="2:7" ht="15.75" customHeight="1">
+    <row r="482" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="24"/>
       <c r="C482" s="25"/>
       <c r="D482" s="26"/>
@@ -5444,7 +5441,7 @@
       <c r="F482" s="28"/>
       <c r="G482" s="29"/>
     </row>
-    <row r="483" spans="2:7" ht="15.75" customHeight="1">
+    <row r="483" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="24"/>
       <c r="C483" s="25"/>
       <c r="D483" s="26"/>
@@ -5452,7 +5449,7 @@
       <c r="F483" s="28"/>
       <c r="G483" s="29"/>
     </row>
-    <row r="484" spans="2:7" ht="15.75" customHeight="1">
+    <row r="484" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="24"/>
       <c r="C484" s="25"/>
       <c r="D484" s="26"/>
@@ -5460,7 +5457,7 @@
       <c r="F484" s="28"/>
       <c r="G484" s="29"/>
     </row>
-    <row r="485" spans="2:7" ht="15.75" customHeight="1">
+    <row r="485" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="24"/>
       <c r="C485" s="25"/>
       <c r="D485" s="26"/>
@@ -5468,7 +5465,7 @@
       <c r="F485" s="28"/>
       <c r="G485" s="29"/>
     </row>
-    <row r="486" spans="2:7" ht="15.75" customHeight="1">
+    <row r="486" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="24"/>
       <c r="C486" s="25"/>
       <c r="D486" s="26"/>
@@ -5476,7 +5473,7 @@
       <c r="F486" s="28"/>
       <c r="G486" s="29"/>
     </row>
-    <row r="487" spans="2:7" ht="15.75" customHeight="1">
+    <row r="487" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="24"/>
       <c r="C487" s="25"/>
       <c r="D487" s="26"/>
@@ -5484,7 +5481,7 @@
       <c r="F487" s="28"/>
       <c r="G487" s="29"/>
     </row>
-    <row r="488" spans="2:7" ht="15.75" customHeight="1">
+    <row r="488" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="24"/>
       <c r="C488" s="25"/>
       <c r="D488" s="26"/>
@@ -5492,7 +5489,7 @@
       <c r="F488" s="28"/>
       <c r="G488" s="29"/>
     </row>
-    <row r="489" spans="2:7" ht="15.75" customHeight="1">
+    <row r="489" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="24"/>
       <c r="C489" s="25"/>
       <c r="D489" s="26"/>
@@ -5500,7 +5497,7 @@
       <c r="F489" s="28"/>
       <c r="G489" s="29"/>
     </row>
-    <row r="490" spans="2:7" ht="15.75" customHeight="1">
+    <row r="490" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="24"/>
       <c r="C490" s="25"/>
       <c r="D490" s="26"/>
@@ -5508,7 +5505,7 @@
       <c r="F490" s="28"/>
       <c r="G490" s="29"/>
     </row>
-    <row r="491" spans="2:7" ht="15.75" customHeight="1">
+    <row r="491" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="24"/>
       <c r="C491" s="25"/>
       <c r="D491" s="26"/>
@@ -5516,7 +5513,7 @@
       <c r="F491" s="28"/>
       <c r="G491" s="29"/>
     </row>
-    <row r="492" spans="2:7" ht="15.75" customHeight="1">
+    <row r="492" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="24"/>
       <c r="C492" s="25"/>
       <c r="D492" s="26"/>
@@ -5524,7 +5521,7 @@
       <c r="F492" s="28"/>
       <c r="G492" s="29"/>
     </row>
-    <row r="493" spans="2:7" ht="15.75" customHeight="1">
+    <row r="493" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="24"/>
       <c r="C493" s="25"/>
       <c r="D493" s="26"/>
@@ -5532,7 +5529,7 @@
       <c r="F493" s="28"/>
       <c r="G493" s="29"/>
     </row>
-    <row r="494" spans="2:7" ht="15.75" customHeight="1">
+    <row r="494" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="24"/>
       <c r="C494" s="25"/>
       <c r="D494" s="26"/>
@@ -5540,7 +5537,7 @@
       <c r="F494" s="28"/>
       <c r="G494" s="29"/>
     </row>
-    <row r="495" spans="2:7" ht="15.75" customHeight="1">
+    <row r="495" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="24"/>
       <c r="C495" s="25"/>
       <c r="D495" s="26"/>
@@ -5548,7 +5545,7 @@
       <c r="F495" s="28"/>
       <c r="G495" s="29"/>
     </row>
-    <row r="496" spans="2:7" ht="15.75" customHeight="1">
+    <row r="496" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="24"/>
       <c r="C496" s="25"/>
       <c r="D496" s="26"/>
@@ -5556,7 +5553,7 @@
       <c r="F496" s="28"/>
       <c r="G496" s="29"/>
     </row>
-    <row r="497" spans="2:7" ht="15.75" customHeight="1">
+    <row r="497" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="24"/>
       <c r="C497" s="25"/>
       <c r="D497" s="26"/>
@@ -5564,7 +5561,7 @@
       <c r="F497" s="28"/>
       <c r="G497" s="29"/>
     </row>
-    <row r="498" spans="2:7" ht="15.75" customHeight="1">
+    <row r="498" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="24"/>
       <c r="C498" s="25"/>
       <c r="D498" s="26"/>
@@ -5572,7 +5569,7 @@
       <c r="F498" s="28"/>
       <c r="G498" s="29"/>
     </row>
-    <row r="499" spans="2:7" ht="15.75" customHeight="1">
+    <row r="499" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="24"/>
       <c r="C499" s="25"/>
       <c r="D499" s="26"/>
@@ -5580,7 +5577,7 @@
       <c r="F499" s="28"/>
       <c r="G499" s="29"/>
     </row>
-    <row r="500" spans="2:7" ht="15.75" customHeight="1">
+    <row r="500" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="24"/>
       <c r="C500" s="25"/>
       <c r="D500" s="26"/>
@@ -5588,7 +5585,7 @@
       <c r="F500" s="28"/>
       <c r="G500" s="29"/>
     </row>
-    <row r="501" spans="2:7" ht="15.75" customHeight="1">
+    <row r="501" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="24"/>
       <c r="C501" s="25"/>
       <c r="D501" s="26"/>
@@ -5596,7 +5593,7 @@
       <c r="F501" s="28"/>
       <c r="G501" s="29"/>
     </row>
-    <row r="502" spans="2:7" ht="15.75" customHeight="1">
+    <row r="502" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="24"/>
       <c r="C502" s="25"/>
       <c r="D502" s="26"/>
@@ -5604,7 +5601,7 @@
       <c r="F502" s="28"/>
       <c r="G502" s="29"/>
     </row>
-    <row r="503" spans="2:7" ht="15.75" customHeight="1">
+    <row r="503" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="24"/>
       <c r="C503" s="25"/>
       <c r="D503" s="26"/>
@@ -5612,7 +5609,7 @@
       <c r="F503" s="28"/>
       <c r="G503" s="29"/>
     </row>
-    <row r="504" spans="2:7" ht="15.75" customHeight="1">
+    <row r="504" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="24"/>
       <c r="C504" s="25"/>
       <c r="D504" s="26"/>
@@ -5620,7 +5617,7 @@
       <c r="F504" s="28"/>
       <c r="G504" s="29"/>
     </row>
-    <row r="505" spans="2:7" ht="15.75" customHeight="1">
+    <row r="505" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="24"/>
       <c r="C505" s="25"/>
       <c r="D505" s="26"/>
@@ -5628,7 +5625,7 @@
       <c r="F505" s="28"/>
       <c r="G505" s="29"/>
     </row>
-    <row r="506" spans="2:7" ht="15.75" customHeight="1">
+    <row r="506" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="24"/>
       <c r="C506" s="25"/>
       <c r="D506" s="26"/>
@@ -5636,7 +5633,7 @@
       <c r="F506" s="28"/>
       <c r="G506" s="29"/>
     </row>
-    <row r="507" spans="2:7" ht="15.75" customHeight="1">
+    <row r="507" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="24"/>
       <c r="C507" s="25"/>
       <c r="D507" s="26"/>
@@ -5644,7 +5641,7 @@
       <c r="F507" s="28"/>
       <c r="G507" s="29"/>
     </row>
-    <row r="508" spans="2:7" ht="15.75" customHeight="1">
+    <row r="508" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="24"/>
       <c r="C508" s="25"/>
       <c r="D508" s="26"/>
@@ -5652,7 +5649,7 @@
       <c r="F508" s="28"/>
       <c r="G508" s="29"/>
     </row>
-    <row r="509" spans="2:7" ht="15.75" customHeight="1">
+    <row r="509" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="24"/>
       <c r="C509" s="25"/>
       <c r="D509" s="26"/>
@@ -5660,7 +5657,7 @@
       <c r="F509" s="28"/>
       <c r="G509" s="29"/>
     </row>
-    <row r="510" spans="2:7" ht="15.75" customHeight="1">
+    <row r="510" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="24"/>
       <c r="C510" s="25"/>
       <c r="D510" s="26"/>
@@ -5668,7 +5665,7 @@
       <c r="F510" s="28"/>
       <c r="G510" s="29"/>
     </row>
-    <row r="511" spans="2:7" ht="15.75" customHeight="1">
+    <row r="511" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="24"/>
       <c r="C511" s="25"/>
       <c r="D511" s="26"/>
@@ -5676,7 +5673,7 @@
       <c r="F511" s="28"/>
       <c r="G511" s="29"/>
     </row>
-    <row r="512" spans="2:7" ht="15.75" customHeight="1">
+    <row r="512" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="24"/>
       <c r="C512" s="25"/>
       <c r="D512" s="26"/>
@@ -5684,7 +5681,7 @@
       <c r="F512" s="28"/>
       <c r="G512" s="29"/>
     </row>
-    <row r="513" spans="2:7" ht="15.75" customHeight="1">
+    <row r="513" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="24"/>
       <c r="C513" s="25"/>
       <c r="D513" s="26"/>
@@ -5692,7 +5689,7 @@
       <c r="F513" s="28"/>
       <c r="G513" s="29"/>
     </row>
-    <row r="514" spans="2:7" ht="15.75" customHeight="1">
+    <row r="514" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="24"/>
       <c r="C514" s="25"/>
       <c r="D514" s="26"/>
@@ -5700,7 +5697,7 @@
       <c r="F514" s="28"/>
       <c r="G514" s="29"/>
     </row>
-    <row r="515" spans="2:7" ht="15.75" customHeight="1">
+    <row r="515" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="24"/>
       <c r="C515" s="25"/>
       <c r="D515" s="26"/>
@@ -5708,7 +5705,7 @@
       <c r="F515" s="28"/>
       <c r="G515" s="29"/>
     </row>
-    <row r="516" spans="2:7" ht="15.75" customHeight="1">
+    <row r="516" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="24"/>
       <c r="C516" s="25"/>
       <c r="D516" s="26"/>
@@ -5716,7 +5713,7 @@
       <c r="F516" s="28"/>
       <c r="G516" s="29"/>
     </row>
-    <row r="517" spans="2:7" ht="15.75" customHeight="1">
+    <row r="517" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="24"/>
       <c r="C517" s="25"/>
       <c r="D517" s="26"/>
@@ -5724,7 +5721,7 @@
       <c r="F517" s="28"/>
       <c r="G517" s="29"/>
     </row>
-    <row r="518" spans="2:7" ht="15.75" customHeight="1">
+    <row r="518" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="24"/>
       <c r="C518" s="25"/>
       <c r="D518" s="26"/>
@@ -5732,7 +5729,7 @@
       <c r="F518" s="28"/>
       <c r="G518" s="29"/>
     </row>
-    <row r="519" spans="2:7" ht="15.75" customHeight="1">
+    <row r="519" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="24"/>
       <c r="C519" s="25"/>
       <c r="D519" s="26"/>
@@ -5740,7 +5737,7 @@
       <c r="F519" s="28"/>
       <c r="G519" s="29"/>
     </row>
-    <row r="520" spans="2:7" ht="15.75" customHeight="1">
+    <row r="520" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B520" s="24"/>
       <c r="C520" s="25"/>
       <c r="D520" s="26"/>
@@ -5748,7 +5745,7 @@
       <c r="F520" s="28"/>
       <c r="G520" s="29"/>
     </row>
-    <row r="521" spans="2:7" ht="15.75" customHeight="1">
+    <row r="521" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="24"/>
       <c r="C521" s="25"/>
       <c r="D521" s="26"/>
@@ -5756,7 +5753,7 @@
       <c r="F521" s="28"/>
       <c r="G521" s="29"/>
     </row>
-    <row r="522" spans="2:7" ht="15.75" customHeight="1">
+    <row r="522" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="24"/>
       <c r="C522" s="25"/>
       <c r="D522" s="26"/>
@@ -5764,7 +5761,7 @@
       <c r="F522" s="28"/>
       <c r="G522" s="29"/>
     </row>
-    <row r="523" spans="2:7" ht="15.75" customHeight="1">
+    <row r="523" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="24"/>
       <c r="C523" s="25"/>
       <c r="D523" s="26"/>
@@ -5772,7 +5769,7 @@
       <c r="F523" s="28"/>
       <c r="G523" s="29"/>
     </row>
-    <row r="524" spans="2:7" ht="15.75" customHeight="1">
+    <row r="524" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="24"/>
       <c r="C524" s="25"/>
       <c r="D524" s="26"/>
@@ -5780,7 +5777,7 @@
       <c r="F524" s="28"/>
       <c r="G524" s="29"/>
     </row>
-    <row r="525" spans="2:7" ht="15.75" customHeight="1">
+    <row r="525" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="24"/>
       <c r="C525" s="25"/>
       <c r="D525" s="26"/>
@@ -5788,7 +5785,7 @@
       <c r="F525" s="28"/>
       <c r="G525" s="29"/>
     </row>
-    <row r="526" spans="2:7" ht="15.75" customHeight="1">
+    <row r="526" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="24"/>
       <c r="C526" s="25"/>
       <c r="D526" s="26"/>
@@ -5796,7 +5793,7 @@
       <c r="F526" s="28"/>
       <c r="G526" s="29"/>
     </row>
-    <row r="527" spans="2:7" ht="15.75" customHeight="1">
+    <row r="527" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="24"/>
       <c r="C527" s="25"/>
       <c r="D527" s="26"/>
@@ -5804,7 +5801,7 @@
       <c r="F527" s="28"/>
       <c r="G527" s="29"/>
     </row>
-    <row r="528" spans="2:7" ht="15.75" customHeight="1">
+    <row r="528" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="24"/>
       <c r="C528" s="25"/>
       <c r="D528" s="26"/>
@@ -5812,7 +5809,7 @@
       <c r="F528" s="28"/>
       <c r="G528" s="29"/>
     </row>
-    <row r="529" spans="2:7" ht="15.75" customHeight="1">
+    <row r="529" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="24"/>
       <c r="C529" s="25"/>
       <c r="D529" s="26"/>
@@ -5820,7 +5817,7 @@
       <c r="F529" s="28"/>
       <c r="G529" s="29"/>
     </row>
-    <row r="530" spans="2:7" ht="15.75" customHeight="1">
+    <row r="530" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="24"/>
       <c r="C530" s="25"/>
       <c r="D530" s="26"/>
@@ -5828,7 +5825,7 @@
       <c r="F530" s="28"/>
       <c r="G530" s="29"/>
     </row>
-    <row r="531" spans="2:7" ht="15.75" customHeight="1">
+    <row r="531" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="24"/>
       <c r="C531" s="25"/>
       <c r="D531" s="26"/>
@@ -5836,7 +5833,7 @@
       <c r="F531" s="28"/>
       <c r="G531" s="29"/>
     </row>
-    <row r="532" spans="2:7" ht="15.75" customHeight="1">
+    <row r="532" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="24"/>
       <c r="C532" s="25"/>
       <c r="D532" s="26"/>
@@ -5844,7 +5841,7 @@
       <c r="F532" s="28"/>
       <c r="G532" s="29"/>
     </row>
-    <row r="533" spans="2:7" ht="15.75" customHeight="1">
+    <row r="533" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="24"/>
       <c r="C533" s="25"/>
       <c r="D533" s="26"/>
@@ -5852,7 +5849,7 @@
       <c r="F533" s="28"/>
       <c r="G533" s="29"/>
     </row>
-    <row r="534" spans="2:7" ht="15.75" customHeight="1">
+    <row r="534" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="24"/>
       <c r="C534" s="25"/>
       <c r="D534" s="26"/>
@@ -5860,7 +5857,7 @@
       <c r="F534" s="28"/>
       <c r="G534" s="29"/>
     </row>
-    <row r="535" spans="2:7" ht="15.75" customHeight="1">
+    <row r="535" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="24"/>
       <c r="C535" s="25"/>
       <c r="D535" s="26"/>
@@ -5868,7 +5865,7 @@
       <c r="F535" s="28"/>
       <c r="G535" s="29"/>
     </row>
-    <row r="536" spans="2:7" ht="15.75" customHeight="1">
+    <row r="536" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B536" s="24"/>
       <c r="C536" s="25"/>
       <c r="D536" s="26"/>
@@ -5876,7 +5873,7 @@
       <c r="F536" s="28"/>
       <c r="G536" s="29"/>
     </row>
-    <row r="537" spans="2:7" ht="15.75" customHeight="1">
+    <row r="537" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="24"/>
       <c r="C537" s="25"/>
       <c r="D537" s="26"/>
@@ -5884,7 +5881,7 @@
       <c r="F537" s="28"/>
       <c r="G537" s="29"/>
     </row>
-    <row r="538" spans="2:7" ht="15.75" customHeight="1">
+    <row r="538" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B538" s="24"/>
       <c r="C538" s="25"/>
       <c r="D538" s="26"/>
@@ -5892,7 +5889,7 @@
       <c r="F538" s="28"/>
       <c r="G538" s="29"/>
     </row>
-    <row r="539" spans="2:7" ht="15.75" customHeight="1">
+    <row r="539" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="24"/>
       <c r="C539" s="25"/>
       <c r="D539" s="26"/>
@@ -5900,7 +5897,7 @@
       <c r="F539" s="28"/>
       <c r="G539" s="29"/>
     </row>
-    <row r="540" spans="2:7" ht="15.75" customHeight="1">
+    <row r="540" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B540" s="24"/>
       <c r="C540" s="25"/>
       <c r="D540" s="26"/>
@@ -5908,7 +5905,7 @@
       <c r="F540" s="28"/>
       <c r="G540" s="29"/>
     </row>
-    <row r="541" spans="2:7" ht="15.75" customHeight="1">
+    <row r="541" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="24"/>
       <c r="C541" s="25"/>
       <c r="D541" s="26"/>
@@ -5916,7 +5913,7 @@
       <c r="F541" s="28"/>
       <c r="G541" s="29"/>
     </row>
-    <row r="542" spans="2:7" ht="15.75" customHeight="1">
+    <row r="542" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B542" s="24"/>
       <c r="C542" s="25"/>
       <c r="D542" s="26"/>
@@ -5924,7 +5921,7 @@
       <c r="F542" s="28"/>
       <c r="G542" s="29"/>
     </row>
-    <row r="543" spans="2:7" ht="15.75" customHeight="1">
+    <row r="543" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B543" s="24"/>
       <c r="C543" s="25"/>
       <c r="D543" s="26"/>
@@ -5932,7 +5929,7 @@
       <c r="F543" s="28"/>
       <c r="G543" s="29"/>
     </row>
-    <row r="544" spans="2:7" ht="15.75" customHeight="1">
+    <row r="544" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B544" s="24"/>
       <c r="C544" s="25"/>
       <c r="D544" s="26"/>
@@ -5940,7 +5937,7 @@
       <c r="F544" s="28"/>
       <c r="G544" s="29"/>
     </row>
-    <row r="545" spans="2:7" ht="15.75" customHeight="1">
+    <row r="545" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="24"/>
       <c r="C545" s="25"/>
       <c r="D545" s="26"/>
@@ -5948,7 +5945,7 @@
       <c r="F545" s="28"/>
       <c r="G545" s="29"/>
     </row>
-    <row r="546" spans="2:7" ht="15.75" customHeight="1">
+    <row r="546" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="24"/>
       <c r="C546" s="25"/>
       <c r="D546" s="26"/>
@@ -5956,7 +5953,7 @@
       <c r="F546" s="28"/>
       <c r="G546" s="29"/>
     </row>
-    <row r="547" spans="2:7" ht="15.75" customHeight="1">
+    <row r="547" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="24"/>
       <c r="C547" s="25"/>
       <c r="D547" s="26"/>
@@ -5964,7 +5961,7 @@
       <c r="F547" s="28"/>
       <c r="G547" s="29"/>
     </row>
-    <row r="548" spans="2:7" ht="15.75" customHeight="1">
+    <row r="548" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="24"/>
       <c r="C548" s="25"/>
       <c r="D548" s="26"/>
@@ -5972,7 +5969,7 @@
       <c r="F548" s="28"/>
       <c r="G548" s="29"/>
     </row>
-    <row r="549" spans="2:7" ht="15.75" customHeight="1">
+    <row r="549" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="24"/>
       <c r="C549" s="25"/>
       <c r="D549" s="26"/>
@@ -5980,7 +5977,7 @@
       <c r="F549" s="28"/>
       <c r="G549" s="29"/>
     </row>
-    <row r="550" spans="2:7" ht="15.75" customHeight="1">
+    <row r="550" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="24"/>
       <c r="C550" s="25"/>
       <c r="D550" s="26"/>
@@ -5988,7 +5985,7 @@
       <c r="F550" s="28"/>
       <c r="G550" s="29"/>
     </row>
-    <row r="551" spans="2:7" ht="15.75" customHeight="1">
+    <row r="551" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="24"/>
       <c r="C551" s="25"/>
       <c r="D551" s="26"/>
@@ -5996,7 +5993,7 @@
       <c r="F551" s="28"/>
       <c r="G551" s="29"/>
     </row>
-    <row r="552" spans="2:7" ht="15.75" customHeight="1">
+    <row r="552" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="24"/>
       <c r="C552" s="25"/>
       <c r="D552" s="26"/>
@@ -6004,7 +6001,7 @@
       <c r="F552" s="28"/>
       <c r="G552" s="29"/>
     </row>
-    <row r="553" spans="2:7" ht="15.75" customHeight="1">
+    <row r="553" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="24"/>
       <c r="C553" s="25"/>
       <c r="D553" s="26"/>
@@ -6012,7 +6009,7 @@
       <c r="F553" s="28"/>
       <c r="G553" s="29"/>
     </row>
-    <row r="554" spans="2:7" ht="15.75" customHeight="1">
+    <row r="554" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="24"/>
       <c r="C554" s="25"/>
       <c r="D554" s="26"/>
@@ -6020,7 +6017,7 @@
       <c r="F554" s="28"/>
       <c r="G554" s="29"/>
     </row>
-    <row r="555" spans="2:7" ht="15.75" customHeight="1">
+    <row r="555" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="24"/>
       <c r="C555" s="25"/>
       <c r="D555" s="26"/>
@@ -6028,7 +6025,7 @@
       <c r="F555" s="28"/>
       <c r="G555" s="29"/>
     </row>
-    <row r="556" spans="2:7" ht="15.75" customHeight="1">
+    <row r="556" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B556" s="24"/>
       <c r="C556" s="25"/>
       <c r="D556" s="26"/>
@@ -6036,7 +6033,7 @@
       <c r="F556" s="28"/>
       <c r="G556" s="29"/>
     </row>
-    <row r="557" spans="2:7" ht="15.75" customHeight="1">
+    <row r="557" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B557" s="24"/>
       <c r="C557" s="25"/>
       <c r="D557" s="26"/>
@@ -6044,7 +6041,7 @@
       <c r="F557" s="28"/>
       <c r="G557" s="29"/>
     </row>
-    <row r="558" spans="2:7" ht="15.75" customHeight="1">
+    <row r="558" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B558" s="24"/>
       <c r="C558" s="25"/>
       <c r="D558" s="26"/>
@@ -6052,7 +6049,7 @@
       <c r="F558" s="28"/>
       <c r="G558" s="29"/>
     </row>
-    <row r="559" spans="2:7" ht="15.75" customHeight="1">
+    <row r="559" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="24"/>
       <c r="C559" s="25"/>
       <c r="D559" s="26"/>
@@ -6060,7 +6057,7 @@
       <c r="F559" s="28"/>
       <c r="G559" s="29"/>
     </row>
-    <row r="560" spans="2:7" ht="15.75" customHeight="1">
+    <row r="560" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="24"/>
       <c r="C560" s="25"/>
       <c r="D560" s="26"/>
@@ -6068,7 +6065,7 @@
       <c r="F560" s="28"/>
       <c r="G560" s="29"/>
     </row>
-    <row r="561" spans="2:7" ht="15.75" customHeight="1">
+    <row r="561" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B561" s="24"/>
       <c r="C561" s="25"/>
       <c r="D561" s="26"/>
@@ -6076,7 +6073,7 @@
       <c r="F561" s="28"/>
       <c r="G561" s="29"/>
     </row>
-    <row r="562" spans="2:7" ht="15.75" customHeight="1">
+    <row r="562" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B562" s="24"/>
       <c r="C562" s="25"/>
       <c r="D562" s="26"/>
@@ -6084,7 +6081,7 @@
       <c r="F562" s="28"/>
       <c r="G562" s="29"/>
     </row>
-    <row r="563" spans="2:7" ht="15.75" customHeight="1">
+    <row r="563" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="24"/>
       <c r="C563" s="25"/>
       <c r="D563" s="26"/>
@@ -6092,7 +6089,7 @@
       <c r="F563" s="28"/>
       <c r="G563" s="29"/>
     </row>
-    <row r="564" spans="2:7" ht="15.75" customHeight="1">
+    <row r="564" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B564" s="24"/>
       <c r="C564" s="25"/>
       <c r="D564" s="26"/>
@@ -6100,7 +6097,7 @@
       <c r="F564" s="28"/>
       <c r="G564" s="29"/>
     </row>
-    <row r="565" spans="2:7" ht="15.75" customHeight="1">
+    <row r="565" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="24"/>
       <c r="C565" s="25"/>
       <c r="D565" s="26"/>
@@ -6108,7 +6105,7 @@
       <c r="F565" s="28"/>
       <c r="G565" s="29"/>
     </row>
-    <row r="566" spans="2:7" ht="15.75" customHeight="1">
+    <row r="566" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="24"/>
       <c r="C566" s="25"/>
       <c r="D566" s="26"/>
@@ -6116,7 +6113,7 @@
       <c r="F566" s="28"/>
       <c r="G566" s="29"/>
     </row>
-    <row r="567" spans="2:7" ht="15.75" customHeight="1">
+    <row r="567" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="24"/>
       <c r="C567" s="25"/>
       <c r="D567" s="26"/>
@@ -6124,7 +6121,7 @@
       <c r="F567" s="28"/>
       <c r="G567" s="29"/>
     </row>
-    <row r="568" spans="2:7" ht="15.75" customHeight="1">
+    <row r="568" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B568" s="24"/>
       <c r="C568" s="25"/>
       <c r="D568" s="26"/>
@@ -6132,7 +6129,7 @@
       <c r="F568" s="28"/>
       <c r="G568" s="29"/>
     </row>
-    <row r="569" spans="2:7" ht="15.75" customHeight="1">
+    <row r="569" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="24"/>
       <c r="C569" s="25"/>
       <c r="D569" s="26"/>
@@ -6140,7 +6137,7 @@
       <c r="F569" s="28"/>
       <c r="G569" s="29"/>
     </row>
-    <row r="570" spans="2:7" ht="15.75" customHeight="1">
+    <row r="570" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="24"/>
       <c r="C570" s="25"/>
       <c r="D570" s="26"/>
@@ -6148,7 +6145,7 @@
       <c r="F570" s="28"/>
       <c r="G570" s="29"/>
     </row>
-    <row r="571" spans="2:7" ht="15.75" customHeight="1">
+    <row r="571" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="24"/>
       <c r="C571" s="25"/>
       <c r="D571" s="26"/>
@@ -6156,7 +6153,7 @@
       <c r="F571" s="28"/>
       <c r="G571" s="29"/>
     </row>
-    <row r="572" spans="2:7" ht="15.75" customHeight="1">
+    <row r="572" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B572" s="24"/>
       <c r="C572" s="25"/>
       <c r="D572" s="26"/>
@@ -6164,7 +6161,7 @@
       <c r="F572" s="28"/>
       <c r="G572" s="29"/>
     </row>
-    <row r="573" spans="2:7" ht="15.75" customHeight="1">
+    <row r="573" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="24"/>
       <c r="C573" s="25"/>
       <c r="D573" s="26"/>
@@ -6172,7 +6169,7 @@
       <c r="F573" s="28"/>
       <c r="G573" s="29"/>
     </row>
-    <row r="574" spans="2:7" ht="15.75" customHeight="1">
+    <row r="574" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="24"/>
       <c r="C574" s="25"/>
       <c r="D574" s="26"/>
@@ -6180,7 +6177,7 @@
       <c r="F574" s="28"/>
       <c r="G574" s="29"/>
     </row>
-    <row r="575" spans="2:7" ht="15.75" customHeight="1">
+    <row r="575" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="24"/>
       <c r="C575" s="25"/>
       <c r="D575" s="26"/>
@@ -6188,7 +6185,7 @@
       <c r="F575" s="28"/>
       <c r="G575" s="29"/>
     </row>
-    <row r="576" spans="2:7" ht="15.75" customHeight="1">
+    <row r="576" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B576" s="24"/>
       <c r="C576" s="25"/>
       <c r="D576" s="26"/>
@@ -6196,7 +6193,7 @@
       <c r="F576" s="28"/>
       <c r="G576" s="29"/>
     </row>
-    <row r="577" spans="2:7" ht="15.75" customHeight="1">
+    <row r="577" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B577" s="24"/>
       <c r="C577" s="25"/>
       <c r="D577" s="26"/>
@@ -6204,7 +6201,7 @@
       <c r="F577" s="28"/>
       <c r="G577" s="29"/>
     </row>
-    <row r="578" spans="2:7" ht="15.75" customHeight="1">
+    <row r="578" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="24"/>
       <c r="C578" s="25"/>
       <c r="D578" s="26"/>
@@ -6212,7 +6209,7 @@
       <c r="F578" s="28"/>
       <c r="G578" s="29"/>
     </row>
-    <row r="579" spans="2:7" ht="15.75" customHeight="1">
+    <row r="579" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="24"/>
       <c r="C579" s="25"/>
       <c r="D579" s="26"/>
@@ -6220,7 +6217,7 @@
       <c r="F579" s="28"/>
       <c r="G579" s="29"/>
     </row>
-    <row r="580" spans="2:7" ht="15.75" customHeight="1">
+    <row r="580" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B580" s="24"/>
       <c r="C580" s="25"/>
       <c r="D580" s="26"/>
@@ -6228,7 +6225,7 @@
       <c r="F580" s="28"/>
       <c r="G580" s="29"/>
     </row>
-    <row r="581" spans="2:7" ht="15.75" customHeight="1">
+    <row r="581" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="24"/>
       <c r="C581" s="25"/>
       <c r="D581" s="26"/>
@@ -6236,7 +6233,7 @@
       <c r="F581" s="28"/>
       <c r="G581" s="29"/>
     </row>
-    <row r="582" spans="2:7" ht="15.75" customHeight="1">
+    <row r="582" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="24"/>
       <c r="C582" s="25"/>
       <c r="D582" s="26"/>
@@ -6244,7 +6241,7 @@
       <c r="F582" s="28"/>
       <c r="G582" s="29"/>
     </row>
-    <row r="583" spans="2:7" ht="15.75" customHeight="1">
+    <row r="583" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="24"/>
       <c r="C583" s="25"/>
       <c r="D583" s="26"/>
@@ -6252,7 +6249,7 @@
       <c r="F583" s="28"/>
       <c r="G583" s="29"/>
     </row>
-    <row r="584" spans="2:7" ht="15.75" customHeight="1">
+    <row r="584" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="24"/>
       <c r="C584" s="25"/>
       <c r="D584" s="26"/>
@@ -6260,7 +6257,7 @@
       <c r="F584" s="28"/>
       <c r="G584" s="29"/>
     </row>
-    <row r="585" spans="2:7" ht="15.75" customHeight="1">
+    <row r="585" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="24"/>
       <c r="C585" s="25"/>
       <c r="D585" s="26"/>
@@ -6268,7 +6265,7 @@
       <c r="F585" s="28"/>
       <c r="G585" s="29"/>
     </row>
-    <row r="586" spans="2:7" ht="15.75" customHeight="1">
+    <row r="586" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="24"/>
       <c r="C586" s="25"/>
       <c r="D586" s="26"/>
@@ -6276,7 +6273,7 @@
       <c r="F586" s="28"/>
       <c r="G586" s="29"/>
     </row>
-    <row r="587" spans="2:7" ht="15.75" customHeight="1">
+    <row r="587" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="24"/>
       <c r="C587" s="25"/>
       <c r="D587" s="26"/>
@@ -6284,7 +6281,7 @@
       <c r="F587" s="28"/>
       <c r="G587" s="29"/>
     </row>
-    <row r="588" spans="2:7" ht="15.75" customHeight="1">
+    <row r="588" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B588" s="24"/>
       <c r="C588" s="25"/>
       <c r="D588" s="26"/>
@@ -6292,7 +6289,7 @@
       <c r="F588" s="28"/>
       <c r="G588" s="29"/>
     </row>
-    <row r="589" spans="2:7" ht="15.75" customHeight="1">
+    <row r="589" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="24"/>
       <c r="C589" s="25"/>
       <c r="D589" s="26"/>
@@ -6300,7 +6297,7 @@
       <c r="F589" s="28"/>
       <c r="G589" s="29"/>
     </row>
-    <row r="590" spans="2:7" ht="15.75" customHeight="1">
+    <row r="590" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="24"/>
       <c r="C590" s="25"/>
       <c r="D590" s="26"/>
@@ -6308,7 +6305,7 @@
       <c r="F590" s="28"/>
       <c r="G590" s="29"/>
     </row>
-    <row r="591" spans="2:7" ht="15.75" customHeight="1">
+    <row r="591" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B591" s="24"/>
       <c r="C591" s="25"/>
       <c r="D591" s="26"/>
@@ -6316,7 +6313,7 @@
       <c r="F591" s="28"/>
       <c r="G591" s="29"/>
     </row>
-    <row r="592" spans="2:7" ht="15.75" customHeight="1">
+    <row r="592" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B592" s="24"/>
       <c r="C592" s="25"/>
       <c r="D592" s="26"/>
@@ -6324,7 +6321,7 @@
       <c r="F592" s="28"/>
       <c r="G592" s="29"/>
     </row>
-    <row r="593" spans="2:7" ht="15.75" customHeight="1">
+    <row r="593" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B593" s="24"/>
       <c r="C593" s="25"/>
       <c r="D593" s="26"/>
@@ -6332,7 +6329,7 @@
       <c r="F593" s="28"/>
       <c r="G593" s="29"/>
     </row>
-    <row r="594" spans="2:7" ht="15.75" customHeight="1">
+    <row r="594" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="24"/>
       <c r="C594" s="25"/>
       <c r="D594" s="26"/>
@@ -6340,7 +6337,7 @@
       <c r="F594" s="28"/>
       <c r="G594" s="29"/>
     </row>
-    <row r="595" spans="2:7" ht="15.75" customHeight="1">
+    <row r="595" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="24"/>
       <c r="C595" s="25"/>
       <c r="D595" s="26"/>
@@ -6348,7 +6345,7 @@
       <c r="F595" s="28"/>
       <c r="G595" s="29"/>
     </row>
-    <row r="596" spans="2:7" ht="15.75" customHeight="1">
+    <row r="596" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B596" s="24"/>
       <c r="C596" s="25"/>
       <c r="D596" s="26"/>
@@ -6356,7 +6353,7 @@
       <c r="F596" s="28"/>
       <c r="G596" s="29"/>
     </row>
-    <row r="597" spans="2:7" ht="15.75" customHeight="1">
+    <row r="597" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="24"/>
       <c r="C597" s="25"/>
       <c r="D597" s="26"/>
@@ -6364,7 +6361,7 @@
       <c r="F597" s="28"/>
       <c r="G597" s="29"/>
     </row>
-    <row r="598" spans="2:7" ht="15.75" customHeight="1">
+    <row r="598" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="24"/>
       <c r="C598" s="25"/>
       <c r="D598" s="26"/>
@@ -6372,7 +6369,7 @@
       <c r="F598" s="28"/>
       <c r="G598" s="29"/>
     </row>
-    <row r="599" spans="2:7" ht="15.75" customHeight="1">
+    <row r="599" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="24"/>
       <c r="C599" s="25"/>
       <c r="D599" s="26"/>
@@ -6380,7 +6377,7 @@
       <c r="F599" s="28"/>
       <c r="G599" s="29"/>
     </row>
-    <row r="600" spans="2:7" ht="15.75" customHeight="1">
+    <row r="600" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B600" s="24"/>
       <c r="C600" s="25"/>
       <c r="D600" s="26"/>
@@ -6388,7 +6385,7 @@
       <c r="F600" s="28"/>
       <c r="G600" s="29"/>
     </row>
-    <row r="601" spans="2:7" ht="15.75" customHeight="1">
+    <row r="601" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="24"/>
       <c r="C601" s="25"/>
       <c r="D601" s="26"/>
@@ -6396,7 +6393,7 @@
       <c r="F601" s="28"/>
       <c r="G601" s="29"/>
     </row>
-    <row r="602" spans="2:7" ht="15.75" customHeight="1">
+    <row r="602" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="24"/>
       <c r="C602" s="25"/>
       <c r="D602" s="26"/>
@@ -6404,7 +6401,7 @@
       <c r="F602" s="28"/>
       <c r="G602" s="29"/>
     </row>
-    <row r="603" spans="2:7" ht="15.75" customHeight="1">
+    <row r="603" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="24"/>
       <c r="C603" s="25"/>
       <c r="D603" s="26"/>
@@ -6412,7 +6409,7 @@
       <c r="F603" s="28"/>
       <c r="G603" s="29"/>
     </row>
-    <row r="604" spans="2:7" ht="15.75" customHeight="1">
+    <row r="604" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="24"/>
       <c r="C604" s="25"/>
       <c r="D604" s="26"/>
@@ -6420,7 +6417,7 @@
       <c r="F604" s="28"/>
       <c r="G604" s="29"/>
     </row>
-    <row r="605" spans="2:7" ht="15.75" customHeight="1">
+    <row r="605" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="24"/>
       <c r="C605" s="25"/>
       <c r="D605" s="26"/>
@@ -6428,7 +6425,7 @@
       <c r="F605" s="28"/>
       <c r="G605" s="29"/>
     </row>
-    <row r="606" spans="2:7" ht="15.75" customHeight="1">
+    <row r="606" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B606" s="24"/>
       <c r="C606" s="25"/>
       <c r="D606" s="26"/>
@@ -6436,7 +6433,7 @@
       <c r="F606" s="28"/>
       <c r="G606" s="29"/>
     </row>
-    <row r="607" spans="2:7" ht="15.75" customHeight="1">
+    <row r="607" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="24"/>
       <c r="C607" s="25"/>
       <c r="D607" s="26"/>
@@ -6444,7 +6441,7 @@
       <c r="F607" s="28"/>
       <c r="G607" s="29"/>
     </row>
-    <row r="608" spans="2:7" ht="15.75" customHeight="1">
+    <row r="608" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="24"/>
       <c r="C608" s="25"/>
       <c r="D608" s="26"/>
@@ -6452,7 +6449,7 @@
       <c r="F608" s="28"/>
       <c r="G608" s="29"/>
     </row>
-    <row r="609" spans="2:7" ht="15.75" customHeight="1">
+    <row r="609" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="24"/>
       <c r="C609" s="25"/>
       <c r="D609" s="26"/>
@@ -6460,7 +6457,7 @@
       <c r="F609" s="28"/>
       <c r="G609" s="29"/>
     </row>
-    <row r="610" spans="2:7" ht="15.75" customHeight="1">
+    <row r="610" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="24"/>
       <c r="C610" s="25"/>
       <c r="D610" s="26"/>
@@ -6468,7 +6465,7 @@
       <c r="F610" s="28"/>
       <c r="G610" s="29"/>
     </row>
-    <row r="611" spans="2:7" ht="15.75" customHeight="1">
+    <row r="611" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="24"/>
       <c r="C611" s="25"/>
       <c r="D611" s="26"/>
@@ -6476,7 +6473,7 @@
       <c r="F611" s="28"/>
       <c r="G611" s="29"/>
     </row>
-    <row r="612" spans="2:7" ht="15.75" customHeight="1">
+    <row r="612" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B612" s="24"/>
       <c r="C612" s="25"/>
       <c r="D612" s="26"/>
@@ -6484,7 +6481,7 @@
       <c r="F612" s="28"/>
       <c r="G612" s="29"/>
     </row>
-    <row r="613" spans="2:7" ht="15.75" customHeight="1">
+    <row r="613" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="24"/>
       <c r="C613" s="25"/>
       <c r="D613" s="26"/>
@@ -6492,7 +6489,7 @@
       <c r="F613" s="28"/>
       <c r="G613" s="29"/>
     </row>
-    <row r="614" spans="2:7" ht="15.75" customHeight="1">
+    <row r="614" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="24"/>
       <c r="C614" s="25"/>
       <c r="D614" s="26"/>
@@ -6500,7 +6497,7 @@
       <c r="F614" s="28"/>
       <c r="G614" s="29"/>
     </row>
-    <row r="615" spans="2:7" ht="15.75" customHeight="1">
+    <row r="615" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="24"/>
       <c r="C615" s="25"/>
       <c r="D615" s="26"/>
@@ -6508,7 +6505,7 @@
       <c r="F615" s="28"/>
       <c r="G615" s="29"/>
     </row>
-    <row r="616" spans="2:7" ht="15.75" customHeight="1">
+    <row r="616" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B616" s="24"/>
       <c r="C616" s="25"/>
       <c r="D616" s="26"/>
@@ -6516,7 +6513,7 @@
       <c r="F616" s="28"/>
       <c r="G616" s="29"/>
     </row>
-    <row r="617" spans="2:7" ht="15.75" customHeight="1">
+    <row r="617" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="24"/>
       <c r="C617" s="25"/>
       <c r="D617" s="26"/>
@@ -6524,7 +6521,7 @@
       <c r="F617" s="28"/>
       <c r="G617" s="29"/>
     </row>
-    <row r="618" spans="2:7" ht="15.75" customHeight="1">
+    <row r="618" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="24"/>
       <c r="C618" s="25"/>
       <c r="D618" s="26"/>
@@ -6532,7 +6529,7 @@
       <c r="F618" s="28"/>
       <c r="G618" s="29"/>
     </row>
-    <row r="619" spans="2:7" ht="15.75" customHeight="1">
+    <row r="619" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="24"/>
       <c r="C619" s="25"/>
       <c r="D619" s="26"/>
@@ -6540,7 +6537,7 @@
       <c r="F619" s="28"/>
       <c r="G619" s="29"/>
     </row>
-    <row r="620" spans="2:7" ht="15.75" customHeight="1">
+    <row r="620" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B620" s="24"/>
       <c r="C620" s="25"/>
       <c r="D620" s="26"/>
@@ -6548,7 +6545,7 @@
       <c r="F620" s="28"/>
       <c r="G620" s="29"/>
     </row>
-    <row r="621" spans="2:7" ht="15.75" customHeight="1">
+    <row r="621" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="24"/>
       <c r="C621" s="25"/>
       <c r="D621" s="26"/>
@@ -6556,7 +6553,7 @@
       <c r="F621" s="28"/>
       <c r="G621" s="29"/>
     </row>
-    <row r="622" spans="2:7" ht="15.75" customHeight="1">
+    <row r="622" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="24"/>
       <c r="C622" s="25"/>
       <c r="D622" s="26"/>
@@ -6564,7 +6561,7 @@
       <c r="F622" s="28"/>
       <c r="G622" s="29"/>
     </row>
-    <row r="623" spans="2:7" ht="15.75" customHeight="1">
+    <row r="623" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B623" s="24"/>
       <c r="C623" s="25"/>
       <c r="D623" s="26"/>
@@ -6572,7 +6569,7 @@
       <c r="F623" s="28"/>
       <c r="G623" s="29"/>
     </row>
-    <row r="624" spans="2:7" ht="15.75" customHeight="1">
+    <row r="624" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="24"/>
       <c r="C624" s="25"/>
       <c r="D624" s="26"/>
@@ -6580,7 +6577,7 @@
       <c r="F624" s="28"/>
       <c r="G624" s="29"/>
     </row>
-    <row r="625" spans="2:7" ht="15.75" customHeight="1">
+    <row r="625" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="24"/>
       <c r="C625" s="25"/>
       <c r="D625" s="26"/>
@@ -6588,7 +6585,7 @@
       <c r="F625" s="28"/>
       <c r="G625" s="29"/>
     </row>
-    <row r="626" spans="2:7" ht="15.75" customHeight="1">
+    <row r="626" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B626" s="24"/>
       <c r="C626" s="25"/>
       <c r="D626" s="26"/>
@@ -6596,7 +6593,7 @@
       <c r="F626" s="28"/>
       <c r="G626" s="29"/>
     </row>
-    <row r="627" spans="2:7" ht="15.75" customHeight="1">
+    <row r="627" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="24"/>
       <c r="C627" s="25"/>
       <c r="D627" s="26"/>
@@ -6604,7 +6601,7 @@
       <c r="F627" s="28"/>
       <c r="G627" s="29"/>
     </row>
-    <row r="628" spans="2:7" ht="15.75" customHeight="1">
+    <row r="628" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="24"/>
       <c r="C628" s="25"/>
       <c r="D628" s="26"/>
@@ -6612,7 +6609,7 @@
       <c r="F628" s="28"/>
       <c r="G628" s="29"/>
     </row>
-    <row r="629" spans="2:7" ht="15.75" customHeight="1">
+    <row r="629" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="24"/>
       <c r="C629" s="25"/>
       <c r="D629" s="26"/>
@@ -6620,7 +6617,7 @@
       <c r="F629" s="28"/>
       <c r="G629" s="29"/>
     </row>
-    <row r="630" spans="2:7" ht="15.75" customHeight="1">
+    <row r="630" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="24"/>
       <c r="C630" s="25"/>
       <c r="D630" s="26"/>
@@ -6628,7 +6625,7 @@
       <c r="F630" s="28"/>
       <c r="G630" s="29"/>
     </row>
-    <row r="631" spans="2:7" ht="15.75" customHeight="1">
+    <row r="631" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="24"/>
       <c r="C631" s="25"/>
       <c r="D631" s="26"/>
@@ -6636,7 +6633,7 @@
       <c r="F631" s="28"/>
       <c r="G631" s="29"/>
     </row>
-    <row r="632" spans="2:7" ht="15.75" customHeight="1">
+    <row r="632" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="24"/>
       <c r="C632" s="25"/>
       <c r="D632" s="26"/>
@@ -6644,7 +6641,7 @@
       <c r="F632" s="28"/>
       <c r="G632" s="29"/>
     </row>
-    <row r="633" spans="2:7" ht="15.75" customHeight="1">
+    <row r="633" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="24"/>
       <c r="C633" s="25"/>
       <c r="D633" s="26"/>
@@ -6652,7 +6649,7 @@
       <c r="F633" s="28"/>
       <c r="G633" s="29"/>
     </row>
-    <row r="634" spans="2:7" ht="15.75" customHeight="1">
+    <row r="634" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B634" s="24"/>
       <c r="C634" s="25"/>
       <c r="D634" s="26"/>
@@ -6660,7 +6657,7 @@
       <c r="F634" s="28"/>
       <c r="G634" s="29"/>
     </row>
-    <row r="635" spans="2:7" ht="15.75" customHeight="1">
+    <row r="635" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="24"/>
       <c r="C635" s="25"/>
       <c r="D635" s="26"/>
@@ -6668,7 +6665,7 @@
       <c r="F635" s="28"/>
       <c r="G635" s="29"/>
     </row>
-    <row r="636" spans="2:7" ht="15.75" customHeight="1">
+    <row r="636" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="24"/>
       <c r="C636" s="25"/>
       <c r="D636" s="26"/>
@@ -6676,7 +6673,7 @@
       <c r="F636" s="28"/>
       <c r="G636" s="29"/>
     </row>
-    <row r="637" spans="2:7" ht="15.75" customHeight="1">
+    <row r="637" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="24"/>
       <c r="C637" s="25"/>
       <c r="D637" s="26"/>
@@ -6684,7 +6681,7 @@
       <c r="F637" s="28"/>
       <c r="G637" s="29"/>
     </row>
-    <row r="638" spans="2:7" ht="15.75" customHeight="1">
+    <row r="638" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="24"/>
       <c r="C638" s="25"/>
       <c r="D638" s="26"/>
@@ -6692,7 +6689,7 @@
       <c r="F638" s="28"/>
       <c r="G638" s="29"/>
     </row>
-    <row r="639" spans="2:7" ht="15.75" customHeight="1">
+    <row r="639" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B639" s="24"/>
       <c r="C639" s="25"/>
       <c r="D639" s="26"/>
@@ -6700,7 +6697,7 @@
       <c r="F639" s="28"/>
       <c r="G639" s="29"/>
     </row>
-    <row r="640" spans="2:7" ht="15.75" customHeight="1">
+    <row r="640" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B640" s="24"/>
       <c r="C640" s="25"/>
       <c r="D640" s="26"/>
@@ -6708,7 +6705,7 @@
       <c r="F640" s="28"/>
       <c r="G640" s="29"/>
     </row>
-    <row r="641" spans="2:7" ht="15.75" customHeight="1">
+    <row r="641" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B641" s="24"/>
       <c r="C641" s="25"/>
       <c r="D641" s="26"/>
@@ -6716,7 +6713,7 @@
       <c r="F641" s="28"/>
       <c r="G641" s="29"/>
     </row>
-    <row r="642" spans="2:7" ht="15.75" customHeight="1">
+    <row r="642" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="24"/>
       <c r="C642" s="25"/>
       <c r="D642" s="26"/>
@@ -6724,7 +6721,7 @@
       <c r="F642" s="28"/>
       <c r="G642" s="29"/>
     </row>
-    <row r="643" spans="2:7" ht="15.75" customHeight="1">
+    <row r="643" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="24"/>
       <c r="C643" s="25"/>
       <c r="D643" s="26"/>
@@ -6732,7 +6729,7 @@
       <c r="F643" s="28"/>
       <c r="G643" s="29"/>
     </row>
-    <row r="644" spans="2:7" ht="15.75" customHeight="1">
+    <row r="644" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B644" s="24"/>
       <c r="C644" s="25"/>
       <c r="D644" s="26"/>
@@ -6740,7 +6737,7 @@
       <c r="F644" s="28"/>
       <c r="G644" s="29"/>
     </row>
-    <row r="645" spans="2:7" ht="15.75" customHeight="1">
+    <row r="645" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="24"/>
       <c r="C645" s="25"/>
       <c r="D645" s="26"/>
@@ -6748,7 +6745,7 @@
       <c r="F645" s="28"/>
       <c r="G645" s="29"/>
     </row>
-    <row r="646" spans="2:7" ht="15.75" customHeight="1">
+    <row r="646" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="24"/>
       <c r="C646" s="25"/>
       <c r="D646" s="26"/>
@@ -6756,7 +6753,7 @@
       <c r="F646" s="28"/>
       <c r="G646" s="29"/>
     </row>
-    <row r="647" spans="2:7" ht="15.75" customHeight="1">
+    <row r="647" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="24"/>
       <c r="C647" s="25"/>
       <c r="D647" s="26"/>
@@ -6764,7 +6761,7 @@
       <c r="F647" s="28"/>
       <c r="G647" s="29"/>
     </row>
-    <row r="648" spans="2:7" ht="15.75" customHeight="1">
+    <row r="648" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="24"/>
       <c r="C648" s="25"/>
       <c r="D648" s="26"/>
@@ -6772,7 +6769,7 @@
       <c r="F648" s="28"/>
       <c r="G648" s="29"/>
     </row>
-    <row r="649" spans="2:7" ht="15.75" customHeight="1">
+    <row r="649" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="24"/>
       <c r="C649" s="25"/>
       <c r="D649" s="26"/>
@@ -6780,7 +6777,7 @@
       <c r="F649" s="28"/>
       <c r="G649" s="29"/>
     </row>
-    <row r="650" spans="2:7" ht="15.75" customHeight="1">
+    <row r="650" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="24"/>
       <c r="C650" s="25"/>
       <c r="D650" s="26"/>
@@ -6788,7 +6785,7 @@
       <c r="F650" s="28"/>
       <c r="G650" s="29"/>
     </row>
-    <row r="651" spans="2:7" ht="15.75" customHeight="1">
+    <row r="651" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B651" s="24"/>
       <c r="C651" s="25"/>
       <c r="D651" s="26"/>
@@ -6796,7 +6793,7 @@
       <c r="F651" s="28"/>
       <c r="G651" s="29"/>
     </row>
-    <row r="652" spans="2:7" ht="15.75" customHeight="1">
+    <row r="652" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B652" s="24"/>
       <c r="C652" s="25"/>
       <c r="D652" s="26"/>
@@ -6804,7 +6801,7 @@
       <c r="F652" s="28"/>
       <c r="G652" s="29"/>
     </row>
-    <row r="653" spans="2:7" ht="15.75" customHeight="1">
+    <row r="653" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B653" s="24"/>
       <c r="C653" s="25"/>
       <c r="D653" s="26"/>
@@ -6812,7 +6809,7 @@
       <c r="F653" s="28"/>
       <c r="G653" s="29"/>
     </row>
-    <row r="654" spans="2:7" ht="15.75" customHeight="1">
+    <row r="654" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B654" s="24"/>
       <c r="C654" s="25"/>
       <c r="D654" s="26"/>
@@ -6820,7 +6817,7 @@
       <c r="F654" s="28"/>
       <c r="G654" s="29"/>
     </row>
-    <row r="655" spans="2:7" ht="15.75" customHeight="1">
+    <row r="655" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B655" s="24"/>
       <c r="C655" s="25"/>
       <c r="D655" s="26"/>
@@ -6828,7 +6825,7 @@
       <c r="F655" s="28"/>
       <c r="G655" s="29"/>
     </row>
-    <row r="656" spans="2:7" ht="15.75" customHeight="1">
+    <row r="656" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B656" s="24"/>
       <c r="C656" s="25"/>
       <c r="D656" s="26"/>
@@ -6836,7 +6833,7 @@
       <c r="F656" s="28"/>
       <c r="G656" s="29"/>
     </row>
-    <row r="657" spans="2:7" ht="15.75" customHeight="1">
+    <row r="657" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B657" s="24"/>
       <c r="C657" s="25"/>
       <c r="D657" s="26"/>
@@ -6844,7 +6841,7 @@
       <c r="F657" s="28"/>
       <c r="G657" s="29"/>
     </row>
-    <row r="658" spans="2:7" ht="15.75" customHeight="1">
+    <row r="658" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B658" s="24"/>
       <c r="C658" s="25"/>
       <c r="D658" s="26"/>
@@ -6852,7 +6849,7 @@
       <c r="F658" s="28"/>
       <c r="G658" s="29"/>
     </row>
-    <row r="659" spans="2:7" ht="15.75" customHeight="1">
+    <row r="659" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B659" s="24"/>
       <c r="C659" s="25"/>
       <c r="D659" s="26"/>
@@ -6860,7 +6857,7 @@
       <c r="F659" s="28"/>
       <c r="G659" s="29"/>
     </row>
-    <row r="660" spans="2:7" ht="15.75" customHeight="1">
+    <row r="660" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B660" s="24"/>
       <c r="C660" s="25"/>
       <c r="D660" s="26"/>
@@ -6868,7 +6865,7 @@
       <c r="F660" s="28"/>
       <c r="G660" s="29"/>
     </row>
-    <row r="661" spans="2:7" ht="15.75" customHeight="1">
+    <row r="661" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B661" s="24"/>
       <c r="C661" s="25"/>
       <c r="D661" s="26"/>
@@ -6876,7 +6873,7 @@
       <c r="F661" s="28"/>
       <c r="G661" s="29"/>
     </row>
-    <row r="662" spans="2:7" ht="15.75" customHeight="1">
+    <row r="662" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B662" s="24"/>
       <c r="C662" s="25"/>
       <c r="D662" s="26"/>
@@ -6884,7 +6881,7 @@
       <c r="F662" s="28"/>
       <c r="G662" s="29"/>
     </row>
-    <row r="663" spans="2:7" ht="15.75" customHeight="1">
+    <row r="663" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B663" s="24"/>
       <c r="C663" s="25"/>
       <c r="D663" s="26"/>
@@ -6892,7 +6889,7 @@
       <c r="F663" s="28"/>
       <c r="G663" s="29"/>
     </row>
-    <row r="664" spans="2:7" ht="15.75" customHeight="1">
+    <row r="664" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B664" s="24"/>
       <c r="C664" s="25"/>
       <c r="D664" s="26"/>
@@ -6900,7 +6897,7 @@
       <c r="F664" s="28"/>
       <c r="G664" s="29"/>
     </row>
-    <row r="665" spans="2:7" ht="15.75" customHeight="1">
+    <row r="665" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B665" s="24"/>
       <c r="C665" s="25"/>
       <c r="D665" s="26"/>
@@ -6908,7 +6905,7 @@
       <c r="F665" s="28"/>
       <c r="G665" s="29"/>
     </row>
-    <row r="666" spans="2:7" ht="15.75" customHeight="1">
+    <row r="666" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B666" s="24"/>
       <c r="C666" s="25"/>
       <c r="D666" s="26"/>
@@ -6916,7 +6913,7 @@
       <c r="F666" s="28"/>
       <c r="G666" s="29"/>
     </row>
-    <row r="667" spans="2:7" ht="15.75" customHeight="1">
+    <row r="667" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B667" s="24"/>
       <c r="C667" s="25"/>
       <c r="D667" s="26"/>
@@ -6924,7 +6921,7 @@
       <c r="F667" s="28"/>
       <c r="G667" s="29"/>
     </row>
-    <row r="668" spans="2:7" ht="15.75" customHeight="1">
+    <row r="668" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B668" s="24"/>
       <c r="C668" s="25"/>
       <c r="D668" s="26"/>
@@ -6932,7 +6929,7 @@
       <c r="F668" s="28"/>
       <c r="G668" s="29"/>
     </row>
-    <row r="669" spans="2:7" ht="15.75" customHeight="1">
+    <row r="669" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B669" s="24"/>
       <c r="C669" s="25"/>
       <c r="D669" s="26"/>
@@ -6940,7 +6937,7 @@
       <c r="F669" s="28"/>
       <c r="G669" s="29"/>
     </row>
-    <row r="670" spans="2:7" ht="15.75" customHeight="1">
+    <row r="670" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B670" s="24"/>
       <c r="C670" s="25"/>
       <c r="D670" s="26"/>
@@ -6948,7 +6945,7 @@
       <c r="F670" s="28"/>
       <c r="G670" s="29"/>
     </row>
-    <row r="671" spans="2:7" ht="15.75" customHeight="1">
+    <row r="671" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B671" s="24"/>
       <c r="C671" s="25"/>
       <c r="D671" s="26"/>
@@ -6956,7 +6953,7 @@
       <c r="F671" s="28"/>
       <c r="G671" s="29"/>
     </row>
-    <row r="672" spans="2:7" ht="15.75" customHeight="1">
+    <row r="672" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B672" s="24"/>
       <c r="C672" s="25"/>
       <c r="D672" s="26"/>
@@ -6964,7 +6961,7 @@
       <c r="F672" s="28"/>
       <c r="G672" s="29"/>
     </row>
-    <row r="673" spans="2:7" ht="15.75" customHeight="1">
+    <row r="673" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B673" s="24"/>
       <c r="C673" s="25"/>
       <c r="D673" s="26"/>
@@ -6972,7 +6969,7 @@
       <c r="F673" s="28"/>
       <c r="G673" s="29"/>
     </row>
-    <row r="674" spans="2:7" ht="15.75" customHeight="1">
+    <row r="674" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B674" s="24"/>
       <c r="C674" s="25"/>
       <c r="D674" s="26"/>
@@ -6980,7 +6977,7 @@
       <c r="F674" s="28"/>
       <c r="G674" s="29"/>
     </row>
-    <row r="675" spans="2:7" ht="15.75" customHeight="1">
+    <row r="675" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B675" s="24"/>
       <c r="C675" s="25"/>
       <c r="D675" s="26"/>
@@ -6988,7 +6985,7 @@
       <c r="F675" s="28"/>
       <c r="G675" s="29"/>
     </row>
-    <row r="676" spans="2:7" ht="15.75" customHeight="1">
+    <row r="676" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B676" s="24"/>
       <c r="C676" s="25"/>
       <c r="D676" s="26"/>
@@ -6996,7 +6993,7 @@
       <c r="F676" s="28"/>
       <c r="G676" s="29"/>
     </row>
-    <row r="677" spans="2:7" ht="15.75" customHeight="1">
+    <row r="677" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B677" s="24"/>
       <c r="C677" s="25"/>
       <c r="D677" s="26"/>
@@ -7004,7 +7001,7 @@
       <c r="F677" s="28"/>
       <c r="G677" s="29"/>
     </row>
-    <row r="678" spans="2:7" ht="15.75" customHeight="1">
+    <row r="678" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B678" s="24"/>
       <c r="C678" s="25"/>
       <c r="D678" s="26"/>
@@ -7012,7 +7009,7 @@
       <c r="F678" s="28"/>
       <c r="G678" s="29"/>
     </row>
-    <row r="679" spans="2:7" ht="15.75" customHeight="1">
+    <row r="679" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B679" s="24"/>
       <c r="C679" s="25"/>
       <c r="D679" s="26"/>
@@ -7020,7 +7017,7 @@
       <c r="F679" s="28"/>
       <c r="G679" s="29"/>
     </row>
-    <row r="680" spans="2:7" ht="15.75" customHeight="1">
+    <row r="680" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B680" s="24"/>
       <c r="C680" s="25"/>
       <c r="D680" s="26"/>
@@ -7028,7 +7025,7 @@
       <c r="F680" s="28"/>
       <c r="G680" s="29"/>
     </row>
-    <row r="681" spans="2:7" ht="15.75" customHeight="1">
+    <row r="681" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B681" s="24"/>
       <c r="C681" s="25"/>
       <c r="D681" s="26"/>
@@ -7036,7 +7033,7 @@
       <c r="F681" s="28"/>
       <c r="G681" s="29"/>
     </row>
-    <row r="682" spans="2:7" ht="15.75" customHeight="1">
+    <row r="682" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B682" s="24"/>
       <c r="C682" s="25"/>
       <c r="D682" s="26"/>
@@ -7044,7 +7041,7 @@
       <c r="F682" s="28"/>
       <c r="G682" s="29"/>
     </row>
-    <row r="683" spans="2:7" ht="15.75" customHeight="1">
+    <row r="683" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B683" s="24"/>
       <c r="C683" s="25"/>
       <c r="D683" s="26"/>
@@ -7052,7 +7049,7 @@
       <c r="F683" s="28"/>
       <c r="G683" s="29"/>
     </row>
-    <row r="684" spans="2:7" ht="15.75" customHeight="1">
+    <row r="684" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B684" s="24"/>
       <c r="C684" s="25"/>
       <c r="D684" s="26"/>
@@ -7060,7 +7057,7 @@
       <c r="F684" s="28"/>
       <c r="G684" s="29"/>
     </row>
-    <row r="685" spans="2:7" ht="15.75" customHeight="1">
+    <row r="685" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B685" s="24"/>
       <c r="C685" s="25"/>
       <c r="D685" s="26"/>
@@ -7068,7 +7065,7 @@
       <c r="F685" s="28"/>
       <c r="G685" s="29"/>
     </row>
-    <row r="686" spans="2:7" ht="15.75" customHeight="1">
+    <row r="686" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B686" s="24"/>
       <c r="C686" s="25"/>
       <c r="D686" s="26"/>
@@ -7076,7 +7073,7 @@
       <c r="F686" s="28"/>
       <c r="G686" s="29"/>
     </row>
-    <row r="687" spans="2:7" ht="15.75" customHeight="1">
+    <row r="687" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B687" s="24"/>
       <c r="C687" s="25"/>
       <c r="D687" s="26"/>
@@ -7084,7 +7081,7 @@
       <c r="F687" s="28"/>
       <c r="G687" s="29"/>
     </row>
-    <row r="688" spans="2:7" ht="15.75" customHeight="1">
+    <row r="688" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B688" s="24"/>
       <c r="C688" s="25"/>
       <c r="D688" s="26"/>
@@ -7092,7 +7089,7 @@
       <c r="F688" s="28"/>
       <c r="G688" s="29"/>
     </row>
-    <row r="689" spans="2:7" ht="15.75" customHeight="1">
+    <row r="689" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B689" s="24"/>
       <c r="C689" s="25"/>
       <c r="D689" s="26"/>
@@ -7100,7 +7097,7 @@
       <c r="F689" s="28"/>
       <c r="G689" s="29"/>
     </row>
-    <row r="690" spans="2:7" ht="15.75" customHeight="1">
+    <row r="690" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B690" s="24"/>
       <c r="C690" s="25"/>
       <c r="D690" s="26"/>
@@ -7108,7 +7105,7 @@
       <c r="F690" s="28"/>
       <c r="G690" s="29"/>
     </row>
-    <row r="691" spans="2:7" ht="15.75" customHeight="1">
+    <row r="691" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B691" s="24"/>
       <c r="C691" s="25"/>
       <c r="D691" s="26"/>
@@ -7116,7 +7113,7 @@
       <c r="F691" s="28"/>
       <c r="G691" s="29"/>
     </row>
-    <row r="692" spans="2:7" ht="15.75" customHeight="1">
+    <row r="692" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B692" s="24"/>
       <c r="C692" s="25"/>
       <c r="D692" s="26"/>
@@ -7124,7 +7121,7 @@
       <c r="F692" s="28"/>
       <c r="G692" s="29"/>
     </row>
-    <row r="693" spans="2:7" ht="15.75" customHeight="1">
+    <row r="693" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B693" s="24"/>
       <c r="C693" s="25"/>
       <c r="D693" s="26"/>
@@ -7132,7 +7129,7 @@
       <c r="F693" s="28"/>
       <c r="G693" s="29"/>
     </row>
-    <row r="694" spans="2:7" ht="15.75" customHeight="1">
+    <row r="694" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B694" s="24"/>
       <c r="C694" s="25"/>
       <c r="D694" s="26"/>
@@ -7140,7 +7137,7 @@
       <c r="F694" s="28"/>
       <c r="G694" s="29"/>
     </row>
-    <row r="695" spans="2:7" ht="15.75" customHeight="1">
+    <row r="695" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B695" s="24"/>
       <c r="C695" s="25"/>
       <c r="D695" s="26"/>
@@ -7148,7 +7145,7 @@
       <c r="F695" s="28"/>
       <c r="G695" s="29"/>
     </row>
-    <row r="696" spans="2:7" ht="15.75" customHeight="1">
+    <row r="696" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B696" s="24"/>
       <c r="C696" s="25"/>
       <c r="D696" s="26"/>
@@ -7156,7 +7153,7 @@
       <c r="F696" s="28"/>
       <c r="G696" s="29"/>
     </row>
-    <row r="697" spans="2:7" ht="15.75" customHeight="1">
+    <row r="697" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B697" s="24"/>
       <c r="C697" s="25"/>
       <c r="D697" s="26"/>
@@ -7164,7 +7161,7 @@
       <c r="F697" s="28"/>
       <c r="G697" s="29"/>
     </row>
-    <row r="698" spans="2:7" ht="15.75" customHeight="1">
+    <row r="698" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B698" s="24"/>
       <c r="C698" s="25"/>
       <c r="D698" s="26"/>
@@ -7172,7 +7169,7 @@
       <c r="F698" s="28"/>
       <c r="G698" s="29"/>
     </row>
-    <row r="699" spans="2:7" ht="15.75" customHeight="1">
+    <row r="699" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B699" s="24"/>
       <c r="C699" s="25"/>
       <c r="D699" s="26"/>
@@ -7180,7 +7177,7 @@
       <c r="F699" s="28"/>
       <c r="G699" s="29"/>
     </row>
-    <row r="700" spans="2:7" ht="15.75" customHeight="1">
+    <row r="700" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B700" s="24"/>
       <c r="C700" s="25"/>
       <c r="D700" s="26"/>
@@ -7188,7 +7185,7 @@
       <c r="F700" s="28"/>
       <c r="G700" s="29"/>
     </row>
-    <row r="701" spans="2:7" ht="15.75" customHeight="1">
+    <row r="701" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B701" s="24"/>
       <c r="C701" s="25"/>
       <c r="D701" s="26"/>
@@ -7196,7 +7193,7 @@
       <c r="F701" s="28"/>
       <c r="G701" s="29"/>
     </row>
-    <row r="702" spans="2:7" ht="15.75" customHeight="1">
+    <row r="702" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B702" s="24"/>
       <c r="C702" s="25"/>
       <c r="D702" s="26"/>
@@ -7204,7 +7201,7 @@
       <c r="F702" s="28"/>
       <c r="G702" s="29"/>
     </row>
-    <row r="703" spans="2:7" ht="15.75" customHeight="1">
+    <row r="703" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B703" s="24"/>
       <c r="C703" s="25"/>
       <c r="D703" s="26"/>
@@ -7212,7 +7209,7 @@
       <c r="F703" s="28"/>
       <c r="G703" s="29"/>
     </row>
-    <row r="704" spans="2:7" ht="15.75" customHeight="1">
+    <row r="704" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B704" s="24"/>
       <c r="C704" s="25"/>
       <c r="D704" s="26"/>
@@ -7220,7 +7217,7 @@
       <c r="F704" s="28"/>
       <c r="G704" s="29"/>
     </row>
-    <row r="705" spans="2:7" ht="15.75" customHeight="1">
+    <row r="705" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B705" s="24"/>
       <c r="C705" s="25"/>
       <c r="D705" s="26"/>
@@ -7228,7 +7225,7 @@
       <c r="F705" s="28"/>
       <c r="G705" s="29"/>
     </row>
-    <row r="706" spans="2:7" ht="15.75" customHeight="1">
+    <row r="706" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B706" s="24"/>
       <c r="C706" s="25"/>
       <c r="D706" s="26"/>
@@ -7236,7 +7233,7 @@
       <c r="F706" s="28"/>
       <c r="G706" s="29"/>
     </row>
-    <row r="707" spans="2:7" ht="15.75" customHeight="1">
+    <row r="707" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B707" s="24"/>
       <c r="C707" s="25"/>
       <c r="D707" s="26"/>
@@ -7244,7 +7241,7 @@
       <c r="F707" s="28"/>
       <c r="G707" s="29"/>
     </row>
-    <row r="708" spans="2:7" ht="15.75" customHeight="1">
+    <row r="708" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B708" s="24"/>
       <c r="C708" s="25"/>
       <c r="D708" s="26"/>
@@ -7252,7 +7249,7 @@
       <c r="F708" s="28"/>
       <c r="G708" s="29"/>
     </row>
-    <row r="709" spans="2:7" ht="15.75" customHeight="1">
+    <row r="709" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B709" s="24"/>
       <c r="C709" s="25"/>
       <c r="D709" s="26"/>
@@ -7260,7 +7257,7 @@
       <c r="F709" s="28"/>
       <c r="G709" s="29"/>
     </row>
-    <row r="710" spans="2:7" ht="15.75" customHeight="1">
+    <row r="710" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B710" s="24"/>
       <c r="C710" s="25"/>
       <c r="D710" s="26"/>
@@ -7268,7 +7265,7 @@
       <c r="F710" s="28"/>
       <c r="G710" s="29"/>
     </row>
-    <row r="711" spans="2:7" ht="15.75" customHeight="1">
+    <row r="711" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B711" s="24"/>
       <c r="C711" s="25"/>
       <c r="D711" s="26"/>
@@ -7276,7 +7273,7 @@
       <c r="F711" s="28"/>
       <c r="G711" s="29"/>
     </row>
-    <row r="712" spans="2:7" ht="15.75" customHeight="1">
+    <row r="712" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B712" s="24"/>
       <c r="C712" s="25"/>
       <c r="D712" s="26"/>
@@ -7284,7 +7281,7 @@
       <c r="F712" s="28"/>
       <c r="G712" s="29"/>
     </row>
-    <row r="713" spans="2:7" ht="15.75" customHeight="1">
+    <row r="713" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B713" s="24"/>
       <c r="C713" s="25"/>
       <c r="D713" s="26"/>
@@ -7292,7 +7289,7 @@
       <c r="F713" s="28"/>
       <c r="G713" s="29"/>
     </row>
-    <row r="714" spans="2:7" ht="15.75" customHeight="1">
+    <row r="714" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B714" s="24"/>
       <c r="C714" s="25"/>
       <c r="D714" s="26"/>
@@ -7300,7 +7297,7 @@
       <c r="F714" s="28"/>
       <c r="G714" s="29"/>
     </row>
-    <row r="715" spans="2:7" ht="15.75" customHeight="1">
+    <row r="715" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B715" s="24"/>
       <c r="C715" s="25"/>
       <c r="D715" s="26"/>
@@ -7308,7 +7305,7 @@
       <c r="F715" s="28"/>
       <c r="G715" s="29"/>
     </row>
-    <row r="716" spans="2:7" ht="15.75" customHeight="1">
+    <row r="716" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B716" s="24"/>
       <c r="C716" s="25"/>
       <c r="D716" s="26"/>
@@ -7316,7 +7313,7 @@
       <c r="F716" s="28"/>
       <c r="G716" s="29"/>
     </row>
-    <row r="717" spans="2:7" ht="15.75" customHeight="1">
+    <row r="717" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B717" s="24"/>
       <c r="C717" s="25"/>
       <c r="D717" s="26"/>
@@ -7324,7 +7321,7 @@
       <c r="F717" s="28"/>
       <c r="G717" s="29"/>
     </row>
-    <row r="718" spans="2:7" ht="15.75" customHeight="1">
+    <row r="718" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B718" s="24"/>
       <c r="C718" s="25"/>
       <c r="D718" s="26"/>
@@ -7332,7 +7329,7 @@
       <c r="F718" s="28"/>
       <c r="G718" s="29"/>
     </row>
-    <row r="719" spans="2:7" ht="15.75" customHeight="1">
+    <row r="719" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B719" s="24"/>
       <c r="C719" s="25"/>
       <c r="D719" s="26"/>
@@ -7340,7 +7337,7 @@
       <c r="F719" s="28"/>
       <c r="G719" s="29"/>
     </row>
-    <row r="720" spans="2:7" ht="15.75" customHeight="1">
+    <row r="720" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B720" s="24"/>
       <c r="C720" s="25"/>
       <c r="D720" s="26"/>
@@ -7348,7 +7345,7 @@
       <c r="F720" s="28"/>
       <c r="G720" s="29"/>
     </row>
-    <row r="721" spans="2:7" ht="15.75" customHeight="1">
+    <row r="721" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B721" s="24"/>
       <c r="C721" s="25"/>
       <c r="D721" s="26"/>
@@ -7356,7 +7353,7 @@
       <c r="F721" s="28"/>
       <c r="G721" s="29"/>
     </row>
-    <row r="722" spans="2:7" ht="15.75" customHeight="1">
+    <row r="722" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B722" s="24"/>
       <c r="C722" s="25"/>
       <c r="D722" s="26"/>
@@ -7364,7 +7361,7 @@
       <c r="F722" s="28"/>
       <c r="G722" s="29"/>
     </row>
-    <row r="723" spans="2:7" ht="15.75" customHeight="1">
+    <row r="723" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B723" s="24"/>
       <c r="C723" s="25"/>
       <c r="D723" s="26"/>
@@ -7372,7 +7369,7 @@
       <c r="F723" s="28"/>
       <c r="G723" s="29"/>
     </row>
-    <row r="724" spans="2:7" ht="15.75" customHeight="1">
+    <row r="724" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B724" s="24"/>
       <c r="C724" s="25"/>
       <c r="D724" s="26"/>
@@ -7380,7 +7377,7 @@
       <c r="F724" s="28"/>
       <c r="G724" s="29"/>
     </row>
-    <row r="725" spans="2:7" ht="15.75" customHeight="1">
+    <row r="725" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B725" s="24"/>
       <c r="C725" s="25"/>
       <c r="D725" s="26"/>
@@ -7388,7 +7385,7 @@
       <c r="F725" s="28"/>
       <c r="G725" s="29"/>
     </row>
-    <row r="726" spans="2:7" ht="15.75" customHeight="1">
+    <row r="726" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B726" s="24"/>
       <c r="C726" s="25"/>
       <c r="D726" s="26"/>
@@ -7396,7 +7393,7 @@
       <c r="F726" s="28"/>
       <c r="G726" s="29"/>
     </row>
-    <row r="727" spans="2:7" ht="15.75" customHeight="1">
+    <row r="727" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B727" s="24"/>
       <c r="C727" s="25"/>
       <c r="D727" s="26"/>
@@ -7404,7 +7401,7 @@
       <c r="F727" s="28"/>
       <c r="G727" s="29"/>
     </row>
-    <row r="728" spans="2:7" ht="15.75" customHeight="1">
+    <row r="728" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B728" s="24"/>
       <c r="C728" s="25"/>
       <c r="D728" s="26"/>
@@ -7412,7 +7409,7 @@
       <c r="F728" s="28"/>
       <c r="G728" s="29"/>
     </row>
-    <row r="729" spans="2:7" ht="15.75" customHeight="1">
+    <row r="729" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B729" s="24"/>
       <c r="C729" s="25"/>
       <c r="D729" s="26"/>
@@ -7420,7 +7417,7 @@
       <c r="F729" s="28"/>
       <c r="G729" s="29"/>
     </row>
-    <row r="730" spans="2:7" ht="15.75" customHeight="1">
+    <row r="730" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B730" s="24"/>
       <c r="C730" s="25"/>
       <c r="D730" s="26"/>
@@ -7428,7 +7425,7 @@
       <c r="F730" s="28"/>
       <c r="G730" s="29"/>
     </row>
-    <row r="731" spans="2:7" ht="15.75" customHeight="1">
+    <row r="731" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B731" s="24"/>
       <c r="C731" s="25"/>
       <c r="D731" s="26"/>
@@ -7436,7 +7433,7 @@
       <c r="F731" s="28"/>
       <c r="G731" s="29"/>
     </row>
-    <row r="732" spans="2:7" ht="15.75" customHeight="1">
+    <row r="732" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B732" s="24"/>
       <c r="C732" s="25"/>
       <c r="D732" s="26"/>
@@ -7444,7 +7441,7 @@
       <c r="F732" s="28"/>
       <c r="G732" s="29"/>
     </row>
-    <row r="733" spans="2:7" ht="15.75" customHeight="1">
+    <row r="733" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B733" s="24"/>
       <c r="C733" s="25"/>
       <c r="D733" s="26"/>
@@ -7452,7 +7449,7 @@
       <c r="F733" s="28"/>
       <c r="G733" s="29"/>
     </row>
-    <row r="734" spans="2:7" ht="15.75" customHeight="1">
+    <row r="734" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B734" s="24"/>
       <c r="C734" s="25"/>
       <c r="D734" s="26"/>
@@ -7460,7 +7457,7 @@
       <c r="F734" s="28"/>
       <c r="G734" s="29"/>
     </row>
-    <row r="735" spans="2:7" ht="15.75" customHeight="1">
+    <row r="735" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B735" s="24"/>
       <c r="C735" s="25"/>
       <c r="D735" s="26"/>
@@ -7468,7 +7465,7 @@
       <c r="F735" s="28"/>
       <c r="G735" s="29"/>
     </row>
-    <row r="736" spans="2:7" ht="15.75" customHeight="1">
+    <row r="736" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B736" s="24"/>
       <c r="C736" s="25"/>
       <c r="D736" s="26"/>
@@ -7476,7 +7473,7 @@
       <c r="F736" s="28"/>
       <c r="G736" s="29"/>
     </row>
-    <row r="737" spans="2:7" ht="15.75" customHeight="1">
+    <row r="737" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B737" s="24"/>
       <c r="C737" s="25"/>
       <c r="D737" s="26"/>
@@ -7484,7 +7481,7 @@
       <c r="F737" s="28"/>
       <c r="G737" s="29"/>
     </row>
-    <row r="738" spans="2:7" ht="15.75" customHeight="1">
+    <row r="738" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B738" s="24"/>
       <c r="C738" s="25"/>
       <c r="D738" s="26"/>
@@ -7492,7 +7489,7 @@
       <c r="F738" s="28"/>
       <c r="G738" s="29"/>
     </row>
-    <row r="739" spans="2:7" ht="15.75" customHeight="1">
+    <row r="739" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B739" s="24"/>
       <c r="C739" s="25"/>
       <c r="D739" s="26"/>
@@ -7500,7 +7497,7 @@
       <c r="F739" s="28"/>
       <c r="G739" s="29"/>
     </row>
-    <row r="740" spans="2:7" ht="15.75" customHeight="1">
+    <row r="740" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B740" s="24"/>
       <c r="C740" s="25"/>
       <c r="D740" s="26"/>
@@ -7508,7 +7505,7 @@
       <c r="F740" s="28"/>
       <c r="G740" s="29"/>
     </row>
-    <row r="741" spans="2:7" ht="15.75" customHeight="1">
+    <row r="741" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B741" s="24"/>
       <c r="C741" s="25"/>
       <c r="D741" s="26"/>
@@ -7516,7 +7513,7 @@
       <c r="F741" s="28"/>
       <c r="G741" s="29"/>
     </row>
-    <row r="742" spans="2:7" ht="15.75" customHeight="1">
+    <row r="742" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B742" s="24"/>
       <c r="C742" s="25"/>
       <c r="D742" s="26"/>
@@ -7524,7 +7521,7 @@
       <c r="F742" s="28"/>
       <c r="G742" s="29"/>
     </row>
-    <row r="743" spans="2:7" ht="15.75" customHeight="1">
+    <row r="743" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B743" s="24"/>
       <c r="C743" s="25"/>
       <c r="D743" s="26"/>
@@ -7532,7 +7529,7 @@
       <c r="F743" s="28"/>
       <c r="G743" s="29"/>
     </row>
-    <row r="744" spans="2:7" ht="15.75" customHeight="1">
+    <row r="744" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B744" s="24"/>
       <c r="C744" s="25"/>
       <c r="D744" s="26"/>
@@ -7540,7 +7537,7 @@
       <c r="F744" s="28"/>
       <c r="G744" s="29"/>
     </row>
-    <row r="745" spans="2:7" ht="15.75" customHeight="1">
+    <row r="745" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B745" s="24"/>
       <c r="C745" s="25"/>
       <c r="D745" s="26"/>
@@ -7548,7 +7545,7 @@
       <c r="F745" s="28"/>
       <c r="G745" s="29"/>
     </row>
-    <row r="746" spans="2:7" ht="15.75" customHeight="1">
+    <row r="746" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B746" s="24"/>
       <c r="C746" s="25"/>
       <c r="D746" s="26"/>
@@ -7556,7 +7553,7 @@
       <c r="F746" s="28"/>
       <c r="G746" s="29"/>
     </row>
-    <row r="747" spans="2:7" ht="15.75" customHeight="1">
+    <row r="747" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B747" s="24"/>
       <c r="C747" s="25"/>
       <c r="D747" s="26"/>
@@ -7564,7 +7561,7 @@
       <c r="F747" s="28"/>
       <c r="G747" s="29"/>
     </row>
-    <row r="748" spans="2:7" ht="15.75" customHeight="1">
+    <row r="748" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B748" s="24"/>
       <c r="C748" s="25"/>
       <c r="D748" s="26"/>
@@ -7572,7 +7569,7 @@
       <c r="F748" s="28"/>
       <c r="G748" s="29"/>
     </row>
-    <row r="749" spans="2:7" ht="15.75" customHeight="1">
+    <row r="749" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B749" s="24"/>
       <c r="C749" s="25"/>
       <c r="D749" s="26"/>
@@ -7580,7 +7577,7 @@
       <c r="F749" s="28"/>
       <c r="G749" s="29"/>
     </row>
-    <row r="750" spans="2:7" ht="15.75" customHeight="1">
+    <row r="750" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B750" s="24"/>
       <c r="C750" s="25"/>
       <c r="D750" s="26"/>
@@ -7588,7 +7585,7 @@
       <c r="F750" s="28"/>
       <c r="G750" s="29"/>
     </row>
-    <row r="751" spans="2:7" ht="15.75" customHeight="1">
+    <row r="751" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B751" s="24"/>
       <c r="C751" s="25"/>
       <c r="D751" s="26"/>
@@ -7596,7 +7593,7 @@
       <c r="F751" s="28"/>
       <c r="G751" s="29"/>
     </row>
-    <row r="752" spans="2:7" ht="15.75" customHeight="1">
+    <row r="752" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B752" s="24"/>
       <c r="C752" s="25"/>
       <c r="D752" s="26"/>
@@ -7604,7 +7601,7 @@
       <c r="F752" s="28"/>
       <c r="G752" s="29"/>
     </row>
-    <row r="753" spans="2:7" ht="15.75" customHeight="1">
+    <row r="753" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B753" s="24"/>
       <c r="C753" s="25"/>
       <c r="D753" s="26"/>
@@ -7612,7 +7609,7 @@
       <c r="F753" s="28"/>
       <c r="G753" s="29"/>
     </row>
-    <row r="754" spans="2:7" ht="15.75" customHeight="1">
+    <row r="754" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B754" s="24"/>
       <c r="C754" s="25"/>
       <c r="D754" s="26"/>
@@ -7620,7 +7617,7 @@
       <c r="F754" s="28"/>
       <c r="G754" s="29"/>
     </row>
-    <row r="755" spans="2:7" ht="15.75" customHeight="1">
+    <row r="755" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B755" s="24"/>
       <c r="C755" s="25"/>
       <c r="D755" s="26"/>
@@ -7628,7 +7625,7 @@
       <c r="F755" s="28"/>
       <c r="G755" s="29"/>
     </row>
-    <row r="756" spans="2:7" ht="15.75" customHeight="1">
+    <row r="756" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B756" s="24"/>
       <c r="C756" s="25"/>
       <c r="D756" s="26"/>
@@ -7636,7 +7633,7 @@
       <c r="F756" s="28"/>
       <c r="G756" s="29"/>
     </row>
-    <row r="757" spans="2:7" ht="15.75" customHeight="1">
+    <row r="757" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B757" s="24"/>
       <c r="C757" s="25"/>
       <c r="D757" s="26"/>
@@ -7644,7 +7641,7 @@
       <c r="F757" s="28"/>
       <c r="G757" s="29"/>
     </row>
-    <row r="758" spans="2:7" ht="15.75" customHeight="1">
+    <row r="758" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B758" s="24"/>
       <c r="C758" s="25"/>
       <c r="D758" s="26"/>
@@ -7652,7 +7649,7 @@
       <c r="F758" s="28"/>
       <c r="G758" s="29"/>
     </row>
-    <row r="759" spans="2:7" ht="15.75" customHeight="1">
+    <row r="759" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B759" s="24"/>
       <c r="C759" s="25"/>
       <c r="D759" s="26"/>
@@ -7660,7 +7657,7 @@
       <c r="F759" s="28"/>
       <c r="G759" s="29"/>
     </row>
-    <row r="760" spans="2:7" ht="15.75" customHeight="1">
+    <row r="760" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B760" s="24"/>
       <c r="C760" s="25"/>
       <c r="D760" s="26"/>
@@ -7668,7 +7665,7 @@
       <c r="F760" s="28"/>
       <c r="G760" s="29"/>
     </row>
-    <row r="761" spans="2:7" ht="15.75" customHeight="1">
+    <row r="761" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B761" s="24"/>
       <c r="C761" s="25"/>
       <c r="D761" s="26"/>
@@ -7676,7 +7673,7 @@
       <c r="F761" s="28"/>
       <c r="G761" s="29"/>
     </row>
-    <row r="762" spans="2:7" ht="15.75" customHeight="1">
+    <row r="762" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B762" s="24"/>
       <c r="C762" s="25"/>
       <c r="D762" s="26"/>
@@ -7684,7 +7681,7 @@
       <c r="F762" s="28"/>
       <c r="G762" s="29"/>
     </row>
-    <row r="763" spans="2:7" ht="15.75" customHeight="1">
+    <row r="763" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B763" s="24"/>
       <c r="C763" s="25"/>
       <c r="D763" s="26"/>
@@ -7692,7 +7689,7 @@
       <c r="F763" s="28"/>
       <c r="G763" s="29"/>
     </row>
-    <row r="764" spans="2:7" ht="15.75" customHeight="1">
+    <row r="764" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B764" s="24"/>
       <c r="C764" s="25"/>
       <c r="D764" s="26"/>
@@ -7700,7 +7697,7 @@
       <c r="F764" s="28"/>
       <c r="G764" s="29"/>
     </row>
-    <row r="765" spans="2:7" ht="15.75" customHeight="1">
+    <row r="765" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B765" s="24"/>
       <c r="C765" s="25"/>
       <c r="D765" s="26"/>
@@ -7708,7 +7705,7 @@
       <c r="F765" s="28"/>
       <c r="G765" s="29"/>
     </row>
-    <row r="766" spans="2:7" ht="15.75" customHeight="1">
+    <row r="766" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B766" s="24"/>
       <c r="C766" s="25"/>
       <c r="D766" s="26"/>
@@ -7716,7 +7713,7 @@
       <c r="F766" s="28"/>
       <c r="G766" s="29"/>
     </row>
-    <row r="767" spans="2:7" ht="15.75" customHeight="1">
+    <row r="767" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B767" s="24"/>
       <c r="C767" s="25"/>
       <c r="D767" s="26"/>
@@ -7724,7 +7721,7 @@
       <c r="F767" s="28"/>
       <c r="G767" s="29"/>
     </row>
-    <row r="768" spans="2:7" ht="15.75" customHeight="1">
+    <row r="768" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B768" s="24"/>
       <c r="C768" s="25"/>
       <c r="D768" s="26"/>
@@ -7732,7 +7729,7 @@
       <c r="F768" s="28"/>
       <c r="G768" s="29"/>
     </row>
-    <row r="769" spans="2:7" ht="15.75" customHeight="1">
+    <row r="769" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B769" s="24"/>
       <c r="C769" s="25"/>
       <c r="D769" s="26"/>
@@ -7740,7 +7737,7 @@
       <c r="F769" s="28"/>
       <c r="G769" s="29"/>
     </row>
-    <row r="770" spans="2:7" ht="15.75" customHeight="1">
+    <row r="770" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B770" s="24"/>
       <c r="C770" s="25"/>
       <c r="D770" s="26"/>
@@ -7748,7 +7745,7 @@
       <c r="F770" s="28"/>
       <c r="G770" s="29"/>
     </row>
-    <row r="771" spans="2:7" ht="15.75" customHeight="1">
+    <row r="771" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B771" s="24"/>
       <c r="C771" s="25"/>
       <c r="D771" s="26"/>
@@ -7756,7 +7753,7 @@
       <c r="F771" s="28"/>
       <c r="G771" s="29"/>
     </row>
-    <row r="772" spans="2:7" ht="15.75" customHeight="1">
+    <row r="772" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B772" s="24"/>
       <c r="C772" s="25"/>
       <c r="D772" s="26"/>
@@ -7764,7 +7761,7 @@
       <c r="F772" s="28"/>
       <c r="G772" s="29"/>
     </row>
-    <row r="773" spans="2:7" ht="15.75" customHeight="1">
+    <row r="773" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B773" s="24"/>
       <c r="C773" s="25"/>
       <c r="D773" s="26"/>
@@ -7772,7 +7769,7 @@
       <c r="F773" s="28"/>
       <c r="G773" s="29"/>
     </row>
-    <row r="774" spans="2:7" ht="15.75" customHeight="1">
+    <row r="774" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B774" s="24"/>
       <c r="C774" s="25"/>
       <c r="D774" s="26"/>
@@ -7780,7 +7777,7 @@
       <c r="F774" s="28"/>
       <c r="G774" s="29"/>
     </row>
-    <row r="775" spans="2:7" ht="15.75" customHeight="1">
+    <row r="775" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B775" s="24"/>
       <c r="C775" s="25"/>
       <c r="D775" s="26"/>
@@ -7788,7 +7785,7 @@
       <c r="F775" s="28"/>
       <c r="G775" s="29"/>
     </row>
-    <row r="776" spans="2:7" ht="15.75" customHeight="1">
+    <row r="776" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B776" s="24"/>
       <c r="C776" s="25"/>
       <c r="D776" s="26"/>
@@ -7796,7 +7793,7 @@
       <c r="F776" s="28"/>
       <c r="G776" s="29"/>
     </row>
-    <row r="777" spans="2:7" ht="15.75" customHeight="1">
+    <row r="777" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B777" s="24"/>
       <c r="C777" s="25"/>
       <c r="D777" s="26"/>
@@ -7804,7 +7801,7 @@
       <c r="F777" s="28"/>
       <c r="G777" s="29"/>
     </row>
-    <row r="778" spans="2:7" ht="15.75" customHeight="1">
+    <row r="778" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B778" s="24"/>
       <c r="C778" s="25"/>
       <c r="D778" s="26"/>
@@ -7812,7 +7809,7 @@
       <c r="F778" s="28"/>
       <c r="G778" s="29"/>
     </row>
-    <row r="779" spans="2:7" ht="15.75" customHeight="1">
+    <row r="779" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B779" s="24"/>
       <c r="C779" s="25"/>
       <c r="D779" s="26"/>
@@ -7820,7 +7817,7 @@
       <c r="F779" s="28"/>
       <c r="G779" s="29"/>
     </row>
-    <row r="780" spans="2:7" ht="15.75" customHeight="1">
+    <row r="780" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B780" s="24"/>
       <c r="C780" s="25"/>
       <c r="D780" s="26"/>
@@ -7828,7 +7825,7 @@
       <c r="F780" s="28"/>
       <c r="G780" s="29"/>
     </row>
-    <row r="781" spans="2:7" ht="15.75" customHeight="1">
+    <row r="781" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B781" s="24"/>
       <c r="C781" s="25"/>
       <c r="D781" s="26"/>
@@ -7836,7 +7833,7 @@
       <c r="F781" s="28"/>
       <c r="G781" s="29"/>
     </row>
-    <row r="782" spans="2:7" ht="15.75" customHeight="1">
+    <row r="782" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B782" s="24"/>
       <c r="C782" s="25"/>
       <c r="D782" s="26"/>
@@ -7844,7 +7841,7 @@
       <c r="F782" s="28"/>
       <c r="G782" s="29"/>
     </row>
-    <row r="783" spans="2:7" ht="15.75" customHeight="1">
+    <row r="783" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B783" s="24"/>
       <c r="C783" s="25"/>
       <c r="D783" s="26"/>
@@ -7852,7 +7849,7 @@
       <c r="F783" s="28"/>
       <c r="G783" s="29"/>
     </row>
-    <row r="784" spans="2:7" ht="15.75" customHeight="1">
+    <row r="784" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B784" s="24"/>
       <c r="C784" s="25"/>
       <c r="D784" s="26"/>
@@ -7860,7 +7857,7 @@
       <c r="F784" s="28"/>
       <c r="G784" s="29"/>
     </row>
-    <row r="785" spans="2:7" ht="15.75" customHeight="1">
+    <row r="785" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B785" s="24"/>
       <c r="C785" s="25"/>
       <c r="D785" s="26"/>
@@ -7868,7 +7865,7 @@
       <c r="F785" s="28"/>
       <c r="G785" s="29"/>
     </row>
-    <row r="786" spans="2:7" ht="15.75" customHeight="1">
+    <row r="786" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B786" s="24"/>
       <c r="C786" s="25"/>
       <c r="D786" s="26"/>
@@ -7876,7 +7873,7 @@
       <c r="F786" s="28"/>
       <c r="G786" s="29"/>
     </row>
-    <row r="787" spans="2:7" ht="15.75" customHeight="1">
+    <row r="787" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B787" s="24"/>
       <c r="C787" s="25"/>
       <c r="D787" s="26"/>
@@ -7884,7 +7881,7 @@
       <c r="F787" s="28"/>
       <c r="G787" s="29"/>
     </row>
-    <row r="788" spans="2:7" ht="15.75" customHeight="1">
+    <row r="788" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B788" s="24"/>
       <c r="C788" s="25"/>
       <c r="D788" s="26"/>
@@ -7892,7 +7889,7 @@
       <c r="F788" s="28"/>
       <c r="G788" s="29"/>
     </row>
-    <row r="789" spans="2:7" ht="15.75" customHeight="1">
+    <row r="789" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B789" s="24"/>
       <c r="C789" s="25"/>
       <c r="D789" s="26"/>
@@ -7900,7 +7897,7 @@
       <c r="F789" s="28"/>
       <c r="G789" s="29"/>
     </row>
-    <row r="790" spans="2:7" ht="15.75" customHeight="1">
+    <row r="790" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B790" s="24"/>
       <c r="C790" s="25"/>
       <c r="D790" s="26"/>
@@ -7908,7 +7905,7 @@
       <c r="F790" s="28"/>
       <c r="G790" s="29"/>
     </row>
-    <row r="791" spans="2:7" ht="15.75" customHeight="1">
+    <row r="791" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B791" s="24"/>
       <c r="C791" s="25"/>
       <c r="D791" s="26"/>
@@ -7916,7 +7913,7 @@
       <c r="F791" s="28"/>
       <c r="G791" s="29"/>
     </row>
-    <row r="792" spans="2:7" ht="15.75" customHeight="1">
+    <row r="792" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B792" s="24"/>
       <c r="C792" s="25"/>
       <c r="D792" s="26"/>
@@ -7924,7 +7921,7 @@
       <c r="F792" s="28"/>
       <c r="G792" s="29"/>
     </row>
-    <row r="793" spans="2:7" ht="15.75" customHeight="1">
+    <row r="793" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B793" s="24"/>
       <c r="C793" s="25"/>
       <c r="D793" s="26"/>
@@ -7932,7 +7929,7 @@
       <c r="F793" s="28"/>
       <c r="G793" s="29"/>
     </row>
-    <row r="794" spans="2:7" ht="15.75" customHeight="1">
+    <row r="794" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B794" s="24"/>
       <c r="C794" s="25"/>
       <c r="D794" s="26"/>
@@ -7940,7 +7937,7 @@
       <c r="F794" s="28"/>
       <c r="G794" s="29"/>
     </row>
-    <row r="795" spans="2:7" ht="15.75" customHeight="1">
+    <row r="795" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B795" s="24"/>
       <c r="C795" s="25"/>
       <c r="D795" s="26"/>
@@ -7948,7 +7945,7 @@
       <c r="F795" s="28"/>
       <c r="G795" s="29"/>
     </row>
-    <row r="796" spans="2:7" ht="15.75" customHeight="1">
+    <row r="796" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B796" s="24"/>
       <c r="C796" s="25"/>
       <c r="D796" s="26"/>
@@ -7956,7 +7953,7 @@
       <c r="F796" s="28"/>
       <c r="G796" s="29"/>
     </row>
-    <row r="797" spans="2:7" ht="15.75" customHeight="1">
+    <row r="797" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B797" s="24"/>
       <c r="C797" s="25"/>
       <c r="D797" s="26"/>
@@ -7964,7 +7961,7 @@
       <c r="F797" s="28"/>
       <c r="G797" s="29"/>
     </row>
-    <row r="798" spans="2:7" ht="15.75" customHeight="1">
+    <row r="798" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B798" s="24"/>
       <c r="C798" s="25"/>
       <c r="D798" s="26"/>
@@ -7972,7 +7969,7 @@
       <c r="F798" s="28"/>
       <c r="G798" s="29"/>
     </row>
-    <row r="799" spans="2:7" ht="15.75" customHeight="1">
+    <row r="799" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B799" s="24"/>
       <c r="C799" s="25"/>
       <c r="D799" s="26"/>
@@ -7980,7 +7977,7 @@
       <c r="F799" s="28"/>
       <c r="G799" s="29"/>
     </row>
-    <row r="800" spans="2:7" ht="15.75" customHeight="1">
+    <row r="800" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B800" s="24"/>
       <c r="C800" s="25"/>
       <c r="D800" s="26"/>
@@ -7988,7 +7985,7 @@
       <c r="F800" s="28"/>
       <c r="G800" s="29"/>
     </row>
-    <row r="801" spans="2:7" ht="15.75" customHeight="1">
+    <row r="801" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B801" s="24"/>
       <c r="C801" s="25"/>
       <c r="D801" s="26"/>
@@ -7996,7 +7993,7 @@
       <c r="F801" s="28"/>
       <c r="G801" s="29"/>
     </row>
-    <row r="802" spans="2:7" ht="15.75" customHeight="1">
+    <row r="802" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B802" s="24"/>
       <c r="C802" s="25"/>
       <c r="D802" s="26"/>
@@ -8004,7 +8001,7 @@
       <c r="F802" s="28"/>
       <c r="G802" s="29"/>
     </row>
-    <row r="803" spans="2:7" ht="15.75" customHeight="1">
+    <row r="803" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B803" s="24"/>
       <c r="C803" s="25"/>
       <c r="D803" s="26"/>
@@ -8012,7 +8009,7 @@
       <c r="F803" s="28"/>
       <c r="G803" s="29"/>
     </row>
-    <row r="804" spans="2:7" ht="15.75" customHeight="1">
+    <row r="804" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B804" s="24"/>
       <c r="C804" s="25"/>
       <c r="D804" s="26"/>
@@ -8020,7 +8017,7 @@
       <c r="F804" s="28"/>
       <c r="G804" s="29"/>
     </row>
-    <row r="805" spans="2:7" ht="15.75" customHeight="1">
+    <row r="805" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B805" s="24"/>
       <c r="C805" s="25"/>
       <c r="D805" s="26"/>
@@ -8028,7 +8025,7 @@
       <c r="F805" s="28"/>
       <c r="G805" s="29"/>
     </row>
-    <row r="806" spans="2:7" ht="15.75" customHeight="1">
+    <row r="806" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B806" s="24"/>
       <c r="C806" s="25"/>
       <c r="D806" s="26"/>
@@ -8036,7 +8033,7 @@
       <c r="F806" s="28"/>
       <c r="G806" s="29"/>
     </row>
-    <row r="807" spans="2:7" ht="15.75" customHeight="1">
+    <row r="807" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B807" s="24"/>
       <c r="C807" s="25"/>
       <c r="D807" s="26"/>
@@ -8044,7 +8041,7 @@
       <c r="F807" s="28"/>
       <c r="G807" s="29"/>
     </row>
-    <row r="808" spans="2:7" ht="15.75" customHeight="1">
+    <row r="808" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B808" s="24"/>
       <c r="C808" s="25"/>
       <c r="D808" s="26"/>
@@ -8052,7 +8049,7 @@
       <c r="F808" s="28"/>
       <c r="G808" s="29"/>
     </row>
-    <row r="809" spans="2:7" ht="15.75" customHeight="1">
+    <row r="809" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B809" s="24"/>
       <c r="C809" s="25"/>
       <c r="D809" s="26"/>
@@ -8060,7 +8057,7 @@
       <c r="F809" s="28"/>
       <c r="G809" s="29"/>
     </row>
-    <row r="810" spans="2:7" ht="15.75" customHeight="1">
+    <row r="810" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B810" s="24"/>
       <c r="C810" s="25"/>
       <c r="D810" s="26"/>
@@ -8068,7 +8065,7 @@
       <c r="F810" s="28"/>
       <c r="G810" s="29"/>
     </row>
-    <row r="811" spans="2:7" ht="15.75" customHeight="1">
+    <row r="811" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B811" s="24"/>
       <c r="C811" s="25"/>
       <c r="D811" s="26"/>
@@ -8076,7 +8073,7 @@
       <c r="F811" s="28"/>
       <c r="G811" s="29"/>
     </row>
-    <row r="812" spans="2:7" ht="15.75" customHeight="1">
+    <row r="812" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B812" s="24"/>
       <c r="C812" s="25"/>
       <c r="D812" s="26"/>
@@ -8084,7 +8081,7 @@
       <c r="F812" s="28"/>
       <c r="G812" s="29"/>
     </row>
-    <row r="813" spans="2:7" ht="15.75" customHeight="1">
+    <row r="813" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B813" s="24"/>
       <c r="C813" s="25"/>
       <c r="D813" s="26"/>
@@ -8092,7 +8089,7 @@
       <c r="F813" s="28"/>
       <c r="G813" s="29"/>
     </row>
-    <row r="814" spans="2:7" ht="15.75" customHeight="1">
+    <row r="814" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B814" s="24"/>
       <c r="C814" s="25"/>
       <c r="D814" s="26"/>
@@ -8100,7 +8097,7 @@
       <c r="F814" s="28"/>
       <c r="G814" s="29"/>
     </row>
-    <row r="815" spans="2:7" ht="15.75" customHeight="1">
+    <row r="815" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B815" s="24"/>
       <c r="C815" s="25"/>
       <c r="D815" s="26"/>
@@ -8108,7 +8105,7 @@
       <c r="F815" s="28"/>
       <c r="G815" s="29"/>
     </row>
-    <row r="816" spans="2:7" ht="15.75" customHeight="1">
+    <row r="816" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B816" s="24"/>
       <c r="C816" s="25"/>
       <c r="D816" s="26"/>
@@ -8116,7 +8113,7 @@
       <c r="F816" s="28"/>
       <c r="G816" s="29"/>
     </row>
-    <row r="817" spans="2:7" ht="15.75" customHeight="1">
+    <row r="817" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B817" s="24"/>
       <c r="C817" s="25"/>
       <c r="D817" s="26"/>
@@ -8124,7 +8121,7 @@
       <c r="F817" s="28"/>
       <c r="G817" s="29"/>
     </row>
-    <row r="818" spans="2:7" ht="15.75" customHeight="1">
+    <row r="818" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B818" s="24"/>
       <c r="C818" s="25"/>
       <c r="D818" s="26"/>
@@ -8132,7 +8129,7 @@
       <c r="F818" s="28"/>
       <c r="G818" s="29"/>
     </row>
-    <row r="819" spans="2:7" ht="15.75" customHeight="1">
+    <row r="819" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B819" s="24"/>
       <c r="C819" s="25"/>
       <c r="D819" s="26"/>
@@ -8140,7 +8137,7 @@
       <c r="F819" s="28"/>
       <c r="G819" s="29"/>
     </row>
-    <row r="820" spans="2:7" ht="15.75" customHeight="1">
+    <row r="820" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B820" s="24"/>
       <c r="C820" s="25"/>
       <c r="D820" s="26"/>
@@ -8148,7 +8145,7 @@
       <c r="F820" s="28"/>
       <c r="G820" s="29"/>
     </row>
-    <row r="821" spans="2:7" ht="15.75" customHeight="1">
+    <row r="821" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B821" s="24"/>
       <c r="C821" s="25"/>
       <c r="D821" s="26"/>
@@ -8156,7 +8153,7 @@
       <c r="F821" s="28"/>
       <c r="G821" s="29"/>
     </row>
-    <row r="822" spans="2:7" ht="15.75" customHeight="1">
+    <row r="822" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B822" s="24"/>
       <c r="C822" s="25"/>
       <c r="D822" s="26"/>
@@ -8164,7 +8161,7 @@
       <c r="F822" s="28"/>
       <c r="G822" s="29"/>
     </row>
-    <row r="823" spans="2:7" ht="15.75" customHeight="1">
+    <row r="823" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B823" s="24"/>
       <c r="C823" s="25"/>
       <c r="D823" s="26"/>
@@ -8172,7 +8169,7 @@
       <c r="F823" s="28"/>
       <c r="G823" s="29"/>
     </row>
-    <row r="824" spans="2:7" ht="15.75" customHeight="1">
+    <row r="824" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B824" s="24"/>
       <c r="C824" s="25"/>
       <c r="D824" s="26"/>
@@ -8180,7 +8177,7 @@
       <c r="F824" s="28"/>
       <c r="G824" s="29"/>
     </row>
-    <row r="825" spans="2:7" ht="15.75" customHeight="1">
+    <row r="825" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B825" s="24"/>
       <c r="C825" s="25"/>
       <c r="D825" s="26"/>
@@ -8188,7 +8185,7 @@
       <c r="F825" s="28"/>
       <c r="G825" s="29"/>
     </row>
-    <row r="826" spans="2:7" ht="15.75" customHeight="1">
+    <row r="826" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B826" s="24"/>
       <c r="C826" s="25"/>
       <c r="D826" s="26"/>
@@ -8196,7 +8193,7 @@
       <c r="F826" s="28"/>
       <c r="G826" s="29"/>
     </row>
-    <row r="827" spans="2:7" ht="15.75" customHeight="1">
+    <row r="827" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B827" s="24"/>
       <c r="C827" s="25"/>
       <c r="D827" s="26"/>
@@ -8204,7 +8201,7 @@
       <c r="F827" s="28"/>
       <c r="G827" s="29"/>
     </row>
-    <row r="828" spans="2:7" ht="15.75" customHeight="1">
+    <row r="828" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B828" s="24"/>
       <c r="C828" s="25"/>
       <c r="D828" s="26"/>
@@ -8212,7 +8209,7 @@
       <c r="F828" s="28"/>
       <c r="G828" s="29"/>
     </row>
-    <row r="829" spans="2:7" ht="15.75" customHeight="1">
+    <row r="829" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B829" s="24"/>
       <c r="C829" s="25"/>
       <c r="D829" s="26"/>
@@ -8220,7 +8217,7 @@
       <c r="F829" s="28"/>
       <c r="G829" s="29"/>
     </row>
-    <row r="830" spans="2:7" ht="15.75" customHeight="1">
+    <row r="830" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B830" s="24"/>
       <c r="C830" s="25"/>
       <c r="D830" s="26"/>
@@ -8228,7 +8225,7 @@
       <c r="F830" s="28"/>
       <c r="G830" s="29"/>
     </row>
-    <row r="831" spans="2:7" ht="15.75" customHeight="1">
+    <row r="831" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B831" s="24"/>
       <c r="C831" s="25"/>
       <c r="D831" s="26"/>
@@ -8236,7 +8233,7 @@
       <c r="F831" s="28"/>
       <c r="G831" s="29"/>
     </row>
-    <row r="832" spans="2:7" ht="15.75" customHeight="1">
+    <row r="832" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B832" s="24"/>
       <c r="C832" s="25"/>
       <c r="D832" s="26"/>
@@ -8244,7 +8241,7 @@
       <c r="F832" s="28"/>
       <c r="G832" s="29"/>
     </row>
-    <row r="833" spans="2:7" ht="15.75" customHeight="1">
+    <row r="833" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B833" s="24"/>
       <c r="C833" s="25"/>
       <c r="D833" s="26"/>
@@ -8252,7 +8249,7 @@
       <c r="F833" s="28"/>
       <c r="G833" s="29"/>
     </row>
-    <row r="834" spans="2:7" ht="15.75" customHeight="1">
+    <row r="834" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B834" s="24"/>
       <c r="C834" s="25"/>
       <c r="D834" s="26"/>
@@ -8260,7 +8257,7 @@
       <c r="F834" s="28"/>
       <c r="G834" s="29"/>
     </row>
-    <row r="835" spans="2:7" ht="15.75" customHeight="1">
+    <row r="835" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B835" s="24"/>
       <c r="C835" s="25"/>
       <c r="D835" s="26"/>
@@ -8268,7 +8265,7 @@
       <c r="F835" s="28"/>
       <c r="G835" s="29"/>
     </row>
-    <row r="836" spans="2:7" ht="15.75" customHeight="1">
+    <row r="836" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B836" s="24"/>
       <c r="C836" s="25"/>
       <c r="D836" s="26"/>
@@ -8276,7 +8273,7 @@
       <c r="F836" s="28"/>
       <c r="G836" s="29"/>
     </row>
-    <row r="837" spans="2:7" ht="15.75" customHeight="1">
+    <row r="837" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B837" s="24"/>
       <c r="C837" s="25"/>
       <c r="D837" s="26"/>
@@ -8284,7 +8281,7 @@
       <c r="F837" s="28"/>
       <c r="G837" s="29"/>
     </row>
-    <row r="838" spans="2:7" ht="15.75" customHeight="1">
+    <row r="838" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B838" s="24"/>
       <c r="C838" s="25"/>
       <c r="D838" s="26"/>
@@ -8292,7 +8289,7 @@
       <c r="F838" s="28"/>
       <c r="G838" s="29"/>
     </row>
-    <row r="839" spans="2:7" ht="15.75" customHeight="1">
+    <row r="839" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B839" s="24"/>
       <c r="C839" s="25"/>
       <c r="D839" s="26"/>
@@ -8300,7 +8297,7 @@
       <c r="F839" s="28"/>
       <c r="G839" s="29"/>
     </row>
-    <row r="840" spans="2:7" ht="15.75" customHeight="1">
+    <row r="840" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B840" s="24"/>
       <c r="C840" s="25"/>
       <c r="D840" s="26"/>
@@ -8308,7 +8305,7 @@
       <c r="F840" s="28"/>
       <c r="G840" s="29"/>
     </row>
-    <row r="841" spans="2:7" ht="15.75" customHeight="1">
+    <row r="841" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B841" s="24"/>
       <c r="C841" s="25"/>
       <c r="D841" s="26"/>
@@ -8316,7 +8313,7 @@
       <c r="F841" s="28"/>
       <c r="G841" s="29"/>
     </row>
-    <row r="842" spans="2:7" ht="15.75" customHeight="1">
+    <row r="842" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B842" s="24"/>
       <c r="C842" s="25"/>
       <c r="D842" s="26"/>
@@ -8324,7 +8321,7 @@
       <c r="F842" s="28"/>
       <c r="G842" s="29"/>
     </row>
-    <row r="843" spans="2:7" ht="15.75" customHeight="1">
+    <row r="843" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B843" s="24"/>
       <c r="C843" s="25"/>
       <c r="D843" s="26"/>
@@ -8332,7 +8329,7 @@
       <c r="F843" s="28"/>
       <c r="G843" s="29"/>
     </row>
-    <row r="844" spans="2:7" ht="15.75" customHeight="1">
+    <row r="844" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B844" s="24"/>
       <c r="C844" s="25"/>
       <c r="D844" s="26"/>
@@ -8340,7 +8337,7 @@
       <c r="F844" s="28"/>
       <c r="G844" s="29"/>
     </row>
-    <row r="845" spans="2:7" ht="15.75" customHeight="1">
+    <row r="845" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B845" s="24"/>
       <c r="C845" s="25"/>
       <c r="D845" s="26"/>
@@ -8348,7 +8345,7 @@
       <c r="F845" s="28"/>
       <c r="G845" s="29"/>
     </row>
-    <row r="846" spans="2:7" ht="15.75" customHeight="1">
+    <row r="846" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B846" s="24"/>
       <c r="C846" s="25"/>
       <c r="D846" s="26"/>
@@ -8356,7 +8353,7 @@
       <c r="F846" s="28"/>
       <c r="G846" s="29"/>
     </row>
-    <row r="847" spans="2:7" ht="15.75" customHeight="1">
+    <row r="847" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B847" s="24"/>
       <c r="C847" s="25"/>
       <c r="D847" s="26"/>
@@ -8364,7 +8361,7 @@
       <c r="F847" s="28"/>
       <c r="G847" s="29"/>
     </row>
-    <row r="848" spans="2:7" ht="15.75" customHeight="1">
+    <row r="848" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B848" s="24"/>
       <c r="C848" s="25"/>
       <c r="D848" s="26"/>
@@ -8372,7 +8369,7 @@
       <c r="F848" s="28"/>
       <c r="G848" s="29"/>
     </row>
-    <row r="849" spans="2:7" ht="15.75" customHeight="1">
+    <row r="849" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B849" s="24"/>
       <c r="C849" s="25"/>
       <c r="D849" s="26"/>
@@ -8380,7 +8377,7 @@
       <c r="F849" s="28"/>
       <c r="G849" s="29"/>
     </row>
-    <row r="850" spans="2:7" ht="15.75" customHeight="1">
+    <row r="850" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B850" s="24"/>
       <c r="C850" s="25"/>
       <c r="D850" s="26"/>
@@ -8388,7 +8385,7 @@
       <c r="F850" s="28"/>
       <c r="G850" s="29"/>
     </row>
-    <row r="851" spans="2:7" ht="15.75" customHeight="1">
+    <row r="851" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B851" s="24"/>
       <c r="C851" s="25"/>
       <c r="D851" s="26"/>
@@ -8396,7 +8393,7 @@
       <c r="F851" s="28"/>
       <c r="G851" s="29"/>
     </row>
-    <row r="852" spans="2:7" ht="15.75" customHeight="1">
+    <row r="852" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B852" s="24"/>
       <c r="C852" s="25"/>
       <c r="D852" s="26"/>
@@ -8404,7 +8401,7 @@
       <c r="F852" s="28"/>
       <c r="G852" s="29"/>
     </row>
-    <row r="853" spans="2:7" ht="15.75" customHeight="1">
+    <row r="853" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B853" s="24"/>
       <c r="C853" s="25"/>
       <c r="D853" s="26"/>
@@ -8412,7 +8409,7 @@
       <c r="F853" s="28"/>
       <c r="G853" s="29"/>
     </row>
-    <row r="854" spans="2:7" ht="15.75" customHeight="1">
+    <row r="854" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B854" s="24"/>
       <c r="C854" s="25"/>
       <c r="D854" s="26"/>
@@ -8420,7 +8417,7 @@
       <c r="F854" s="28"/>
       <c r="G854" s="29"/>
     </row>
-    <row r="855" spans="2:7" ht="15.75" customHeight="1">
+    <row r="855" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B855" s="24"/>
       <c r="C855" s="25"/>
       <c r="D855" s="26"/>
@@ -8428,7 +8425,7 @@
       <c r="F855" s="28"/>
       <c r="G855" s="29"/>
     </row>
-    <row r="856" spans="2:7" ht="15.75" customHeight="1">
+    <row r="856" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B856" s="24"/>
       <c r="C856" s="25"/>
       <c r="D856" s="26"/>
@@ -8436,7 +8433,7 @@
       <c r="F856" s="28"/>
       <c r="G856" s="29"/>
     </row>
-    <row r="857" spans="2:7" ht="15.75" customHeight="1">
+    <row r="857" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B857" s="24"/>
       <c r="C857" s="25"/>
       <c r="D857" s="26"/>
@@ -8444,7 +8441,7 @@
       <c r="F857" s="28"/>
       <c r="G857" s="29"/>
     </row>
-    <row r="858" spans="2:7" ht="15.75" customHeight="1">
+    <row r="858" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B858" s="24"/>
       <c r="C858" s="25"/>
       <c r="D858" s="26"/>
@@ -8452,7 +8449,7 @@
       <c r="F858" s="28"/>
       <c r="G858" s="29"/>
     </row>
-    <row r="859" spans="2:7" ht="15.75" customHeight="1">
+    <row r="859" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B859" s="24"/>
       <c r="C859" s="25"/>
       <c r="D859" s="26"/>
@@ -8460,7 +8457,7 @@
       <c r="F859" s="28"/>
       <c r="G859" s="29"/>
     </row>
-    <row r="860" spans="2:7" ht="15.75" customHeight="1">
+    <row r="860" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B860" s="24"/>
       <c r="C860" s="25"/>
       <c r="D860" s="26"/>
@@ -8468,7 +8465,7 @@
       <c r="F860" s="28"/>
       <c r="G860" s="29"/>
     </row>
-    <row r="861" spans="2:7" ht="15.75" customHeight="1">
+    <row r="861" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B861" s="24"/>
       <c r="C861" s="25"/>
       <c r="D861" s="26"/>
@@ -8476,7 +8473,7 @@
       <c r="F861" s="28"/>
       <c r="G861" s="29"/>
     </row>
-    <row r="862" spans="2:7" ht="15.75" customHeight="1">
+    <row r="862" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B862" s="24"/>
       <c r="C862" s="25"/>
       <c r="D862" s="26"/>
@@ -8484,7 +8481,7 @@
       <c r="F862" s="28"/>
       <c r="G862" s="29"/>
     </row>
-    <row r="863" spans="2:7" ht="15.75" customHeight="1">
+    <row r="863" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B863" s="24"/>
       <c r="C863" s="25"/>
       <c r="D863" s="26"/>
@@ -8492,7 +8489,7 @@
       <c r="F863" s="28"/>
       <c r="G863" s="29"/>
     </row>
-    <row r="864" spans="2:7" ht="15.75" customHeight="1">
+    <row r="864" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B864" s="24"/>
       <c r="C864" s="25"/>
       <c r="D864" s="26"/>
@@ -8500,7 +8497,7 @@
       <c r="F864" s="28"/>
       <c r="G864" s="29"/>
     </row>
-    <row r="865" spans="2:7" ht="15.75" customHeight="1">
+    <row r="865" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B865" s="24"/>
       <c r="C865" s="25"/>
       <c r="D865" s="26"/>
@@ -8508,7 +8505,7 @@
       <c r="F865" s="28"/>
       <c r="G865" s="29"/>
     </row>
-    <row r="866" spans="2:7" ht="15.75" customHeight="1">
+    <row r="866" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B866" s="24"/>
       <c r="C866" s="25"/>
       <c r="D866" s="26"/>
@@ -8516,7 +8513,7 @@
       <c r="F866" s="28"/>
       <c r="G866" s="29"/>
     </row>
-    <row r="867" spans="2:7" ht="15.75" customHeight="1">
+    <row r="867" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B867" s="24"/>
       <c r="C867" s="25"/>
       <c r="D867" s="26"/>
@@ -8524,7 +8521,7 @@
       <c r="F867" s="28"/>
       <c r="G867" s="29"/>
     </row>
-    <row r="868" spans="2:7" ht="15.75" customHeight="1">
+    <row r="868" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B868" s="24"/>
       <c r="C868" s="25"/>
       <c r="D868" s="26"/>
@@ -8532,7 +8529,7 @@
       <c r="F868" s="28"/>
       <c r="G868" s="29"/>
     </row>
-    <row r="869" spans="2:7" ht="15.75" customHeight="1">
+    <row r="869" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B869" s="24"/>
       <c r="C869" s="25"/>
       <c r="D869" s="26"/>
@@ -8540,7 +8537,7 @@
       <c r="F869" s="28"/>
       <c r="G869" s="29"/>
     </row>
-    <row r="870" spans="2:7" ht="15.75" customHeight="1">
+    <row r="870" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B870" s="24"/>
       <c r="C870" s="25"/>
       <c r="D870" s="26"/>
@@ -8548,7 +8545,7 @@
       <c r="F870" s="28"/>
       <c r="G870" s="29"/>
     </row>
-    <row r="871" spans="2:7" ht="15.75" customHeight="1">
+    <row r="871" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B871" s="24"/>
       <c r="C871" s="25"/>
       <c r="D871" s="26"/>
@@ -8556,7 +8553,7 @@
       <c r="F871" s="28"/>
       <c r="G871" s="29"/>
     </row>
-    <row r="872" spans="2:7" ht="15.75" customHeight="1">
+    <row r="872" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B872" s="24"/>
       <c r="C872" s="25"/>
       <c r="D872" s="26"/>
@@ -8564,7 +8561,7 @@
       <c r="F872" s="28"/>
       <c r="G872" s="29"/>
     </row>
-    <row r="873" spans="2:7" ht="15.75" customHeight="1">
+    <row r="873" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B873" s="24"/>
       <c r="C873" s="25"/>
       <c r="D873" s="26"/>
@@ -8572,7 +8569,7 @@
       <c r="F873" s="28"/>
       <c r="G873" s="29"/>
     </row>
-    <row r="874" spans="2:7" ht="15.75" customHeight="1">
+    <row r="874" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B874" s="24"/>
       <c r="C874" s="25"/>
       <c r="D874" s="26"/>
@@ -8580,7 +8577,7 @@
       <c r="F874" s="28"/>
       <c r="G874" s="29"/>
     </row>
-    <row r="875" spans="2:7" ht="15.75" customHeight="1">
+    <row r="875" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B875" s="24"/>
       <c r="C875" s="25"/>
       <c r="D875" s="26"/>
@@ -8588,7 +8585,7 @@
       <c r="F875" s="28"/>
       <c r="G875" s="29"/>
     </row>
-    <row r="876" spans="2:7" ht="15.75" customHeight="1">
+    <row r="876" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B876" s="24"/>
       <c r="C876" s="25"/>
       <c r="D876" s="26"/>
@@ -8596,7 +8593,7 @@
       <c r="F876" s="28"/>
       <c r="G876" s="29"/>
     </row>
-    <row r="877" spans="2:7" ht="15.75" customHeight="1">
+    <row r="877" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B877" s="24"/>
       <c r="C877" s="25"/>
       <c r="D877" s="26"/>
@@ -8604,7 +8601,7 @@
       <c r="F877" s="28"/>
       <c r="G877" s="29"/>
     </row>
-    <row r="878" spans="2:7" ht="15.75" customHeight="1">
+    <row r="878" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B878" s="24"/>
       <c r="C878" s="25"/>
       <c r="D878" s="26"/>
@@ -8612,7 +8609,7 @@
       <c r="F878" s="28"/>
       <c r="G878" s="29"/>
     </row>
-    <row r="879" spans="2:7" ht="15.75" customHeight="1">
+    <row r="879" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B879" s="24"/>
       <c r="C879" s="25"/>
       <c r="D879" s="26"/>
@@ -8620,7 +8617,7 @@
       <c r="F879" s="28"/>
       <c r="G879" s="29"/>
     </row>
-    <row r="880" spans="2:7" ht="15.75" customHeight="1">
+    <row r="880" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B880" s="24"/>
       <c r="C880" s="25"/>
       <c r="D880" s="26"/>
@@ -8628,7 +8625,7 @@
       <c r="F880" s="28"/>
       <c r="G880" s="29"/>
     </row>
-    <row r="881" spans="2:7" ht="15.75" customHeight="1">
+    <row r="881" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B881" s="24"/>
       <c r="C881" s="25"/>
       <c r="D881" s="26"/>
@@ -8636,7 +8633,7 @@
       <c r="F881" s="28"/>
       <c r="G881" s="29"/>
     </row>
-    <row r="882" spans="2:7" ht="15.75" customHeight="1">
+    <row r="882" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B882" s="24"/>
       <c r="C882" s="25"/>
       <c r="D882" s="26"/>
@@ -8644,7 +8641,7 @@
       <c r="F882" s="28"/>
       <c r="G882" s="29"/>
     </row>
-    <row r="883" spans="2:7" ht="15.75" customHeight="1">
+    <row r="883" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B883" s="24"/>
       <c r="C883" s="25"/>
       <c r="D883" s="26"/>
@@ -8652,7 +8649,7 @@
       <c r="F883" s="28"/>
       <c r="G883" s="29"/>
     </row>
-    <row r="884" spans="2:7" ht="15.75" customHeight="1">
+    <row r="884" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B884" s="24"/>
       <c r="C884" s="25"/>
       <c r="D884" s="26"/>
@@ -8660,7 +8657,7 @@
       <c r="F884" s="28"/>
       <c r="G884" s="29"/>
     </row>
-    <row r="885" spans="2:7" ht="15.75" customHeight="1">
+    <row r="885" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B885" s="24"/>
       <c r="C885" s="25"/>
       <c r="D885" s="26"/>
@@ -8668,7 +8665,7 @@
       <c r="F885" s="28"/>
       <c r="G885" s="29"/>
     </row>
-    <row r="886" spans="2:7" ht="15.75" customHeight="1">
+    <row r="886" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B886" s="24"/>
       <c r="C886" s="25"/>
       <c r="D886" s="26"/>
@@ -8676,7 +8673,7 @@
       <c r="F886" s="28"/>
       <c r="G886" s="29"/>
     </row>
-    <row r="887" spans="2:7" ht="15.75" customHeight="1">
+    <row r="887" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B887" s="24"/>
       <c r="C887" s="25"/>
       <c r="D887" s="26"/>
@@ -8684,7 +8681,7 @@
       <c r="F887" s="28"/>
       <c r="G887" s="29"/>
     </row>
-    <row r="888" spans="2:7" ht="15.75" customHeight="1">
+    <row r="888" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B888" s="24"/>
       <c r="C888" s="25"/>
       <c r="D888" s="26"/>
@@ -8692,7 +8689,7 @@
       <c r="F888" s="28"/>
       <c r="G888" s="29"/>
     </row>
-    <row r="889" spans="2:7" ht="15.75" customHeight="1">
+    <row r="889" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B889" s="24"/>
       <c r="C889" s="25"/>
       <c r="D889" s="26"/>
@@ -8700,7 +8697,7 @@
       <c r="F889" s="28"/>
       <c r="G889" s="29"/>
     </row>
-    <row r="890" spans="2:7" ht="15.75" customHeight="1">
+    <row r="890" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B890" s="24"/>
       <c r="C890" s="25"/>
       <c r="D890" s="26"/>
@@ -8708,7 +8705,7 @@
       <c r="F890" s="28"/>
       <c r="G890" s="29"/>
     </row>
-    <row r="891" spans="2:7" ht="15.75" customHeight="1">
+    <row r="891" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B891" s="24"/>
       <c r="C891" s="25"/>
       <c r="D891" s="26"/>
@@ -8716,7 +8713,7 @@
       <c r="F891" s="28"/>
       <c r="G891" s="29"/>
     </row>
-    <row r="892" spans="2:7" ht="15.75" customHeight="1">
+    <row r="892" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B892" s="24"/>
       <c r="C892" s="25"/>
       <c r="D892" s="26"/>
@@ -8724,7 +8721,7 @@
       <c r="F892" s="28"/>
       <c r="G892" s="29"/>
     </row>
-    <row r="893" spans="2:7" ht="15.75" customHeight="1">
+    <row r="893" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B893" s="24"/>
       <c r="C893" s="25"/>
       <c r="D893" s="26"/>
@@ -8732,7 +8729,7 @@
       <c r="F893" s="28"/>
       <c r="G893" s="29"/>
     </row>
-    <row r="894" spans="2:7" ht="15.75" customHeight="1">
+    <row r="894" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B894" s="24"/>
       <c r="C894" s="25"/>
       <c r="D894" s="26"/>
@@ -8740,7 +8737,7 @@
       <c r="F894" s="28"/>
       <c r="G894" s="29"/>
     </row>
-    <row r="895" spans="2:7" ht="15.75" customHeight="1">
+    <row r="895" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B895" s="24"/>
       <c r="C895" s="25"/>
       <c r="D895" s="26"/>
@@ -8748,7 +8745,7 @@
       <c r="F895" s="28"/>
       <c r="G895" s="29"/>
     </row>
-    <row r="896" spans="2:7" ht="15.75" customHeight="1">
+    <row r="896" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B896" s="24"/>
       <c r="C896" s="25"/>
       <c r="D896" s="26"/>
@@ -8756,7 +8753,7 @@
       <c r="F896" s="28"/>
       <c r="G896" s="29"/>
     </row>
-    <row r="897" spans="2:7" ht="15.75" customHeight="1">
+    <row r="897" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B897" s="24"/>
       <c r="C897" s="25"/>
       <c r="D897" s="26"/>
@@ -8764,7 +8761,7 @@
       <c r="F897" s="28"/>
       <c r="G897" s="29"/>
     </row>
-    <row r="898" spans="2:7" ht="15.75" customHeight="1">
+    <row r="898" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B898" s="24"/>
       <c r="C898" s="25"/>
       <c r="D898" s="26"/>
@@ -8772,7 +8769,7 @@
       <c r="F898" s="28"/>
       <c r="G898" s="29"/>
     </row>
-    <row r="899" spans="2:7" ht="15.75" customHeight="1">
+    <row r="899" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B899" s="24"/>
       <c r="C899" s="25"/>
       <c r="D899" s="26"/>
@@ -8780,7 +8777,7 @@
       <c r="F899" s="28"/>
       <c r="G899" s="29"/>
     </row>
-    <row r="900" spans="2:7" ht="15.75" customHeight="1">
+    <row r="900" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B900" s="24"/>
       <c r="C900" s="25"/>
       <c r="D900" s="26"/>
@@ -8788,7 +8785,7 @@
       <c r="F900" s="28"/>
       <c r="G900" s="29"/>
     </row>
-    <row r="901" spans="2:7" ht="15.75" customHeight="1">
+    <row r="901" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B901" s="24"/>
       <c r="C901" s="25"/>
       <c r="D901" s="26"/>
@@ -8796,7 +8793,7 @@
       <c r="F901" s="28"/>
       <c r="G901" s="29"/>
     </row>
-    <row r="902" spans="2:7" ht="15.75" customHeight="1">
+    <row r="902" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B902" s="24"/>
       <c r="C902" s="25"/>
       <c r="D902" s="26"/>
@@ -8804,7 +8801,7 @@
       <c r="F902" s="28"/>
       <c r="G902" s="29"/>
     </row>
-    <row r="903" spans="2:7" ht="15.75" customHeight="1">
+    <row r="903" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B903" s="24"/>
       <c r="C903" s="25"/>
       <c r="D903" s="26"/>
@@ -8812,7 +8809,7 @@
       <c r="F903" s="28"/>
       <c r="G903" s="29"/>
     </row>
-    <row r="904" spans="2:7" ht="15.75" customHeight="1">
+    <row r="904" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B904" s="24"/>
       <c r="C904" s="25"/>
       <c r="D904" s="26"/>
@@ -8820,7 +8817,7 @@
       <c r="F904" s="28"/>
       <c r="G904" s="29"/>
     </row>
-    <row r="905" spans="2:7" ht="15.75" customHeight="1">
+    <row r="905" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B905" s="24"/>
       <c r="C905" s="25"/>
       <c r="D905" s="26"/>
@@ -8828,7 +8825,7 @@
       <c r="F905" s="28"/>
       <c r="G905" s="29"/>
     </row>
-    <row r="906" spans="2:7" ht="15.75" customHeight="1">
+    <row r="906" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B906" s="24"/>
       <c r="C906" s="25"/>
       <c r="D906" s="26"/>
@@ -8836,7 +8833,7 @@
       <c r="F906" s="28"/>
       <c r="G906" s="29"/>
     </row>
-    <row r="907" spans="2:7" ht="15.75" customHeight="1">
+    <row r="907" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B907" s="24"/>
       <c r="C907" s="25"/>
       <c r="D907" s="26"/>
@@ -8844,7 +8841,7 @@
       <c r="F907" s="28"/>
       <c r="G907" s="29"/>
     </row>
-    <row r="908" spans="2:7" ht="15.75" customHeight="1">
+    <row r="908" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B908" s="24"/>
       <c r="C908" s="25"/>
       <c r="D908" s="26"/>
@@ -8852,7 +8849,7 @@
       <c r="F908" s="28"/>
       <c r="G908" s="29"/>
     </row>
-    <row r="909" spans="2:7" ht="15.75" customHeight="1">
+    <row r="909" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B909" s="24"/>
       <c r="C909" s="25"/>
       <c r="D909" s="26"/>
@@ -8860,7 +8857,7 @@
       <c r="F909" s="28"/>
       <c r="G909" s="29"/>
     </row>
-    <row r="910" spans="2:7" ht="15.75" customHeight="1">
+    <row r="910" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B910" s="24"/>
       <c r="C910" s="25"/>
       <c r="D910" s="26"/>
@@ -8868,7 +8865,7 @@
       <c r="F910" s="28"/>
       <c r="G910" s="29"/>
     </row>
-    <row r="911" spans="2:7" ht="15.75" customHeight="1">
+    <row r="911" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B911" s="24"/>
       <c r="C911" s="25"/>
       <c r="D911" s="26"/>
@@ -8876,7 +8873,7 @@
       <c r="F911" s="28"/>
       <c r="G911" s="29"/>
     </row>
-    <row r="912" spans="2:7" ht="15.75" customHeight="1">
+    <row r="912" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B912" s="24"/>
       <c r="C912" s="25"/>
       <c r="D912" s="26"/>
@@ -8884,7 +8881,7 @@
       <c r="F912" s="28"/>
       <c r="G912" s="29"/>
     </row>
-    <row r="913" spans="2:7" ht="15.75" customHeight="1">
+    <row r="913" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B913" s="24"/>
       <c r="C913" s="25"/>
       <c r="D913" s="26"/>
@@ -8892,7 +8889,7 @@
       <c r="F913" s="28"/>
       <c r="G913" s="29"/>
     </row>
-    <row r="914" spans="2:7" ht="15.75" customHeight="1">
+    <row r="914" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B914" s="24"/>
       <c r="C914" s="25"/>
       <c r="D914" s="26"/>
@@ -8900,7 +8897,7 @@
       <c r="F914" s="28"/>
       <c r="G914" s="29"/>
     </row>
-    <row r="915" spans="2:7" ht="15.75" customHeight="1">
+    <row r="915" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B915" s="24"/>
       <c r="C915" s="25"/>
       <c r="D915" s="26"/>
@@ -8908,7 +8905,7 @@
       <c r="F915" s="28"/>
       <c r="G915" s="29"/>
     </row>
-    <row r="916" spans="2:7" ht="15.75" customHeight="1">
+    <row r="916" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B916" s="24"/>
       <c r="C916" s="25"/>
       <c r="D916" s="26"/>
@@ -8916,7 +8913,7 @@
       <c r="F916" s="28"/>
       <c r="G916" s="29"/>
     </row>
-    <row r="917" spans="2:7" ht="15.75" customHeight="1">
+    <row r="917" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B917" s="24"/>
       <c r="C917" s="25"/>
       <c r="D917" s="26"/>
@@ -8924,7 +8921,7 @@
       <c r="F917" s="28"/>
       <c r="G917" s="29"/>
     </row>
-    <row r="918" spans="2:7" ht="15.75" customHeight="1">
+    <row r="918" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B918" s="24"/>
       <c r="C918" s="25"/>
       <c r="D918" s="26"/>
@@ -8932,7 +8929,7 @@
       <c r="F918" s="28"/>
       <c r="G918" s="29"/>
     </row>
-    <row r="919" spans="2:7" ht="15.75" customHeight="1">
+    <row r="919" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B919" s="24"/>
       <c r="C919" s="25"/>
       <c r="D919" s="26"/>
@@ -8940,7 +8937,7 @@
       <c r="F919" s="28"/>
       <c r="G919" s="29"/>
     </row>
-    <row r="920" spans="2:7" ht="15.75" customHeight="1">
+    <row r="920" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B920" s="24"/>
       <c r="C920" s="25"/>
       <c r="D920" s="26"/>
@@ -8948,7 +8945,7 @@
       <c r="F920" s="28"/>
       <c r="G920" s="29"/>
     </row>
-    <row r="921" spans="2:7" ht="15.75" customHeight="1">
+    <row r="921" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B921" s="24"/>
       <c r="C921" s="25"/>
       <c r="D921" s="26"/>
@@ -8956,7 +8953,7 @@
       <c r="F921" s="28"/>
       <c r="G921" s="29"/>
     </row>
-    <row r="922" spans="2:7" ht="15.75" customHeight="1">
+    <row r="922" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B922" s="24"/>
       <c r="C922" s="25"/>
       <c r="D922" s="26"/>
@@ -8964,7 +8961,7 @@
       <c r="F922" s="28"/>
       <c r="G922" s="29"/>
     </row>
-    <row r="923" spans="2:7" ht="15.75" customHeight="1">
+    <row r="923" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B923" s="24"/>
       <c r="C923" s="25"/>
       <c r="D923" s="26"/>
@@ -8972,7 +8969,7 @@
       <c r="F923" s="28"/>
       <c r="G923" s="29"/>
     </row>
-    <row r="924" spans="2:7" ht="15.75" customHeight="1">
+    <row r="924" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B924" s="24"/>
       <c r="C924" s="25"/>
       <c r="D924" s="26"/>
@@ -8980,7 +8977,7 @@
       <c r="F924" s="28"/>
       <c r="G924" s="29"/>
     </row>
-    <row r="925" spans="2:7" ht="15.75" customHeight="1">
+    <row r="925" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B925" s="24"/>
       <c r="C925" s="25"/>
       <c r="D925" s="26"/>
@@ -8988,7 +8985,7 @@
       <c r="F925" s="28"/>
       <c r="G925" s="29"/>
     </row>
-    <row r="926" spans="2:7" ht="15.75" customHeight="1">
+    <row r="926" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B926" s="24"/>
       <c r="C926" s="25"/>
       <c r="D926" s="26"/>
@@ -8996,7 +8993,7 @@
       <c r="F926" s="28"/>
       <c r="G926" s="29"/>
     </row>
-    <row r="927" spans="2:7" ht="15.75" customHeight="1">
+    <row r="927" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B927" s="24"/>
       <c r="C927" s="25"/>
       <c r="D927" s="26"/>
@@ -9004,7 +9001,7 @@
       <c r="F927" s="28"/>
       <c r="G927" s="29"/>
     </row>
-    <row r="928" spans="2:7" ht="15.75" customHeight="1">
+    <row r="928" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B928" s="24"/>
       <c r="C928" s="25"/>
       <c r="D928" s="26"/>
@@ -9012,7 +9009,7 @@
       <c r="F928" s="28"/>
       <c r="G928" s="29"/>
     </row>
-    <row r="929" spans="2:7" ht="15.75" customHeight="1">
+    <row r="929" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B929" s="24"/>
       <c r="C929" s="25"/>
       <c r="D929" s="26"/>
@@ -9020,7 +9017,7 @@
       <c r="F929" s="28"/>
       <c r="G929" s="29"/>
     </row>
-    <row r="930" spans="2:7" ht="15.75" customHeight="1">
+    <row r="930" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B930" s="24"/>
       <c r="C930" s="25"/>
       <c r="D930" s="26"/>
@@ -9028,7 +9025,7 @@
       <c r="F930" s="28"/>
       <c r="G930" s="29"/>
     </row>
-    <row r="931" spans="2:7" ht="15.75" customHeight="1">
+    <row r="931" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B931" s="24"/>
       <c r="C931" s="25"/>
       <c r="D931" s="26"/>
@@ -9036,7 +9033,7 @@
       <c r="F931" s="28"/>
       <c r="G931" s="29"/>
     </row>
-    <row r="932" spans="2:7" ht="15.75" customHeight="1">
+    <row r="932" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B932" s="24"/>
       <c r="C932" s="25"/>
       <c r="D932" s="26"/>
@@ -9044,7 +9041,7 @@
       <c r="F932" s="28"/>
       <c r="G932" s="29"/>
     </row>
-    <row r="933" spans="2:7" ht="15.75" customHeight="1">
+    <row r="933" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B933" s="24"/>
       <c r="C933" s="25"/>
       <c r="D933" s="26"/>
@@ -9052,7 +9049,7 @@
       <c r="F933" s="28"/>
       <c r="G933" s="29"/>
     </row>
-    <row r="934" spans="2:7" ht="15.75" customHeight="1">
+    <row r="934" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B934" s="24"/>
       <c r="C934" s="25"/>
       <c r="D934" s="26"/>
@@ -9060,7 +9057,7 @@
       <c r="F934" s="28"/>
       <c r="G934" s="29"/>
     </row>
-    <row r="935" spans="2:7" ht="15.75" customHeight="1">
+    <row r="935" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B935" s="24"/>
       <c r="C935" s="25"/>
       <c r="D935" s="26"/>
@@ -9068,7 +9065,7 @@
       <c r="F935" s="28"/>
       <c r="G935" s="29"/>
     </row>
-    <row r="936" spans="2:7" ht="15.75" customHeight="1">
+    <row r="936" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B936" s="24"/>
       <c r="C936" s="25"/>
       <c r="D936" s="26"/>
@@ -9076,7 +9073,7 @@
       <c r="F936" s="28"/>
       <c r="G936" s="29"/>
     </row>
-    <row r="937" spans="2:7" ht="15.75" customHeight="1">
+    <row r="937" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B937" s="24"/>
       <c r="C937" s="25"/>
       <c r="D937" s="26"/>
@@ -9084,7 +9081,7 @@
       <c r="F937" s="28"/>
       <c r="G937" s="29"/>
     </row>
-    <row r="938" spans="2:7" ht="15.75" customHeight="1">
+    <row r="938" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B938" s="24"/>
       <c r="C938" s="25"/>
       <c r="D938" s="26"/>
@@ -9092,7 +9089,7 @@
       <c r="F938" s="28"/>
       <c r="G938" s="29"/>
     </row>
-    <row r="939" spans="2:7" ht="15.75" customHeight="1">
+    <row r="939" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B939" s="24"/>
       <c r="C939" s="25"/>
       <c r="D939" s="26"/>
@@ -9100,7 +9097,7 @@
       <c r="F939" s="28"/>
       <c r="G939" s="29"/>
     </row>
-    <row r="940" spans="2:7" ht="15.75" customHeight="1">
+    <row r="940" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B940" s="24"/>
       <c r="C940" s="25"/>
       <c r="D940" s="26"/>
@@ -9108,7 +9105,7 @@
       <c r="F940" s="28"/>
       <c r="G940" s="29"/>
     </row>
-    <row r="941" spans="2:7" ht="15.75" customHeight="1">
+    <row r="941" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B941" s="24"/>
       <c r="C941" s="25"/>
       <c r="D941" s="26"/>
@@ -9116,7 +9113,7 @@
       <c r="F941" s="28"/>
       <c r="G941" s="29"/>
     </row>
-    <row r="942" spans="2:7" ht="15.75" customHeight="1">
+    <row r="942" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B942" s="24"/>
       <c r="C942" s="25"/>
       <c r="D942" s="26"/>
@@ -9124,7 +9121,7 @@
       <c r="F942" s="28"/>
       <c r="G942" s="29"/>
     </row>
-    <row r="943" spans="2:7" ht="15.75" customHeight="1">
+    <row r="943" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B943" s="24"/>
       <c r="C943" s="25"/>
       <c r="D943" s="26"/>
@@ -9132,7 +9129,7 @@
       <c r="F943" s="28"/>
       <c r="G943" s="29"/>
     </row>
-    <row r="944" spans="2:7" ht="15.75" customHeight="1">
+    <row r="944" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B944" s="24"/>
       <c r="C944" s="25"/>
       <c r="D944" s="26"/>
@@ -9140,7 +9137,7 @@
       <c r="F944" s="28"/>
       <c r="G944" s="29"/>
     </row>
-    <row r="945" spans="2:7" ht="15.75" customHeight="1">
+    <row r="945" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B945" s="24"/>
       <c r="C945" s="25"/>
       <c r="D945" s="26"/>
@@ -9148,7 +9145,7 @@
       <c r="F945" s="28"/>
       <c r="G945" s="29"/>
     </row>
-    <row r="946" spans="2:7" ht="15.75" customHeight="1">
+    <row r="946" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B946" s="24"/>
       <c r="C946" s="25"/>
       <c r="D946" s="26"/>
@@ -9156,7 +9153,7 @@
       <c r="F946" s="28"/>
       <c r="G946" s="29"/>
     </row>
-    <row r="947" spans="2:7" ht="15.75" customHeight="1">
+    <row r="947" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B947" s="24"/>
       <c r="C947" s="25"/>
       <c r="D947" s="26"/>
@@ -9164,7 +9161,7 @@
       <c r="F947" s="28"/>
       <c r="G947" s="29"/>
     </row>
-    <row r="948" spans="2:7" ht="15.75" customHeight="1">
+    <row r="948" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B948" s="24"/>
       <c r="C948" s="25"/>
       <c r="D948" s="26"/>
@@ -9172,7 +9169,7 @@
       <c r="F948" s="28"/>
       <c r="G948" s="29"/>
     </row>
-    <row r="949" spans="2:7" ht="15.75" customHeight="1">
+    <row r="949" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B949" s="24"/>
       <c r="C949" s="25"/>
       <c r="D949" s="26"/>
@@ -9180,7 +9177,7 @@
       <c r="F949" s="28"/>
       <c r="G949" s="29"/>
     </row>
-    <row r="950" spans="2:7" ht="15.75" customHeight="1">
+    <row r="950" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B950" s="24"/>
       <c r="C950" s="25"/>
       <c r="D950" s="26"/>
@@ -9188,7 +9185,7 @@
       <c r="F950" s="28"/>
       <c r="G950" s="29"/>
     </row>
-    <row r="951" spans="2:7" ht="15.75" customHeight="1">
+    <row r="951" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B951" s="24"/>
       <c r="C951" s="25"/>
       <c r="D951" s="26"/>
@@ -9196,7 +9193,7 @@
       <c r="F951" s="28"/>
       <c r="G951" s="29"/>
     </row>
-    <row r="952" spans="2:7" ht="15.75" customHeight="1">
+    <row r="952" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B952" s="24"/>
       <c r="C952" s="25"/>
       <c r="D952" s="26"/>
@@ -9204,7 +9201,7 @@
       <c r="F952" s="28"/>
       <c r="G952" s="29"/>
     </row>
-    <row r="953" spans="2:7" ht="15.75" customHeight="1">
+    <row r="953" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B953" s="24"/>
       <c r="C953" s="25"/>
       <c r="D953" s="26"/>
@@ -9212,7 +9209,7 @@
       <c r="F953" s="28"/>
       <c r="G953" s="29"/>
     </row>
-    <row r="954" spans="2:7" ht="15.75" customHeight="1">
+    <row r="954" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B954" s="24"/>
       <c r="C954" s="25"/>
       <c r="D954" s="26"/>
@@ -9220,7 +9217,7 @@
       <c r="F954" s="28"/>
       <c r="G954" s="29"/>
     </row>
-    <row r="955" spans="2:7" ht="15.75" customHeight="1">
+    <row r="955" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B955" s="24"/>
       <c r="C955" s="25"/>
       <c r="D955" s="26"/>
@@ -9228,7 +9225,7 @@
       <c r="F955" s="28"/>
       <c r="G955" s="29"/>
     </row>
-    <row r="956" spans="2:7" ht="15.75" customHeight="1">
+    <row r="956" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B956" s="24"/>
       <c r="C956" s="25"/>
       <c r="D956" s="26"/>
@@ -9236,7 +9233,7 @@
       <c r="F956" s="28"/>
       <c r="G956" s="29"/>
     </row>
-    <row r="957" spans="2:7" ht="15.75" customHeight="1">
+    <row r="957" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B957" s="24"/>
       <c r="C957" s="25"/>
       <c r="D957" s="26"/>
@@ -9244,7 +9241,7 @@
       <c r="F957" s="28"/>
       <c r="G957" s="29"/>
     </row>
-    <row r="958" spans="2:7" ht="15.75" customHeight="1">
+    <row r="958" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B958" s="24"/>
       <c r="C958" s="25"/>
       <c r="D958" s="26"/>
@@ -9252,7 +9249,7 @@
       <c r="F958" s="28"/>
       <c r="G958" s="29"/>
     </row>
-    <row r="959" spans="2:7" ht="15.75" customHeight="1">
+    <row r="959" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B959" s="24"/>
       <c r="C959" s="25"/>
       <c r="D959" s="26"/>
@@ -9260,7 +9257,7 @@
       <c r="F959" s="28"/>
       <c r="G959" s="29"/>
     </row>
-    <row r="960" spans="2:7" ht="15.75" customHeight="1">
+    <row r="960" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B960" s="24"/>
       <c r="C960" s="25"/>
       <c r="D960" s="26"/>
@@ -9268,7 +9265,7 @@
       <c r="F960" s="28"/>
       <c r="G960" s="29"/>
     </row>
-    <row r="961" spans="2:7" ht="15.75" customHeight="1">
+    <row r="961" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B961" s="24"/>
       <c r="C961" s="25"/>
       <c r="D961" s="26"/>
@@ -9276,7 +9273,7 @@
       <c r="F961" s="28"/>
       <c r="G961" s="29"/>
     </row>
-    <row r="962" spans="2:7" ht="15.75" customHeight="1">
+    <row r="962" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B962" s="24"/>
       <c r="C962" s="25"/>
       <c r="D962" s="26"/>
@@ -9284,7 +9281,7 @@
       <c r="F962" s="28"/>
       <c r="G962" s="29"/>
     </row>
-    <row r="963" spans="2:7" ht="15.75" customHeight="1">
+    <row r="963" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B963" s="24"/>
       <c r="C963" s="25"/>
       <c r="D963" s="26"/>
@@ -9292,7 +9289,7 @@
       <c r="F963" s="28"/>
       <c r="G963" s="29"/>
     </row>
-    <row r="964" spans="2:7" ht="15.75" customHeight="1">
+    <row r="964" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B964" s="24"/>
       <c r="C964" s="25"/>
       <c r="D964" s="26"/>
@@ -9300,7 +9297,7 @@
       <c r="F964" s="28"/>
       <c r="G964" s="29"/>
     </row>
-    <row r="965" spans="2:7" ht="15.75" customHeight="1">
+    <row r="965" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B965" s="24"/>
       <c r="C965" s="25"/>
       <c r="D965" s="26"/>
@@ -9308,7 +9305,7 @@
       <c r="F965" s="28"/>
       <c r="G965" s="29"/>
     </row>
-    <row r="966" spans="2:7" ht="15.75" customHeight="1">
+    <row r="966" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B966" s="24"/>
       <c r="C966" s="25"/>
       <c r="D966" s="26"/>
@@ -9316,7 +9313,7 @@
       <c r="F966" s="28"/>
       <c r="G966" s="29"/>
     </row>
-    <row r="967" spans="2:7" ht="15.75" customHeight="1">
+    <row r="967" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B967" s="24"/>
       <c r="C967" s="25"/>
       <c r="D967" s="26"/>
@@ -9324,7 +9321,7 @@
       <c r="F967" s="28"/>
       <c r="G967" s="29"/>
     </row>
-    <row r="968" spans="2:7" ht="15.75" customHeight="1">
+    <row r="968" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B968" s="24"/>
       <c r="C968" s="25"/>
       <c r="D968" s="26"/>
@@ -9332,7 +9329,7 @@
       <c r="F968" s="28"/>
       <c r="G968" s="29"/>
     </row>
-    <row r="969" spans="2:7" ht="15.75" customHeight="1">
+    <row r="969" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B969" s="24"/>
       <c r="C969" s="25"/>
       <c r="D969" s="26"/>
@@ -9340,7 +9337,7 @@
       <c r="F969" s="28"/>
       <c r="G969" s="29"/>
     </row>
-    <row r="970" spans="2:7" ht="15.75" customHeight="1">
+    <row r="970" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B970" s="24"/>
       <c r="C970" s="25"/>
       <c r="D970" s="26"/>
@@ -9348,7 +9345,7 @@
       <c r="F970" s="28"/>
       <c r="G970" s="29"/>
     </row>
-    <row r="971" spans="2:7" ht="15.75" customHeight="1">
+    <row r="971" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B971" s="24"/>
       <c r="C971" s="25"/>
       <c r="D971" s="26"/>
@@ -9356,7 +9353,7 @@
       <c r="F971" s="28"/>
       <c r="G971" s="29"/>
     </row>
-    <row r="972" spans="2:7" ht="15.75" customHeight="1">
+    <row r="972" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B972" s="24"/>
       <c r="C972" s="25"/>
       <c r="D972" s="26"/>
@@ -9364,7 +9361,7 @@
       <c r="F972" s="28"/>
       <c r="G972" s="29"/>
     </row>
-    <row r="973" spans="2:7" ht="15.75" customHeight="1">
+    <row r="973" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B973" s="24"/>
       <c r="C973" s="25"/>
       <c r="D973" s="26"/>
@@ -9372,7 +9369,7 @@
       <c r="F973" s="28"/>
       <c r="G973" s="29"/>
     </row>
-    <row r="974" spans="2:7" ht="15.75" customHeight="1">
+    <row r="974" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B974" s="24"/>
       <c r="C974" s="25"/>
       <c r="D974" s="26"/>
@@ -9380,7 +9377,7 @@
       <c r="F974" s="28"/>
       <c r="G974" s="29"/>
     </row>
-    <row r="975" spans="2:7" ht="15.75" customHeight="1">
+    <row r="975" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B975" s="24"/>
       <c r="C975" s="25"/>
       <c r="D975" s="26"/>
@@ -9388,7 +9385,7 @@
       <c r="F975" s="28"/>
       <c r="G975" s="29"/>
     </row>
-    <row r="976" spans="2:7" ht="15.75" customHeight="1">
+    <row r="976" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B976" s="24"/>
       <c r="C976" s="25"/>
       <c r="D976" s="26"/>
@@ -9396,7 +9393,7 @@
       <c r="F976" s="28"/>
       <c r="G976" s="29"/>
     </row>
-    <row r="977" spans="2:7" ht="15.75" customHeight="1">
+    <row r="977" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B977" s="24"/>
       <c r="C977" s="25"/>
       <c r="D977" s="26"/>
@@ -9404,7 +9401,7 @@
       <c r="F977" s="28"/>
       <c r="G977" s="29"/>
     </row>
-    <row r="978" spans="2:7" ht="15.75" customHeight="1">
+    <row r="978" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B978" s="24"/>
       <c r="C978" s="25"/>
       <c r="D978" s="26"/>
@@ -9412,7 +9409,7 @@
       <c r="F978" s="28"/>
       <c r="G978" s="29"/>
     </row>
-    <row r="979" spans="2:7" ht="15.75" customHeight="1">
+    <row r="979" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B979" s="24"/>
       <c r="C979" s="25"/>
       <c r="D979" s="26"/>
@@ -9420,7 +9417,7 @@
       <c r="F979" s="28"/>
       <c r="G979" s="29"/>
     </row>
-    <row r="980" spans="2:7" ht="15.75" customHeight="1">
+    <row r="980" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B980" s="24"/>
       <c r="C980" s="25"/>
       <c r="D980" s="26"/>
@@ -9428,7 +9425,7 @@
       <c r="F980" s="28"/>
       <c r="G980" s="29"/>
     </row>
-    <row r="981" spans="2:7" ht="15.75" customHeight="1">
+    <row r="981" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B981" s="24"/>
       <c r="C981" s="25"/>
       <c r="D981" s="26"/>
@@ -9436,7 +9433,7 @@
       <c r="F981" s="28"/>
       <c r="G981" s="29"/>
     </row>
-    <row r="982" spans="2:7" ht="15.75" customHeight="1">
+    <row r="982" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B982" s="24"/>
       <c r="C982" s="25"/>
       <c r="D982" s="26"/>
@@ -9444,7 +9441,7 @@
       <c r="F982" s="28"/>
       <c r="G982" s="29"/>
     </row>
-    <row r="983" spans="2:7" ht="15.75" customHeight="1">
+    <row r="983" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B983" s="24"/>
       <c r="C983" s="25"/>
       <c r="D983" s="26"/>
@@ -9452,7 +9449,7 @@
       <c r="F983" s="28"/>
       <c r="G983" s="29"/>
     </row>
-    <row r="984" spans="2:7" ht="15.75" customHeight="1">
+    <row r="984" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B984" s="24"/>
       <c r="C984" s="25"/>
       <c r="D984" s="26"/>
@@ -9460,7 +9457,7 @@
       <c r="F984" s="28"/>
       <c r="G984" s="29"/>
     </row>
-    <row r="985" spans="2:7" ht="15.75" customHeight="1">
+    <row r="985" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B985" s="24"/>
       <c r="C985" s="25"/>
       <c r="D985" s="26"/>
@@ -9468,7 +9465,7 @@
       <c r="F985" s="28"/>
       <c r="G985" s="29"/>
     </row>
-    <row r="986" spans="2:7" ht="15.75" customHeight="1">
+    <row r="986" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B986" s="24"/>
       <c r="C986" s="25"/>
       <c r="D986" s="26"/>
@@ -9476,7 +9473,7 @@
       <c r="F986" s="28"/>
       <c r="G986" s="29"/>
     </row>
-    <row r="987" spans="2:7" ht="15.75" customHeight="1">
+    <row r="987" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B987" s="24"/>
       <c r="C987" s="25"/>
       <c r="D987" s="26"/>
@@ -9484,7 +9481,7 @@
       <c r="F987" s="28"/>
       <c r="G987" s="29"/>
     </row>
-    <row r="988" spans="2:7" ht="15.75" customHeight="1">
+    <row r="988" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B988" s="24"/>
       <c r="C988" s="25"/>
       <c r="D988" s="26"/>
@@ -9492,7 +9489,7 @@
       <c r="F988" s="28"/>
       <c r="G988" s="29"/>
     </row>
-    <row r="989" spans="2:7" ht="15.75" customHeight="1">
+    <row r="989" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B989" s="24"/>
       <c r="C989" s="25"/>
       <c r="D989" s="26"/>
@@ -9500,7 +9497,7 @@
       <c r="F989" s="28"/>
       <c r="G989" s="29"/>
     </row>
-    <row r="990" spans="2:7" ht="15.75" customHeight="1">
+    <row r="990" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B990" s="24"/>
       <c r="C990" s="25"/>
       <c r="D990" s="26"/>
@@ -9508,7 +9505,7 @@
       <c r="F990" s="28"/>
       <c r="G990" s="29"/>
     </row>
-    <row r="991" spans="2:7" ht="15.75" customHeight="1">
+    <row r="991" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B991" s="24"/>
       <c r="C991" s="25"/>
       <c r="D991" s="26"/>
@@ -9516,7 +9513,7 @@
       <c r="F991" s="28"/>
       <c r="G991" s="29"/>
     </row>
-    <row r="992" spans="2:7" ht="15.75" customHeight="1">
+    <row r="992" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B992" s="24"/>
       <c r="C992" s="25"/>
       <c r="D992" s="26"/>
@@ -9524,7 +9521,7 @@
       <c r="F992" s="28"/>
       <c r="G992" s="29"/>
     </row>
-    <row r="993" spans="2:7" ht="15.75" customHeight="1">
+    <row r="993" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B993" s="24"/>
       <c r="C993" s="25"/>
       <c r="D993" s="26"/>
@@ -9532,7 +9529,7 @@
       <c r="F993" s="28"/>
       <c r="G993" s="29"/>
     </row>
-    <row r="994" spans="2:7" ht="15.75" customHeight="1">
+    <row r="994" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B994" s="24"/>
       <c r="C994" s="25"/>
       <c r="D994" s="26"/>
@@ -9540,7 +9537,7 @@
       <c r="F994" s="28"/>
       <c r="G994" s="29"/>
     </row>
-    <row r="995" spans="2:7" ht="15.75" customHeight="1">
+    <row r="995" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B995" s="24"/>
       <c r="C995" s="25"/>
       <c r="D995" s="26"/>
@@ -9548,7 +9545,7 @@
       <c r="F995" s="28"/>
       <c r="G995" s="29"/>
     </row>
-    <row r="996" spans="2:7" ht="15.75" customHeight="1">
+    <row r="996" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B996" s="24"/>
       <c r="C996" s="25"/>
       <c r="D996" s="26"/>
@@ -9556,7 +9553,7 @@
       <c r="F996" s="28"/>
       <c r="G996" s="29"/>
     </row>
-    <row r="997" spans="2:7" ht="15.75" customHeight="1">
+    <row r="997" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B997" s="24"/>
       <c r="C997" s="25"/>
       <c r="D997" s="26"/>
@@ -9564,7 +9561,7 @@
       <c r="F997" s="28"/>
       <c r="G997" s="29"/>
     </row>
-    <row r="998" spans="2:7" ht="15.75" customHeight="1">
+    <row r="998" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B998" s="24"/>
       <c r="C998" s="25"/>
       <c r="D998" s="26"/>
@@ -9572,7 +9569,7 @@
       <c r="F998" s="28"/>
       <c r="G998" s="29"/>
     </row>
-    <row r="999" spans="2:7" ht="15.75" customHeight="1">
+    <row r="999" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B999" s="24"/>
       <c r="C999" s="25"/>
       <c r="D999" s="26"/>
@@ -9580,7 +9577,7 @@
       <c r="F999" s="28"/>
       <c r="G999" s="29"/>
     </row>
-    <row r="1000" spans="2:7" ht="15.75" customHeight="1">
+    <row r="1000" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1000" s="24"/>
       <c r="C1000" s="25"/>
       <c r="D1000" s="26"/>
@@ -9588,7 +9585,7 @@
       <c r="F1000" s="28"/>
       <c r="G1000" s="29"/>
     </row>
-    <row r="1001" spans="2:7" ht="15.75" customHeight="1">
+    <row r="1001" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1001" s="24"/>
       <c r="C1001" s="25"/>
       <c r="D1001" s="26"/>
